--- a/SO SACH - LA/SO SACH/2015/131 - 331 - 15.xlsx
+++ b/SO SACH - LA/SO SACH/2015/131 - 331 - 15.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="345" windowWidth="13995" windowHeight="8445" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="345" windowWidth="13995" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="131" sheetId="8" r:id="rId1"/>
@@ -4097,13 +4097,22 @@
     <xf numFmtId="0" fontId="34" fillId="21" borderId="2" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="24" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4118,19 +4127,43 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" xfId="52" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="24" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="24" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="25" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="25" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="18" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="20" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="21" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="24" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4151,39 +4184,6 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="18" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" xfId="52" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="24" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="18" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="20" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="21" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="24" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="21" borderId="25" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4193,26 +4193,26 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="23" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="23" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="75">
@@ -4368,28 +4368,28 @@
             <v>24303712194</v>
           </cell>
           <cell r="F37">
-            <v>27838253677</v>
+            <v>28921054677</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4685,12 +4685,12 @@
   </sheetPr>
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B26" sqref="B26"/>
       <selection pane="topRight" activeCell="B26" sqref="B26"/>
       <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
-      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.5"/>
@@ -5473,7 +5473,7 @@
   <dimension ref="A1:L243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D29" sqref="D29"/>
       <selection pane="bottomLeft" activeCell="B215" sqref="B215"/>
     </sheetView>
@@ -5491,61 +5491,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="24" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="297" t="s">
+      <c r="A1" s="290" t="s">
         <v>424</v>
       </c>
-      <c r="B1" s="290" t="s">
+      <c r="B1" s="293" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="292"/>
-      <c r="D1" s="297" t="s">
+      <c r="C1" s="294"/>
+      <c r="D1" s="290" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="297" t="s">
+      <c r="E1" s="290" t="s">
         <v>423</v>
       </c>
-      <c r="F1" s="297" t="s">
+      <c r="F1" s="290" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="297" t="s">
+      <c r="G1" s="290" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="290" t="s">
+      <c r="H1" s="293" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="291"/>
-      <c r="J1" s="291"/>
-      <c r="K1" s="292"/>
+      <c r="I1" s="295"/>
+      <c r="J1" s="295"/>
+      <c r="K1" s="294"/>
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="298"/>
-      <c r="B2" s="293" t="s">
+      <c r="A2" s="291"/>
+      <c r="B2" s="296" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="293" t="s">
+      <c r="C2" s="296" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="298"/>
-      <c r="E2" s="298"/>
-      <c r="F2" s="298"/>
-      <c r="G2" s="298"/>
-      <c r="H2" s="295" t="s">
+      <c r="D2" s="291"/>
+      <c r="E2" s="291"/>
+      <c r="F2" s="291"/>
+      <c r="G2" s="291"/>
+      <c r="H2" s="298" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="296"/>
-      <c r="J2" s="295" t="s">
+      <c r="I2" s="299"/>
+      <c r="J2" s="298" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="296"/>
+      <c r="K2" s="299"/>
     </row>
     <row r="3" spans="1:11" s="24" customFormat="1" ht="24" customHeight="1">
-      <c r="A3" s="299"/>
-      <c r="B3" s="294"/>
-      <c r="C3" s="294"/>
-      <c r="D3" s="299"/>
-      <c r="E3" s="299"/>
-      <c r="F3" s="299"/>
-      <c r="G3" s="299"/>
+      <c r="A3" s="292"/>
+      <c r="B3" s="297"/>
+      <c r="C3" s="297"/>
+      <c r="D3" s="292"/>
+      <c r="E3" s="292"/>
+      <c r="F3" s="292"/>
+      <c r="G3" s="292"/>
       <c r="H3" s="5" t="s">
         <v>26</v>
       </c>
@@ -13703,17 +13703,17 @@
     <filterColumn colId="5"/>
   </autoFilter>
   <mergeCells count="11">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="G1:G3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H195:I195 E5:E243">
@@ -13776,12 +13776,12 @@
       <c r="O2" s="102"/>
     </row>
     <row r="3" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="308" t="s">
+      <c r="A3" s="300" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="308"/>
-      <c r="C3" s="308"/>
-      <c r="D3" s="308"/>
+      <c r="B3" s="300"/>
+      <c r="C3" s="300"/>
+      <c r="D3" s="300"/>
       <c r="E3" s="59"/>
       <c r="G3" s="171"/>
       <c r="H3" s="172"/>
@@ -13831,23 +13831,23 @@
       <c r="O5" s="182"/>
     </row>
     <row r="6" spans="1:15" s="61" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A6" s="309" t="s">
+      <c r="A6" s="301" t="s">
         <v>257</v>
       </c>
-      <c r="B6" s="309"/>
-      <c r="C6" s="309"/>
-      <c r="D6" s="309"/>
-      <c r="E6" s="309"/>
-      <c r="F6" s="309"/>
-      <c r="G6" s="309"/>
-      <c r="H6" s="309"/>
-      <c r="I6" s="309"/>
-      <c r="J6" s="309"/>
-      <c r="K6" s="309"/>
-      <c r="L6" s="309"/>
-      <c r="M6" s="309"/>
-      <c r="N6" s="309"/>
-      <c r="O6" s="309"/>
+      <c r="B6" s="301"/>
+      <c r="C6" s="301"/>
+      <c r="D6" s="301"/>
+      <c r="E6" s="301"/>
+      <c r="F6" s="301"/>
+      <c r="G6" s="301"/>
+      <c r="H6" s="301"/>
+      <c r="I6" s="301"/>
+      <c r="J6" s="301"/>
+      <c r="K6" s="301"/>
+      <c r="L6" s="301"/>
+      <c r="M6" s="301"/>
+      <c r="N6" s="301"/>
+      <c r="O6" s="301"/>
     </row>
     <row r="7" spans="1:15" s="61" customFormat="1" ht="15">
       <c r="H7" s="214" t="s">
@@ -13863,11 +13863,11 @@
       <c r="G9" s="147" t="s">
         <v>324</v>
       </c>
-      <c r="H9" s="310" t="s">
+      <c r="H9" s="302" t="s">
         <v>256</v>
       </c>
-      <c r="I9" s="310"/>
-      <c r="J9" s="310"/>
+      <c r="I9" s="302"/>
+      <c r="J9" s="302"/>
     </row>
     <row r="10" spans="1:15" s="61" customFormat="1" ht="15">
       <c r="H10" s="214" t="s">
@@ -13892,75 +13892,75 @@
       <c r="O11" s="183"/>
     </row>
     <row r="12" spans="1:15" s="214" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A12" s="311" t="s">
+      <c r="A12" s="303" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="301" t="s">
+      <c r="B12" s="306" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="314"/>
-      <c r="D12" s="311" t="s">
+      <c r="C12" s="307"/>
+      <c r="D12" s="303" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="311" t="s">
+      <c r="E12" s="303" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="311" t="s">
+      <c r="F12" s="303" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="315" t="s">
+      <c r="G12" s="308" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="301" t="s">
+      <c r="H12" s="306" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="318"/>
-      <c r="J12" s="318"/>
-      <c r="K12" s="314"/>
-      <c r="L12" s="301" t="s">
+      <c r="I12" s="311"/>
+      <c r="J12" s="311"/>
+      <c r="K12" s="307"/>
+      <c r="L12" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="302"/>
-      <c r="N12" s="302"/>
-      <c r="O12" s="303"/>
+      <c r="M12" s="313"/>
+      <c r="N12" s="313"/>
+      <c r="O12" s="314"/>
     </row>
     <row r="13" spans="1:15" s="214" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="312"/>
-      <c r="B13" s="304" t="s">
+      <c r="A13" s="304"/>
+      <c r="B13" s="315" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="304" t="s">
+      <c r="C13" s="315" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="312"/>
-      <c r="E13" s="312"/>
-      <c r="F13" s="312"/>
-      <c r="G13" s="316"/>
-      <c r="H13" s="306" t="s">
+      <c r="D13" s="304"/>
+      <c r="E13" s="304"/>
+      <c r="F13" s="304"/>
+      <c r="G13" s="309"/>
+      <c r="H13" s="317" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="307"/>
-      <c r="J13" s="306" t="s">
+      <c r="I13" s="318"/>
+      <c r="J13" s="317" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="307"/>
-      <c r="L13" s="306" t="s">
+      <c r="K13" s="318"/>
+      <c r="L13" s="317" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="303"/>
-      <c r="N13" s="306" t="s">
+      <c r="M13" s="314"/>
+      <c r="N13" s="317" t="s">
         <v>11</v>
       </c>
-      <c r="O13" s="303"/>
+      <c r="O13" s="314"/>
     </row>
     <row r="14" spans="1:15" s="214" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A14" s="313"/>
-      <c r="B14" s="305"/>
-      <c r="C14" s="305"/>
-      <c r="D14" s="313"/>
-      <c r="E14" s="313"/>
-      <c r="F14" s="313"/>
-      <c r="G14" s="317"/>
+      <c r="A14" s="305"/>
+      <c r="B14" s="316"/>
+      <c r="C14" s="316"/>
+      <c r="D14" s="305"/>
+      <c r="E14" s="305"/>
+      <c r="F14" s="305"/>
+      <c r="G14" s="310"/>
       <c r="H14" s="184" t="s">
         <v>26</v>
       </c>
@@ -18000,14 +18000,14 @@
       <c r="G87" s="165"/>
       <c r="H87" s="166"/>
       <c r="I87" s="165"/>
-      <c r="J87" s="300" t="s">
+      <c r="J87" s="312" t="s">
         <v>128</v>
       </c>
-      <c r="K87" s="300"/>
-      <c r="L87" s="300"/>
-      <c r="M87" s="300"/>
-      <c r="N87" s="300"/>
-      <c r="O87" s="300"/>
+      <c r="K87" s="312"/>
+      <c r="L87" s="312"/>
+      <c r="M87" s="312"/>
+      <c r="N87" s="312"/>
+      <c r="O87" s="312"/>
     </row>
     <row r="88" spans="1:15" s="61" customFormat="1" ht="15">
       <c r="A88" s="217"/>
@@ -18022,10 +18022,10 @@
       <c r="I88" s="165"/>
       <c r="J88" s="167"/>
       <c r="K88" s="165"/>
-      <c r="L88" s="300" t="s">
+      <c r="L88" s="312" t="s">
         <v>22</v>
       </c>
-      <c r="M88" s="300"/>
+      <c r="M88" s="312"/>
     </row>
     <row r="89" spans="1:15" s="61" customFormat="1" ht="15">
       <c r="A89" s="217"/>
@@ -18040,13 +18040,23 @@
       <c r="I89" s="165"/>
       <c r="J89" s="167"/>
       <c r="K89" s="165"/>
-      <c r="L89" s="300" t="s">
+      <c r="L89" s="312" t="s">
         <v>23</v>
       </c>
-      <c r="M89" s="300"/>
+      <c r="M89" s="312"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J87:O87"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="H9:J9"/>
@@ -18057,16 +18067,6 @@
     <mergeCell ref="F12:F14"/>
     <mergeCell ref="G12:G14"/>
     <mergeCell ref="H12:K12"/>
-    <mergeCell ref="J87:O87"/>
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="L89:M89"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9">
@@ -18085,7 +18085,7 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G6" sqref="G6"/>
       <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
@@ -20345,7 +20345,7 @@
       </c>
       <c r="F76" s="55">
         <f>[2]CDPS!$F$37</f>
-        <v>27838253677</v>
+        <v>28921054677</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -20355,7 +20355,7 @@
       </c>
       <c r="F77" s="53">
         <f>F74-F76</f>
-        <v>-926330402</v>
+        <v>-2009131402</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -20396,7 +20396,7 @@
   </sheetPr>
   <dimension ref="A2:I969"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="D11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A709" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B26" sqref="B26"/>
       <selection pane="bottomLeft" activeCell="D713" sqref="A713:XFD723"/>
@@ -20435,7 +20435,7 @@
       <c r="B3" s="57"/>
       <c r="C3" s="57"/>
       <c r="G3" s="103"/>
-      <c r="H3" s="324" t="s">
+      <c r="H3" s="323" t="s">
         <v>250</v>
       </c>
     </row>
@@ -20444,109 +20444,109 @@
       <c r="B4" s="57"/>
       <c r="C4" s="57"/>
       <c r="G4" s="103"/>
-      <c r="H4" s="324"/>
+      <c r="H4" s="323"/>
     </row>
     <row r="5" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A5" s="323" t="s">
+      <c r="A5" s="322" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="323"/>
-      <c r="C5" s="323"/>
-      <c r="D5" s="323"/>
-      <c r="E5" s="323"/>
-      <c r="F5" s="323"/>
-      <c r="G5" s="323"/>
-      <c r="H5" s="323"/>
+      <c r="B5" s="322"/>
+      <c r="C5" s="322"/>
+      <c r="D5" s="322"/>
+      <c r="E5" s="322"/>
+      <c r="F5" s="322"/>
+      <c r="G5" s="322"/>
+      <c r="H5" s="322"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A6" s="300" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="300"/>
-      <c r="C6" s="300"/>
-      <c r="D6" s="300"/>
-      <c r="E6" s="300"/>
-      <c r="F6" s="300"/>
-      <c r="G6" s="300"/>
-      <c r="H6" s="300"/>
+      <c r="A6" s="312" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="312"/>
+      <c r="C6" s="312"/>
+      <c r="D6" s="312"/>
+      <c r="E6" s="312"/>
+      <c r="F6" s="312"/>
+      <c r="G6" s="312"/>
+      <c r="H6" s="312"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A7" s="300" t="s">
+      <c r="A7" s="312" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="300"/>
-      <c r="C7" s="300"/>
-      <c r="D7" s="300"/>
-      <c r="E7" s="300"/>
-      <c r="F7" s="300"/>
-      <c r="G7" s="300"/>
-      <c r="H7" s="300"/>
+      <c r="B7" s="312"/>
+      <c r="C7" s="312"/>
+      <c r="D7" s="312"/>
+      <c r="E7" s="312"/>
+      <c r="F7" s="312"/>
+      <c r="G7" s="312"/>
+      <c r="H7" s="312"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A8" s="300" t="s">
+      <c r="A8" s="312" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="300"/>
-      <c r="C8" s="300"/>
-      <c r="D8" s="300"/>
-      <c r="E8" s="300"/>
-      <c r="F8" s="300"/>
-      <c r="G8" s="300"/>
-      <c r="H8" s="300"/>
+      <c r="B8" s="312"/>
+      <c r="C8" s="312"/>
+      <c r="D8" s="312"/>
+      <c r="E8" s="312"/>
+      <c r="F8" s="312"/>
+      <c r="G8" s="312"/>
+      <c r="H8" s="312"/>
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A9" s="300" t="s">
+      <c r="A9" s="312" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="300"/>
-      <c r="C9" s="300"/>
-      <c r="D9" s="300"/>
-      <c r="E9" s="300"/>
-      <c r="F9" s="300"/>
-      <c r="G9" s="300"/>
-      <c r="H9" s="300"/>
+      <c r="B9" s="312"/>
+      <c r="C9" s="312"/>
+      <c r="D9" s="312"/>
+      <c r="E9" s="312"/>
+      <c r="F9" s="312"/>
+      <c r="G9" s="312"/>
+      <c r="H9" s="312"/>
     </row>
     <row r="10" spans="1:9" ht="14.25" customHeight="1">
-      <c r="C10" s="322"/>
-      <c r="D10" s="322"/>
-      <c r="E10" s="322"/>
-      <c r="F10" s="322"/>
-      <c r="G10" s="322"/>
-      <c r="H10" s="322"/>
+      <c r="C10" s="324"/>
+      <c r="D10" s="324"/>
+      <c r="E10" s="324"/>
+      <c r="F10" s="324"/>
+      <c r="G10" s="324"/>
+      <c r="H10" s="324"/>
     </row>
     <row r="11" spans="1:9" ht="21" customHeight="1">
-      <c r="A11" s="311" t="s">
+      <c r="A11" s="303" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="301" t="s">
+      <c r="B11" s="306" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="314"/>
-      <c r="D11" s="311" t="s">
+      <c r="C11" s="307"/>
+      <c r="D11" s="303" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="311" t="s">
+      <c r="E11" s="303" t="s">
         <v>323</v>
       </c>
-      <c r="F11" s="311" t="s">
+      <c r="F11" s="303" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="301" t="s">
+      <c r="G11" s="306" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="314"/>
+      <c r="H11" s="307"/>
     </row>
     <row r="12" spans="1:9" ht="21" customHeight="1">
-      <c r="A12" s="312"/>
+      <c r="A12" s="304"/>
       <c r="B12" s="144" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="312"/>
-      <c r="E12" s="312"/>
-      <c r="F12" s="312"/>
+      <c r="D12" s="304"/>
+      <c r="E12" s="304"/>
+      <c r="F12" s="304"/>
       <c r="G12" s="144" t="s">
         <v>10</v>
       </c>
@@ -44187,12 +44187,6 @@
     <sortCondition ref="A699"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:H8"/>
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:C11"/>
@@ -44200,6 +44194,12 @@
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:H8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -44252,11 +44252,11 @@
       <c r="B2" s="57"/>
       <c r="C2" s="57"/>
       <c r="G2" s="102"/>
-      <c r="H2" s="328" t="s">
+      <c r="H2" s="327" t="s">
         <v>249</v>
       </c>
-      <c r="I2" s="328"/>
-      <c r="J2" s="328"/>
+      <c r="I2" s="327"/>
+      <c r="J2" s="327"/>
     </row>
     <row r="3" spans="1:12" s="58" customFormat="1" ht="14.25" customHeight="1">
       <c r="A3" s="59" t="s">
@@ -44265,34 +44265,34 @@
       <c r="B3" s="57"/>
       <c r="C3" s="57"/>
       <c r="G3" s="103"/>
-      <c r="H3" s="324" t="s">
+      <c r="H3" s="323" t="s">
         <v>250</v>
       </c>
-      <c r="I3" s="324"/>
-      <c r="J3" s="324"/>
+      <c r="I3" s="323"/>
+      <c r="J3" s="323"/>
     </row>
     <row r="4" spans="1:12" s="58" customFormat="1" ht="14.25" customHeight="1">
       <c r="A4" s="60"/>
       <c r="B4" s="57"/>
       <c r="C4" s="57"/>
       <c r="G4" s="103"/>
-      <c r="H4" s="324"/>
-      <c r="I4" s="324"/>
-      <c r="J4" s="324"/>
+      <c r="H4" s="323"/>
+      <c r="I4" s="323"/>
+      <c r="J4" s="323"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1">
-      <c r="A5" s="323" t="s">
+      <c r="A5" s="322" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="323"/>
-      <c r="C5" s="323"/>
-      <c r="D5" s="323"/>
-      <c r="E5" s="323"/>
-      <c r="F5" s="323"/>
-      <c r="G5" s="323"/>
-      <c r="H5" s="323"/>
-      <c r="I5" s="323"/>
-      <c r="J5" s="323"/>
+      <c r="B5" s="322"/>
+      <c r="C5" s="322"/>
+      <c r="D5" s="322"/>
+      <c r="E5" s="322"/>
+      <c r="F5" s="322"/>
+      <c r="G5" s="322"/>
+      <c r="H5" s="322"/>
+      <c r="I5" s="322"/>
+      <c r="J5" s="322"/>
       <c r="L5" s="148" t="s">
         <v>57</v>
       </c>
@@ -44329,12 +44329,12 @@
       <c r="D8" s="224" t="s">
         <v>324</v>
       </c>
-      <c r="E8" s="327" t="s">
+      <c r="E8" s="326" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="327"/>
-      <c r="G8" s="327"/>
-      <c r="H8" s="327"/>
+      <c r="F8" s="326"/>
+      <c r="G8" s="326"/>
+      <c r="H8" s="326"/>
     </row>
     <row r="9" spans="1:12" s="23" customFormat="1" ht="14.25" customHeight="1">
       <c r="A9" s="325" t="s">
@@ -44352,52 +44352,52 @@
     </row>
     <row r="10" spans="1:12" s="23" customFormat="1" ht="6" customHeight="1">
       <c r="B10" s="24"/>
-      <c r="C10" s="326"/>
-      <c r="D10" s="326"/>
-      <c r="E10" s="326"/>
-      <c r="F10" s="326"/>
-      <c r="G10" s="326"/>
-      <c r="H10" s="326"/>
-      <c r="I10" s="326"/>
-      <c r="J10" s="326"/>
+      <c r="C10" s="328"/>
+      <c r="D10" s="328"/>
+      <c r="E10" s="328"/>
+      <c r="F10" s="328"/>
+      <c r="G10" s="328"/>
+      <c r="H10" s="328"/>
+      <c r="I10" s="328"/>
+      <c r="J10" s="328"/>
     </row>
     <row r="11" spans="1:12" s="23" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A11" s="297" t="s">
+      <c r="A11" s="290" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="290" t="s">
+      <c r="B11" s="293" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="292"/>
-      <c r="D11" s="297" t="s">
+      <c r="C11" s="294"/>
+      <c r="D11" s="290" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="297" t="s">
+      <c r="E11" s="290" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="297" t="s">
+      <c r="F11" s="290" t="s">
         <v>125</v>
       </c>
-      <c r="G11" s="290" t="s">
+      <c r="G11" s="293" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="292"/>
-      <c r="I11" s="290" t="s">
+      <c r="H11" s="294"/>
+      <c r="I11" s="293" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="292"/>
+      <c r="J11" s="294"/>
     </row>
     <row r="12" spans="1:12" s="23" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A12" s="298"/>
+      <c r="A12" s="291"/>
       <c r="B12" s="223" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="223" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="298"/>
-      <c r="E12" s="298"/>
-      <c r="F12" s="298"/>
+      <c r="D12" s="291"/>
+      <c r="E12" s="291"/>
+      <c r="F12" s="291"/>
       <c r="G12" s="223" t="s">
         <v>10</v>
       </c>
@@ -52596,13 +52596,11 @@
     <row r="233" spans="1:10" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J4"/>
-    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="E226:J226"/>
+    <mergeCell ref="A227:D227"/>
+    <mergeCell ref="E227:J227"/>
+    <mergeCell ref="A228:D228"/>
+    <mergeCell ref="E228:J228"/>
     <mergeCell ref="C10:J10"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="A11:A12"/>
@@ -52611,11 +52609,13 @@
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E226:J226"/>
-    <mergeCell ref="A227:D227"/>
-    <mergeCell ref="E227:J227"/>
-    <mergeCell ref="A228:D228"/>
-    <mergeCell ref="E228:J228"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J4"/>
+    <mergeCell ref="A7:J7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="2">

--- a/SO SACH - LA/SO SACH/2015/131 - 331 - 15.xlsx
+++ b/SO SACH - LA/SO SACH/2015/131 - 331 - 15.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="345" windowWidth="13995" windowHeight="8445" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="345" windowWidth="13995" windowHeight="8445" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="131" sheetId="8" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_Fill" localSheetId="2" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'131-TH'!$A$4:$K$250</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'131-TH'!$A$4:$K$260</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'331'!$A$3:$H$74</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'331 - TH'!$A$13:$J$996</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'331-CT'!$A$13:$L$59</definedName>
@@ -33,14 +33,14 @@
     <definedName name="DSKH3">'331'!$B$4:$B$15</definedName>
     <definedName name="DSKH4">'331'!$B$16:$B$32</definedName>
     <definedName name="DSKHusd">'131'!$B$5:$B$15</definedName>
-    <definedName name="DSKHusd1">'131-TH'!$E$5:$E$250</definedName>
+    <definedName name="DSKHusd1">'131-TH'!$E$5:$E$260</definedName>
     <definedName name="DSN">'331 - TH'!$G$14:$G$996</definedName>
-    <definedName name="DSPS1">'131-TH'!$H$5:$H$250</definedName>
-    <definedName name="DSPS2">'131-TH'!$I$5:$I$250</definedName>
-    <definedName name="DSPS3">'131-TH'!$J$5:$J$250</definedName>
-    <definedName name="DSPS4">'131-TH'!$K$5:$K$250</definedName>
+    <definedName name="DSPS1">'131-TH'!$H$5:$H$260</definedName>
+    <definedName name="DSPS2">'131-TH'!$I$5:$I$260</definedName>
+    <definedName name="DSPS3">'131-TH'!$J$5:$J$260</definedName>
+    <definedName name="DSPS4">'131-TH'!$K$5:$K$260</definedName>
     <definedName name="Loai">OFFSET('331 - TH'!$E$14,,,COUNTA('331 - TH'!$E$14:$E$40395))</definedName>
-    <definedName name="Loai1">OFFSET('131-TH'!$E$5,,,COUNTA('131-TH'!$E$5:$E$47858))</definedName>
+    <definedName name="Loai1">OFFSET('131-TH'!$E$5,,,COUNTA('131-TH'!$E$5:$E$47868))</definedName>
     <definedName name="Loai3">OFFSET(INDIRECT(ADDRESS(MATCH(RIGHT([1]TH!$C1,2),_NXT1,0)+11,14,,,"NXT")),0,0,COUNTIF(_NXT1,RIGHT([1]TH!$C1,2)),1)</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4277" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4322" uniqueCount="768">
   <si>
     <t>(Dùng cho TK: 131, 331)</t>
   </si>
@@ -2245,9 +2245,6 @@
     <t>TU14</t>
   </si>
   <si>
-    <t xml:space="preserve">Trả tiền - </t>
-  </si>
-  <si>
     <t>Cá cơm khô</t>
   </si>
   <si>
@@ -2381,6 +2378,15 @@
   </si>
   <si>
     <t>0527273</t>
+  </si>
+  <si>
+    <t>Chênh lệch tiền phí chuyển tiền</t>
+  </si>
+  <si>
+    <t>Trả lại tiền hàng</t>
+  </si>
+  <si>
+    <t>711</t>
   </si>
 </sst>
 </file>
@@ -3247,7 +3253,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="330">
+  <cellXfs count="328">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4082,12 +4088,6 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="16" xfId="74" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="19" xfId="29" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="41" fillId="0" borderId="19" xfId="29" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="48" fillId="0" borderId="16" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4115,13 +4115,22 @@
     <xf numFmtId="0" fontId="34" fillId="21" borderId="2" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="24" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4136,19 +4145,43 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" xfId="52" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="24" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="24" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="25" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="25" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="18" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="20" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="21" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="24" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4169,39 +4202,6 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="18" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" xfId="52" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="21" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="24" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="18" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="20" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="21" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="24" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="21" borderId="25" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4211,26 +4211,26 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="23" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="23" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="53" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="75">
@@ -4334,7 +4334,13 @@
       <sheetName val="THEGT"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0">
+        <row r="12">
+          <cell r="M12" t="str">
+            <v>NL</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3" refreshError="1"/>
@@ -4375,10 +4381,10 @@
       <sheetData sheetId="0">
         <row r="15">
           <cell r="E15">
-            <v>51388041927</v>
+            <v>51400722066</v>
           </cell>
           <cell r="F15">
-            <v>44161731577</v>
+            <v>44185325748</v>
           </cell>
         </row>
         <row r="37">
@@ -4731,28 +4737,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" customHeight="1">
-      <c r="A1" s="289" t="s">
+      <c r="A1" s="287" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="289"/>
-      <c r="C1" s="289"/>
-      <c r="D1" s="289"/>
-      <c r="E1" s="289"/>
-      <c r="F1" s="289"/>
-      <c r="G1" s="289"/>
-      <c r="H1" s="289"/>
-      <c r="I1" s="289"/>
-      <c r="J1" s="289"/>
-      <c r="K1" s="289"/>
-      <c r="L1" s="289"/>
-      <c r="M1" s="289"/>
-      <c r="N1" s="289"/>
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="287"/>
+      <c r="H1" s="287"/>
+      <c r="I1" s="287"/>
+      <c r="J1" s="287"/>
+      <c r="K1" s="287"/>
+      <c r="L1" s="287"/>
+      <c r="M1" s="287"/>
+      <c r="N1" s="287"/>
     </row>
     <row r="2" spans="1:14" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="290" t="s">
+      <c r="A2" s="288" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="288" t="s">
+      <c r="B2" s="286" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -4775,36 +4781,36 @@
       <c r="N2" s="20"/>
     </row>
     <row r="3" spans="1:14" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A3" s="290"/>
-      <c r="B3" s="288"/>
-      <c r="C3" s="288" t="s">
+      <c r="A3" s="288"/>
+      <c r="B3" s="286"/>
+      <c r="C3" s="286" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="288"/>
-      <c r="E3" s="288" t="s">
+      <c r="D3" s="286"/>
+      <c r="E3" s="286" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="288"/>
-      <c r="G3" s="288" t="s">
+      <c r="F3" s="286"/>
+      <c r="G3" s="286" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="288"/>
-      <c r="I3" s="288" t="s">
+      <c r="H3" s="286"/>
+      <c r="I3" s="286" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="288"/>
-      <c r="K3" s="288" t="s">
+      <c r="J3" s="286"/>
+      <c r="K3" s="286" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="288"/>
-      <c r="M3" s="288" t="s">
+      <c r="L3" s="286"/>
+      <c r="M3" s="286" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="288"/>
+      <c r="N3" s="286"/>
     </row>
     <row r="4" spans="1:14" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A4" s="290"/>
-      <c r="B4" s="288"/>
+      <c r="A4" s="288"/>
+      <c r="B4" s="286"/>
       <c r="C4" s="204" t="s">
         <v>26</v>
       </c>
@@ -5137,19 +5143,19 @@
       </c>
       <c r="I10" s="12">
         <f t="shared" si="3"/>
-        <v>405347.95</v>
+        <v>440833.55000000005</v>
       </c>
       <c r="J10" s="13">
         <f t="shared" si="4"/>
-        <v>8688672102</v>
+        <v>9485323823</v>
       </c>
       <c r="K10" s="216">
         <f t="shared" si="9"/>
-        <v>44016.42</v>
+        <v>8530.82</v>
       </c>
       <c r="L10" s="43">
         <f t="shared" si="10"/>
-        <v>921887075</v>
+        <v>125235354</v>
       </c>
       <c r="M10" s="216">
         <f t="shared" si="11"/>
@@ -5190,19 +5196,19 @@
       </c>
       <c r="I11" s="12">
         <f t="shared" si="3"/>
-        <v>293600.99999999994</v>
+        <v>365759.61999999994</v>
       </c>
       <c r="J11" s="13">
         <f t="shared" si="4"/>
-        <v>6460939611</v>
+        <v>8080900630</v>
       </c>
       <c r="K11" s="216">
         <f>ROUND(MAX(C11+G11-E11-I11,0),2)</f>
-        <v>76083</v>
+        <v>3924.38</v>
       </c>
       <c r="L11" s="43">
         <f t="shared" si="10"/>
-        <v>1704625020</v>
+        <v>84664001</v>
       </c>
       <c r="M11" s="216">
         <f t="shared" si="11"/>
@@ -5243,19 +5249,19 @@
       </c>
       <c r="I12" s="12">
         <f t="shared" si="3"/>
-        <v>22532</v>
+        <v>0</v>
       </c>
       <c r="J12" s="13">
         <f t="shared" si="4"/>
-        <v>490746960</v>
+        <v>0</v>
       </c>
       <c r="K12" s="216">
         <f t="shared" si="9"/>
-        <v>81013</v>
+        <v>103545</v>
       </c>
       <c r="L12" s="43">
         <f t="shared" si="10"/>
-        <v>1743236415</v>
+        <v>2233983375</v>
       </c>
       <c r="M12" s="216">
         <f t="shared" si="11"/>
@@ -5345,23 +5351,23 @@
       </c>
       <c r="H14" s="13">
         <f t="shared" si="2"/>
-        <v>9121142445</v>
+        <v>9133407315</v>
       </c>
       <c r="I14" s="12">
         <f t="shared" si="3"/>
-        <v>405507.39</v>
+        <v>411319.00000000006</v>
       </c>
       <c r="J14" s="13">
         <f t="shared" si="4"/>
-        <v>9002404912</v>
+        <v>9133407315</v>
       </c>
       <c r="K14" s="216">
         <f t="shared" si="13"/>
-        <v>5811.61</v>
+        <v>0</v>
       </c>
       <c r="L14" s="43">
         <f t="shared" si="14"/>
-        <v>118737533</v>
+        <v>0</v>
       </c>
       <c r="M14" s="216">
         <f t="shared" si="15"/>
@@ -5378,7 +5384,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C15" s="37">
         <v>0</v>
@@ -5394,27 +5400,27 @@
       </c>
       <c r="G15" s="12">
         <f t="shared" si="1"/>
-        <v>211200</v>
+        <v>233732</v>
       </c>
       <c r="H15" s="13">
         <f t="shared" si="2"/>
-        <v>4737216000</v>
+        <v>5244636640</v>
       </c>
       <c r="I15" s="12">
         <f t="shared" si="3"/>
-        <v>171004.22</v>
+        <v>85892</v>
       </c>
       <c r="J15" s="13">
         <f t="shared" si="4"/>
-        <v>3838411140</v>
+        <v>1912545360</v>
       </c>
       <c r="K15" s="216">
         <f t="shared" ref="K15" si="17">ROUND(MAX(C15+G15-E15-I15,0),2)</f>
-        <v>40195.78</v>
+        <v>147840</v>
       </c>
       <c r="L15" s="43">
         <f t="shared" ref="L15" si="18">ROUND(MAX(D15+H15-F15-J15,0),0)</f>
-        <v>898804860</v>
+        <v>3332091280</v>
       </c>
       <c r="M15" s="216">
         <f t="shared" ref="M15" si="19">ROUND(MAX(E15+I15-C15-G15,0),2)</f>
@@ -5448,27 +5454,27 @@
       </c>
       <c r="G16" s="17">
         <f t="shared" si="21"/>
-        <v>2125127.25</v>
+        <v>2147659.25</v>
       </c>
       <c r="H16" s="16">
         <f t="shared" si="21"/>
-        <v>46411428967</v>
+        <v>46931114477</v>
       </c>
       <c r="I16" s="17">
         <f t="shared" si="21"/>
-        <v>2019404.14</v>
+        <v>2025215.7499999998</v>
       </c>
       <c r="J16" s="16">
         <f t="shared" si="21"/>
-        <v>44054323345</v>
+        <v>44185325748</v>
       </c>
       <c r="K16" s="17">
         <f t="shared" si="21"/>
-        <v>247119.80999999997</v>
+        <v>263840.2</v>
       </c>
       <c r="L16" s="16">
         <f t="shared" si="21"/>
-        <v>5387290903</v>
+        <v>5775974010</v>
       </c>
       <c r="M16" s="17">
         <f t="shared" si="21"/>
@@ -5482,22 +5488,22 @@
     <row r="18" spans="8:10">
       <c r="H18" s="19">
         <f>[2]CDPS!$E$15</f>
-        <v>51388041927</v>
+        <v>51400722066</v>
       </c>
       <c r="J18" s="19">
         <f>[2]CDPS!$F$15</f>
-        <v>44161731577</v>
+        <v>44185325748</v>
       </c>
     </row>
     <row r="20" spans="8:10">
       <c r="H20" s="19">
         <f>H16-H18</f>
-        <v>-4976612960</v>
+        <v>-4469607589</v>
       </c>
       <c r="I20" s="19"/>
       <c r="J20" s="19">
         <f t="shared" ref="J20" si="22">J16-J18</f>
-        <v>-107408232</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5527,15 +5533,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:L250"/>
+  <dimension ref="A1:L260"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D29" sqref="D29"/>
-      <selection pane="bottomLeft" activeCell="K217" sqref="K217:K223"/>
+      <selection pane="bottomLeft" activeCell="D249" sqref="D249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5551,61 +5557,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="24" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="298" t="s">
+      <c r="A1" s="289" t="s">
         <v>383</v>
       </c>
-      <c r="B1" s="291" t="s">
+      <c r="B1" s="292" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="293"/>
-      <c r="D1" s="298" t="s">
+      <c r="D1" s="289" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="298" t="s">
+      <c r="E1" s="289" t="s">
         <v>382</v>
       </c>
-      <c r="F1" s="298" t="s">
+      <c r="F1" s="289" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="298" t="s">
+      <c r="G1" s="289" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="291" t="s">
+      <c r="H1" s="292" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="292"/>
-      <c r="J1" s="292"/>
+      <c r="I1" s="294"/>
+      <c r="J1" s="294"/>
       <c r="K1" s="293"/>
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="299"/>
-      <c r="B2" s="294" t="s">
+      <c r="A2" s="290"/>
+      <c r="B2" s="295" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="294" t="s">
+      <c r="C2" s="295" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="299"/>
-      <c r="E2" s="299"/>
-      <c r="F2" s="299"/>
-      <c r="G2" s="299"/>
-      <c r="H2" s="296" t="s">
+      <c r="D2" s="290"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="290"/>
+      <c r="G2" s="290"/>
+      <c r="H2" s="297" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="297"/>
-      <c r="J2" s="296" t="s">
+      <c r="I2" s="298"/>
+      <c r="J2" s="297" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="297"/>
+      <c r="K2" s="298"/>
     </row>
     <row r="3" spans="1:11" s="24" customFormat="1" ht="24" customHeight="1">
-      <c r="A3" s="300"/>
-      <c r="B3" s="295"/>
-      <c r="C3" s="295"/>
-      <c r="D3" s="300"/>
-      <c r="E3" s="300"/>
-      <c r="F3" s="300"/>
-      <c r="G3" s="300"/>
+      <c r="A3" s="291"/>
+      <c r="B3" s="296"/>
+      <c r="C3" s="296"/>
+      <c r="D3" s="291"/>
+      <c r="E3" s="291"/>
+      <c r="F3" s="291"/>
+      <c r="G3" s="291"/>
       <c r="H3" s="5" t="s">
         <v>26</v>
       </c>
@@ -5652,7 +5658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="23" customFormat="1" ht="17.25" hidden="1" customHeight="1">
+    <row r="5" spans="1:11" s="23" customFormat="1" ht="17.25" customHeight="1">
       <c r="A5" s="160">
         <f>IF(C5&lt;&gt;"",MONTH(C5),"")</f>
         <v>1</v>
@@ -5688,7 +5694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="23" customFormat="1" ht="17.25" hidden="1" customHeight="1">
+    <row r="6" spans="1:11" s="23" customFormat="1" ht="17.25" customHeight="1">
       <c r="A6" s="160">
         <f t="shared" ref="A6:A70" si="2">IF(C6&lt;&gt;"",MONTH(C6),"")</f>
         <v>1</v>
@@ -5796,7 +5802,7 @@
         <v>63945</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="23" customFormat="1" ht="17.25" hidden="1" customHeight="1">
+    <row r="9" spans="1:11" s="23" customFormat="1" ht="17.25" customHeight="1">
       <c r="A9" s="160">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5868,7 +5874,7 @@
         <v>384309</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="23" customFormat="1" ht="17.25" hidden="1" customHeight="1">
+    <row r="11" spans="1:11" s="23" customFormat="1" ht="17.25" customHeight="1">
       <c r="A11" s="160">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5940,7 +5946,7 @@
         <v>63945</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="136" customFormat="1" ht="17.25" hidden="1" customHeight="1">
+    <row r="13" spans="1:11" s="136" customFormat="1" ht="17.25" customHeight="1">
       <c r="A13" s="160">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5971,7 +5977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="23" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="14" spans="1:11" s="23" customFormat="1" ht="16.5" customHeight="1">
       <c r="A14" s="160">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -6007,7 +6013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="23" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="15" spans="1:11" s="23" customFormat="1" ht="16.5" customHeight="1">
       <c r="A15" s="160">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -6043,7 +6049,7 @@
         <v>426300000</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="23" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="16" spans="1:11" s="23" customFormat="1" ht="16.5" customHeight="1">
       <c r="A16" s="160">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -6115,7 +6121,7 @@
         <v>2059995</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="23" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="18" spans="1:11" s="23" customFormat="1" ht="16.5" customHeight="1">
       <c r="A18" s="160">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -6186,7 +6192,7 @@
         <v>1876600</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="136" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="20" spans="1:11" s="136" customFormat="1" ht="16.5" customHeight="1">
       <c r="A20" s="160">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -6214,7 +6220,7 @@
         <v>3008322</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="23" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="21" spans="1:11" s="23" customFormat="1" ht="16.5" customHeight="1">
       <c r="A21" s="160">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -6247,7 +6253,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="13"/>
     </row>
-    <row r="22" spans="1:11" s="23" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="22" spans="1:11" s="23" customFormat="1" ht="16.5" customHeight="1">
       <c r="A22" s="160">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -6283,7 +6289,7 @@
         <v>427800000</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="23" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="23" spans="1:11" s="23" customFormat="1" ht="16.5" customHeight="1">
       <c r="A23" s="160">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -6355,7 +6361,7 @@
         <v>2059512</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="23" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="25" spans="1:11" s="23" customFormat="1" ht="16.5" customHeight="1">
       <c r="A25" s="160">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -6427,7 +6433,7 @@
         <v>1876160</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="136" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="27" spans="1:11" s="136" customFormat="1" ht="16.5" customHeight="1">
       <c r="A27" s="160">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -6458,7 +6464,7 @@
         <v>1513898</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="23" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="28" spans="1:11" s="23" customFormat="1" ht="15.75" customHeight="1">
       <c r="A28" s="160">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -6530,7 +6536,7 @@
         <v>1158044</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="23" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="30" spans="1:11" s="23" customFormat="1" ht="15.75" customHeight="1">
       <c r="A30" s="160">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -6566,7 +6572,7 @@
         <v>115741</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="23" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="31" spans="1:11" s="23" customFormat="1" ht="15.75" customHeight="1">
       <c r="A31" s="160">
         <f t="shared" ref="A31" si="6">IF(C31&lt;&gt;"",MONTH(C31),"")</f>
         <v>1</v>
@@ -6597,7 +6603,7 @@
         <v>47321900</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="23" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="32" spans="1:11" s="23" customFormat="1" ht="15.75" customHeight="1">
       <c r="A32" s="160">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -6633,7 +6639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="23" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="33" spans="1:11" s="23" customFormat="1" ht="15.75" customHeight="1">
       <c r="A33" s="160">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -6669,7 +6675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="23" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="34" spans="1:11" s="23" customFormat="1" ht="15.75" customHeight="1">
       <c r="A34" s="160">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -6705,7 +6711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="23" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="35" spans="1:11" s="23" customFormat="1" ht="15.75" customHeight="1">
       <c r="A35" s="160">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -6777,7 +6783,7 @@
         <v>1335770</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="23" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="37" spans="1:11" s="23" customFormat="1" ht="15.75" customHeight="1">
       <c r="A37" s="160">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -6813,7 +6819,7 @@
         <v>133620</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="136" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="38" spans="1:11" s="136" customFormat="1" ht="16.5" customHeight="1">
       <c r="A38" s="160">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -6844,7 +6850,7 @@
         <v>22996498</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="23" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="39" spans="1:11" s="23" customFormat="1" ht="15.75" customHeight="1">
       <c r="A39" s="160">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -6916,7 +6922,7 @@
         <v>412012</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="23" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="41" spans="1:11" s="23" customFormat="1" ht="15.75" customHeight="1">
       <c r="A41" s="160">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -6988,7 +6994,7 @@
         <v>64680</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="23" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="43" spans="1:11" s="23" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="160">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -7024,7 +7030,7 @@
         <v>2285319501</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="23" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="44" spans="1:11" s="23" customFormat="1" ht="16.5" customHeight="1">
       <c r="A44" s="160">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -7060,7 +7066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="23" customFormat="1" ht="15.75" hidden="1" customHeight="1">
+    <row r="45" spans="1:11" s="23" customFormat="1" ht="15.75" customHeight="1">
       <c r="A45" s="160">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -7096,7 +7102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="23" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="46" spans="1:11" s="23" customFormat="1" ht="16.5" customHeight="1">
       <c r="A46" s="160">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -7132,7 +7138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="23" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="47" spans="1:11" s="23" customFormat="1" ht="16.5" customHeight="1">
       <c r="A47" s="160">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -7168,7 +7174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="23" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="48" spans="1:11" s="23" customFormat="1" ht="16.5" customHeight="1">
       <c r="A48" s="160">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -7240,7 +7246,7 @@
         <v>657817</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="23" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="50" spans="1:11" s="23" customFormat="1" ht="16.5" customHeight="1">
       <c r="A50" s="160">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -7348,7 +7354,7 @@
         <v>213300</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="23" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="53" spans="1:11" s="23" customFormat="1" ht="16.5" customHeight="1">
       <c r="A53" s="160">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -7384,7 +7390,7 @@
         <v>663124104</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="23" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="54" spans="1:11" s="23" customFormat="1" ht="16.5" customHeight="1">
       <c r="A54" s="160">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -7420,7 +7426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="23" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="55" spans="1:11" s="23" customFormat="1" ht="16.5" customHeight="1">
       <c r="A55" s="160">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -7456,7 +7462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="23" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="56" spans="1:11" s="23" customFormat="1" ht="16.5" customHeight="1">
       <c r="A56" s="160">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -7492,7 +7498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="23" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="57" spans="1:11" s="23" customFormat="1" ht="16.5" customHeight="1">
       <c r="A57" s="160">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -7528,7 +7534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="23" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="58" spans="1:11" s="23" customFormat="1" ht="16.5" customHeight="1">
       <c r="A58" s="160">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -7600,7 +7606,7 @@
         <v>396098</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="23" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="60" spans="1:11" s="23" customFormat="1" ht="16.5" customHeight="1">
       <c r="A60" s="160">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -7636,7 +7642,7 @@
         <v>39674</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="23" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="61" spans="1:11" s="23" customFormat="1" ht="16.5" customHeight="1">
       <c r="A61" s="160">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -7672,7 +7678,7 @@
         <v>1010141874</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="23" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="62" spans="1:11" s="23" customFormat="1" ht="16.5" customHeight="1">
       <c r="A62" s="160">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -7708,7 +7714,7 @@
         <v>462710624</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="23" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="63" spans="1:11" s="23" customFormat="1" ht="16.5" customHeight="1">
       <c r="A63" s="160">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -7777,7 +7783,7 @@
         <v>42920</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="23" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="65" spans="1:11" s="23" customFormat="1" ht="16.5" customHeight="1">
       <c r="A65" s="160">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -7810,7 +7816,7 @@
         <v>4292</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="23" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="66" spans="1:11" s="23" customFormat="1" ht="16.5" customHeight="1">
       <c r="A66" s="160">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -7846,7 +7852,7 @@
         <v>243289055</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="136" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="67" spans="1:11" s="136" customFormat="1" ht="16.5" customHeight="1">
       <c r="A67" s="160">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -7877,7 +7883,7 @@
         <v>20902002</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="23" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="68" spans="1:11" s="23" customFormat="1" ht="16.5" customHeight="1">
       <c r="A68" s="160">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -7914,7 +7920,7 @@
         <v>206475895</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="23" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="69" spans="1:11" s="23" customFormat="1" ht="16.5" customHeight="1">
       <c r="A69" s="160">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -7950,7 +7956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="23" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="70" spans="1:11" s="23" customFormat="1" ht="16.5" customHeight="1">
       <c r="A70" s="160">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -7986,7 +7992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="23" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="71" spans="1:11" s="23" customFormat="1" ht="16.5" customHeight="1">
       <c r="A71" s="160">
         <f t="shared" ref="A71:A138" si="12">IF(C71&lt;&gt;"",MONTH(C71),"")</f>
         <v>3</v>
@@ -8022,7 +8028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="23" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="72" spans="1:11" s="23" customFormat="1" ht="16.5" customHeight="1">
       <c r="A72" s="160">
         <f t="shared" si="12"/>
         <v>3</v>
@@ -8058,7 +8064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="23" customFormat="1" ht="17.25" hidden="1" customHeight="1">
+    <row r="73" spans="1:11" s="23" customFormat="1" ht="17.25" customHeight="1">
       <c r="A73" s="160">
         <f t="shared" si="12"/>
         <v>3</v>
@@ -8094,7 +8100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="23" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="74" spans="1:11" s="23" customFormat="1" ht="16.5" customHeight="1">
       <c r="A74" s="160">
         <f t="shared" si="12"/>
         <v>3</v>
@@ -8166,7 +8172,7 @@
         <v>467414</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="23" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="76" spans="1:11" s="23" customFormat="1" ht="16.5" customHeight="1">
       <c r="A76" s="160">
         <f t="shared" si="12"/>
         <v>3</v>
@@ -8274,7 +8280,7 @@
         <v>215200</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="79" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A79" s="160">
         <f t="shared" si="12"/>
         <v>3</v>
@@ -8307,7 +8313,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="13"/>
     </row>
-    <row r="80" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="80" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A80" s="160">
         <f t="shared" si="12"/>
         <v>3</v>
@@ -8379,7 +8385,7 @@
         <v>214600</v>
       </c>
     </row>
-    <row r="82" spans="1:12" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="82" spans="1:12" s="122" customFormat="1" ht="15.75">
       <c r="A82" s="160">
         <f t="shared" si="12"/>
         <v>3</v>
@@ -8451,7 +8457,7 @@
         <v>592725</v>
       </c>
     </row>
-    <row r="84" spans="1:12" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="84" spans="1:12" s="122" customFormat="1" ht="15.75">
       <c r="A84" s="160">
         <f t="shared" si="12"/>
         <v>3</v>
@@ -8487,7 +8493,7 @@
         <v>59230</v>
       </c>
     </row>
-    <row r="85" spans="1:12" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="85" spans="1:12" s="122" customFormat="1" ht="15.75">
       <c r="A85" s="160">
         <f t="shared" si="12"/>
         <v>4</v>
@@ -8520,7 +8526,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="13"/>
     </row>
-    <row r="86" spans="1:12" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="86" spans="1:12" s="122" customFormat="1" ht="15.75">
       <c r="A86" s="160">
         <f t="shared" si="12"/>
         <v>3</v>
@@ -8556,7 +8562,7 @@
         <v>65655625</v>
       </c>
     </row>
-    <row r="87" spans="1:12" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="87" spans="1:12" s="122" customFormat="1" ht="15.75">
       <c r="A87" s="160">
         <f t="shared" ref="A87" si="14">IF(C87&lt;&gt;"",MONTH(C87),"")</f>
         <v>3</v>
@@ -8592,7 +8598,7 @@
         <v>4004375</v>
       </c>
     </row>
-    <row r="88" spans="1:12" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="88" spans="1:12" s="122" customFormat="1" ht="15.75">
       <c r="A88" s="160">
         <f t="shared" si="12"/>
         <v>3</v>
@@ -8620,7 +8626,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="13"/>
     </row>
-    <row r="89" spans="1:12" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="89" spans="1:12" s="122" customFormat="1" ht="15.75">
       <c r="A89" s="160">
         <f t="shared" si="12"/>
         <v>5</v>
@@ -8656,7 +8662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="90" spans="1:12" s="122" customFormat="1" ht="15.75">
       <c r="A90" s="160">
         <f t="shared" si="12"/>
         <v>5</v>
@@ -8692,7 +8698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="91" spans="1:12" s="122" customFormat="1" ht="15.75">
       <c r="A91" s="160">
         <f t="shared" si="12"/>
         <v>5</v>
@@ -8728,7 +8734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="92" spans="1:12" s="122" customFormat="1" ht="15.75">
       <c r="A92" s="160">
         <f t="shared" ref="A92" si="17">IF(C92&lt;&gt;"",MONTH(C92),"")</f>
         <v>5</v>
@@ -8764,7 +8770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="93" spans="1:12" s="122" customFormat="1" ht="15.75">
       <c r="A93" s="160">
         <f t="shared" ref="A93" si="20">IF(C93&lt;&gt;"",MONTH(C93),"")</f>
         <v>5</v>
@@ -8800,7 +8806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="94" spans="1:12" s="122" customFormat="1" ht="15.75">
       <c r="A94" s="160">
         <f t="shared" si="12"/>
         <v>5</v>
@@ -8836,7 +8842,7 @@
         <v>1178820000</v>
       </c>
     </row>
-    <row r="95" spans="1:12" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="95" spans="1:12" s="122" customFormat="1" ht="15.75">
       <c r="A95" s="160">
         <f t="shared" si="12"/>
         <v>5</v>
@@ -8911,7 +8917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:12" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="97" spans="1:12" s="122" customFormat="1" ht="15.75">
       <c r="A97" s="160">
         <f t="shared" ref="A97:A98" si="23">IF(C97&lt;&gt;"",MONTH(C97),"")</f>
         <v>5</v>
@@ -8986,7 +8992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:12" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="99" spans="1:12" s="122" customFormat="1" ht="15.75">
       <c r="A99" s="160">
         <f t="shared" ref="A99" si="26">IF(C99&lt;&gt;"",MONTH(C99),"")</f>
         <v>5</v>
@@ -9022,7 +9028,7 @@
         <v>60278</v>
       </c>
     </row>
-    <row r="100" spans="1:12" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="100" spans="1:12" s="122" customFormat="1" ht="15.75">
       <c r="A100" s="160">
         <f t="shared" si="12"/>
         <v>5</v>
@@ -9097,7 +9103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:12" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="102" spans="1:12" s="122" customFormat="1" ht="15.75">
       <c r="A102" s="160">
         <f t="shared" si="12"/>
         <v>5</v>
@@ -9169,7 +9175,7 @@
         <v>65340</v>
       </c>
     </row>
-    <row r="104" spans="1:12" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="104" spans="1:12" s="122" customFormat="1" ht="15.75">
       <c r="A104" s="160">
         <f t="shared" si="12"/>
         <v>5</v>
@@ -9200,7 +9206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="105" spans="1:12" s="122" customFormat="1" ht="15.75">
       <c r="A105" s="160">
         <f t="shared" si="12"/>
         <v>6</v>
@@ -9236,7 +9242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="106" spans="1:12" s="122" customFormat="1" ht="15.75">
       <c r="A106" s="160">
         <f t="shared" si="12"/>
         <v>6</v>
@@ -9272,7 +9278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="107" spans="1:12" s="122" customFormat="1" ht="15.75">
       <c r="A107" s="160">
         <f t="shared" si="12"/>
         <v>6</v>
@@ -9308,7 +9314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="108" spans="1:12" s="122" customFormat="1" ht="15.75">
       <c r="A108" s="160">
         <f t="shared" si="12"/>
         <v>6</v>
@@ -9344,7 +9350,7 @@
         <v>54962878</v>
       </c>
     </row>
-    <row r="109" spans="1:12" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="109" spans="1:12" s="122" customFormat="1" ht="15.75">
       <c r="A109" s="160">
         <f t="shared" ref="A109:A110" si="29">IF(C109&lt;&gt;"",MONTH(C109),"")</f>
         <v>6</v>
@@ -9416,7 +9422,7 @@
         <v>1679791</v>
       </c>
     </row>
-    <row r="111" spans="1:12" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="111" spans="1:12" s="122" customFormat="1" ht="15.75">
       <c r="A111" s="160">
         <f t="shared" ref="A111:A118" si="32">IF(C111&lt;&gt;"",MONTH(C111),"")</f>
         <v>6</v>
@@ -9488,7 +9494,7 @@
         <v>762650</v>
       </c>
     </row>
-    <row r="113" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="113" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A113" s="160">
         <f t="shared" si="32"/>
         <v>6</v>
@@ -9519,7 +9525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="114" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A114" s="160">
         <f t="shared" si="32"/>
         <v>6</v>
@@ -9591,7 +9597,7 @@
         <v>149044</v>
       </c>
     </row>
-    <row r="116" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="116" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A116" s="160">
         <f t="shared" si="32"/>
         <v>6</v>
@@ -9663,7 +9669,7 @@
         <v>65370</v>
       </c>
     </row>
-    <row r="118" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="118" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A118" s="160">
         <f t="shared" si="32"/>
         <v>6</v>
@@ -9735,7 +9741,7 @@
         <v>218350</v>
       </c>
     </row>
-    <row r="120" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="120" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A120" s="160">
         <f t="shared" si="35"/>
         <v>6</v>
@@ -9807,7 +9813,7 @@
         <v>603083</v>
       </c>
     </row>
-    <row r="122" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="122" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A122" s="160">
         <f t="shared" si="35"/>
         <v>6</v>
@@ -9879,7 +9885,7 @@
         <v>13659195</v>
       </c>
     </row>
-    <row r="124" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="124" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A124" s="160">
         <f t="shared" si="35"/>
         <v>6</v>
@@ -9915,7 +9921,7 @@
         <v>4651098</v>
       </c>
     </row>
-    <row r="125" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="125" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A125" s="160">
         <f t="shared" ref="A125" si="41">IF(C125&lt;&gt;"",MONTH(C125),"")</f>
         <v>6</v>
@@ -9948,7 +9954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="126" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A126" s="160">
         <f t="shared" ref="A126" si="43">IF(C126&lt;&gt;"",MONTH(C126),"")</f>
         <v>6</v>
@@ -10021,7 +10027,7 @@
         <v>43570</v>
       </c>
     </row>
-    <row r="128" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="128" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A128" s="160">
         <f t="shared" si="12"/>
         <v>6</v>
@@ -10057,7 +10063,7 @@
         <v>4357</v>
       </c>
     </row>
-    <row r="129" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="129" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A129" s="160">
         <f t="shared" si="12"/>
         <v>6</v>
@@ -10129,7 +10135,7 @@
         <v>3215466</v>
       </c>
     </row>
-    <row r="131" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="131" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A131" s="160">
         <f t="shared" si="12"/>
         <v>6</v>
@@ -10165,7 +10171,7 @@
         <v>321547</v>
       </c>
     </row>
-    <row r="132" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="132" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A132" s="160">
         <f t="shared" si="12"/>
         <v>6</v>
@@ -10237,7 +10243,7 @@
         <v>3659880</v>
       </c>
     </row>
-    <row r="134" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="134" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A134" s="160">
         <f t="shared" si="12"/>
         <v>6</v>
@@ -10268,7 +10274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="135" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A135" s="160">
         <f t="shared" si="12"/>
         <v>6</v>
@@ -10293,7 +10299,7 @@
       </c>
       <c r="H135" s="137"/>
       <c r="I135" s="13">
-        <f t="shared" ref="I135:I242" si="46">ROUND(H135*G135,0)</f>
+        <f t="shared" ref="I135:I252" si="46">ROUND(H135*G135,0)</f>
         <v>0</v>
       </c>
       <c r="J135" s="12">
@@ -10340,7 +10346,7 @@
         <v>327375</v>
       </c>
     </row>
-    <row r="137" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="137" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A137" s="160">
         <f t="shared" si="12"/>
         <v>6</v>
@@ -10412,9 +10418,9 @@
         <v>218250</v>
       </c>
     </row>
-    <row r="139" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="139" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A139" s="160">
-        <f t="shared" ref="A139:A247" si="47">IF(C139&lt;&gt;"",MONTH(C139),"")</f>
+        <f t="shared" ref="A139:A257" si="47">IF(C139&lt;&gt;"",MONTH(C139),"")</f>
         <v>6</v>
       </c>
       <c r="B139" s="27" t="s">
@@ -10484,7 +10490,7 @@
         <v>1198847</v>
       </c>
     </row>
-    <row r="141" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="141" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A141" s="160">
         <f t="shared" si="47"/>
         <v>6</v>
@@ -10556,7 +10562,7 @@
         <v>1853816</v>
       </c>
     </row>
-    <row r="143" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="143" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A143" s="160">
         <f t="shared" si="47"/>
         <v>6</v>
@@ -10628,7 +10634,7 @@
         <v>1920600</v>
       </c>
     </row>
-    <row r="145" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="145" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A145" s="160">
         <f t="shared" si="47"/>
         <v>6</v>
@@ -10659,7 +10665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="146" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A146" s="160">
         <f t="shared" si="47"/>
         <v>6</v>
@@ -10731,7 +10737,7 @@
         <v>202410</v>
       </c>
     </row>
-    <row r="148" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="148" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A148" s="160">
         <f t="shared" si="47"/>
         <v>6</v>
@@ -10803,7 +10809,7 @@
         <v>65505</v>
       </c>
     </row>
-    <row r="150" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="150" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A150" s="160">
         <f t="shared" si="47"/>
         <v>6</v>
@@ -10834,7 +10840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="151" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A151" s="160">
         <f t="shared" si="47"/>
         <v>7</v>
@@ -10870,7 +10876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="152" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A152" s="160">
         <f t="shared" si="47"/>
         <v>7</v>
@@ -10906,7 +10912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="153" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A153" s="160">
         <f t="shared" si="47"/>
         <v>7</v>
@@ -10978,7 +10984,7 @@
         <v>316899</v>
       </c>
     </row>
-    <row r="155" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="155" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A155" s="160">
         <f t="shared" si="48"/>
         <v>7</v>
@@ -11050,7 +11056,7 @@
         <v>152460</v>
       </c>
     </row>
-    <row r="157" spans="1:11" s="249" customFormat="1" ht="15.75" hidden="1">
+    <row r="157" spans="1:11" s="249" customFormat="1" ht="15.75">
       <c r="A157" s="241">
         <f t="shared" si="51"/>
         <v>7</v>
@@ -11080,7 +11086,7 @@
       <c r="J157" s="252"/>
       <c r="K157" s="248"/>
     </row>
-    <row r="158" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="158" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A158" s="160">
         <f t="shared" si="47"/>
         <v>7</v>
@@ -11112,7 +11118,7 @@
         <v>63758.62</v>
       </c>
       <c r="K158" s="13">
-        <f t="shared" ref="K158:K250" si="54">ROUND(G158*J158,0)</f>
+        <f t="shared" ref="K158:K260" si="54">ROUND(G158*J158,0)</f>
         <v>1392807054</v>
       </c>
     </row>
@@ -11152,7 +11158,7 @@
         <v>218450</v>
       </c>
     </row>
-    <row r="160" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="160" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A160" s="160">
         <f t="shared" si="55"/>
         <v>7</v>
@@ -11224,7 +11230,7 @@
         <v>603359</v>
       </c>
     </row>
-    <row r="162" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="162" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A162" s="160">
         <f t="shared" ref="A162" si="58">IF(C162&lt;&gt;"",MONTH(C162),"")</f>
         <v>7</v>
@@ -11260,7 +11266,7 @@
         <v>60292</v>
       </c>
     </row>
-    <row r="163" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="163" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A163" s="160">
         <f t="shared" ref="A163" si="61">IF(C163&lt;&gt;"",MONTH(C163),"")</f>
         <v>8</v>
@@ -11296,7 +11302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="164" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A164" s="160">
         <f t="shared" si="47"/>
         <v>8</v>
@@ -11368,7 +11374,7 @@
         <v>2086739</v>
       </c>
     </row>
-    <row r="166" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="166" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A166" s="160">
         <f t="shared" si="64"/>
         <v>8</v>
@@ -11404,7 +11410,7 @@
         <v>208674</v>
       </c>
     </row>
-    <row r="167" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="167" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A167" s="160">
         <f t="shared" si="64"/>
         <v>8</v>
@@ -11476,7 +11482,7 @@
         <v>763175</v>
       </c>
     </row>
-    <row r="169" spans="1:11" s="249" customFormat="1" ht="15.75" hidden="1">
+    <row r="169" spans="1:11" s="249" customFormat="1" ht="15.75">
       <c r="A169" s="241">
         <f t="shared" ref="A169" si="70">IF(C169&lt;&gt;"",MONTH(C169),"")</f>
         <v>8</v>
@@ -11509,7 +11515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:11" s="275" customFormat="1" ht="15.75" hidden="1">
+    <row r="170" spans="1:11" s="275" customFormat="1" ht="15.75">
       <c r="A170" s="268">
         <f t="shared" si="47"/>
         <v>8</v>
@@ -11523,8 +11529,8 @@
       <c r="D170" s="271" t="s">
         <v>526</v>
       </c>
-      <c r="E170" s="271" t="s">
-        <v>369</v>
+      <c r="E170" s="28" t="s">
+        <v>721</v>
       </c>
       <c r="F170" s="272" t="s">
         <v>49</v>
@@ -11559,8 +11565,8 @@
       <c r="D171" s="271" t="s">
         <v>374</v>
       </c>
-      <c r="E171" s="271" t="s">
-        <v>369</v>
+      <c r="E171" s="28" t="s">
+        <v>721</v>
       </c>
       <c r="F171" s="272" t="s">
         <v>62</v>
@@ -11581,7 +11587,7 @@
         <v>215840</v>
       </c>
     </row>
-    <row r="172" spans="1:11" s="275" customFormat="1" ht="15.75" hidden="1">
+    <row r="172" spans="1:11" s="275" customFormat="1" ht="15.75">
       <c r="A172" s="268">
         <f t="shared" si="72"/>
         <v>8</v>
@@ -11595,8 +11601,8 @@
       <c r="D172" s="271" t="s">
         <v>375</v>
       </c>
-      <c r="E172" s="271" t="s">
-        <v>369</v>
+      <c r="E172" s="28" t="s">
+        <v>721</v>
       </c>
       <c r="F172" s="125" t="s">
         <v>76</v>
@@ -11617,7 +11623,7 @@
         <v>21562</v>
       </c>
     </row>
-    <row r="173" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="173" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A173" s="160">
         <f t="shared" si="47"/>
         <v>8</v>
@@ -11689,7 +11695,7 @@
         <v>221060</v>
       </c>
     </row>
-    <row r="175" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="175" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A175" s="160">
         <f t="shared" si="75"/>
         <v>8</v>
@@ -11761,7 +11767,7 @@
         <v>1221135</v>
       </c>
     </row>
-    <row r="177" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="177" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A177" s="160">
         <f t="shared" si="75"/>
         <v>8</v>
@@ -11797,7 +11803,7 @@
         <v>122025</v>
       </c>
     </row>
-    <row r="178" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="178" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A178" s="160">
         <f>IF(C178&lt;&gt;"",MONTH(C178),"")</f>
         <v>8</v>
@@ -11833,7 +11839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="179" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A179" s="160">
         <f t="shared" si="47"/>
         <v>8</v>
@@ -11869,7 +11875,7 @@
         <v>105219971</v>
       </c>
     </row>
-    <row r="180" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="180" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A180" s="160">
         <f t="shared" ref="A180:A182" si="78">IF(C180&lt;&gt;"",MONTH(C180),"")</f>
         <v>8</v>
@@ -11941,7 +11947,7 @@
         <v>3323276</v>
       </c>
     </row>
-    <row r="182" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="182" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A182" s="160">
         <f t="shared" si="78"/>
         <v>8</v>
@@ -12013,7 +12019,7 @@
         <v>5562440</v>
       </c>
     </row>
-    <row r="184" spans="1:11" s="249" customFormat="1" ht="15.75" hidden="1">
+    <row r="184" spans="1:11" s="249" customFormat="1" ht="15.75">
       <c r="A184" s="241">
         <f t="shared" ref="A184" si="84">IF(C184&lt;&gt;"",MONTH(C184),"")</f>
         <v>8</v>
@@ -12027,7 +12033,7 @@
       <c r="D184" s="244" t="s">
         <v>61</v>
       </c>
-      <c r="E184" s="244" t="s">
+      <c r="E184" s="28" t="s">
         <v>465</v>
       </c>
       <c r="F184" s="245" t="s">
@@ -12046,7 +12052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="185" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A185" s="160">
         <f t="shared" si="47"/>
         <v>8</v>
@@ -12118,7 +12124,7 @@
         <v>225100</v>
       </c>
     </row>
-    <row r="187" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="187" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A187" s="160">
         <f t="shared" si="86"/>
         <v>8</v>
@@ -12190,7 +12196,7 @@
         <v>621726</v>
       </c>
     </row>
-    <row r="189" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="189" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A189" s="160">
         <f t="shared" si="86"/>
         <v>8</v>
@@ -12226,7 +12232,7 @@
         <v>62128</v>
       </c>
     </row>
-    <row r="190" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="190" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A190" s="160">
         <f t="shared" si="47"/>
         <v>9</v>
@@ -12298,7 +12304,7 @@
         <v>773852</v>
       </c>
     </row>
-    <row r="192" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="192" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A192" s="160">
         <f t="shared" si="89"/>
         <v>9</v>
@@ -12334,7 +12340,7 @@
         <v>77453</v>
       </c>
     </row>
-    <row r="193" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="193" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A193" s="160">
         <f t="shared" si="89"/>
         <v>9</v>
@@ -12406,7 +12412,7 @@
         <v>740850</v>
       </c>
     </row>
-    <row r="195" spans="1:11" s="275" customFormat="1" ht="15.75" hidden="1">
+    <row r="195" spans="1:11" s="275" customFormat="1" ht="15.75">
       <c r="A195" s="268">
         <f t="shared" ref="A195" si="95">IF(C195&lt;&gt;"",MONTH(C195),"")</f>
         <v>9</v>
@@ -12437,7 +12443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="196" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A196" s="160">
         <f t="shared" ref="A196" si="97">IF(C196&lt;&gt;"",MONTH(C196),"")</f>
         <v>9</v>
@@ -12473,7 +12479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="197" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A197" s="160">
         <f t="shared" ref="A197" si="100">IF(C197&lt;&gt;"",MONTH(C197),"")</f>
         <v>9</v>
@@ -12509,7 +12515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="198" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A198" s="160">
         <f t="shared" si="47"/>
         <v>9</v>
@@ -12581,7 +12587,7 @@
         <v>225000</v>
       </c>
     </row>
-    <row r="200" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="200" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A200" s="160">
         <f t="shared" si="103"/>
         <v>9</v>
@@ -12653,7 +12659,7 @@
         <v>621450</v>
       </c>
     </row>
-    <row r="202" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="202" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A202" s="160">
         <f t="shared" si="103"/>
         <v>9</v>
@@ -12689,7 +12695,7 @@
         <v>62100</v>
       </c>
     </row>
-    <row r="203" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="203" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A203" s="160">
         <f t="shared" si="47"/>
         <v>9</v>
@@ -12761,7 +12767,7 @@
         <v>1943048</v>
       </c>
     </row>
-    <row r="205" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="205" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A205" s="160">
         <f t="shared" si="106"/>
         <v>9</v>
@@ -12797,7 +12803,7 @@
         <v>194417</v>
       </c>
     </row>
-    <row r="206" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="206" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A206" s="160">
         <f t="shared" si="106"/>
         <v>9</v>
@@ -12869,7 +12875,7 @@
         <v>785750</v>
       </c>
     </row>
-    <row r="208" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="208" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A208" s="160">
         <f t="shared" ref="A208" si="112">IF(C208&lt;&gt;"",MONTH(C208),"")</f>
         <v>9</v>
@@ -12902,7 +12908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="209" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A209" s="160">
         <f>IF(C209&lt;&gt;"",MONTH(C209),"")</f>
         <v>9</v>
@@ -12916,7 +12922,7 @@
       <c r="D209" s="28" t="s">
         <v>610</v>
       </c>
-      <c r="E209" s="244" t="s">
+      <c r="E209" s="28" t="s">
         <v>465</v>
       </c>
       <c r="F209" s="125" t="s">
@@ -12938,7 +12944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="210" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A210" s="160">
         <f>IF(C210&lt;&gt;"",MONTH(C210),"")</f>
         <v>9</v>
@@ -12952,7 +12958,7 @@
       <c r="D210" s="250" t="s">
         <v>521</v>
       </c>
-      <c r="E210" s="244" t="s">
+      <c r="E210" s="28" t="s">
         <v>465</v>
       </c>
       <c r="F210" s="125" t="s">
@@ -12974,7 +12980,7 @@
         <v>2283165000</v>
       </c>
     </row>
-    <row r="211" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="211" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A211" s="160">
         <f t="shared" si="47"/>
         <v>10</v>
@@ -13010,7 +13016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="212" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A212" s="160">
         <f t="shared" si="47"/>
         <v>10</v>
@@ -13082,7 +13088,7 @@
         <v>840431</v>
       </c>
     </row>
-    <row r="214" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="214" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A214" s="160">
         <f t="shared" si="47"/>
         <v>10</v>
@@ -13118,352 +13124,342 @@
         <v>83998</v>
       </c>
     </row>
-    <row r="215" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="215" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A215" s="160">
-        <f t="shared" si="47"/>
-        <v>11</v>
+        <f t="shared" ref="A215:A219" si="114">IF(C215&lt;&gt;"",MONTH(C215),"")</f>
+        <v>10</v>
       </c>
       <c r="B215" s="27" t="s">
         <v>48</v>
       </c>
       <c r="C215" s="26">
-        <v>42313</v>
+        <v>42285</v>
       </c>
       <c r="D215" s="28" t="s">
-        <v>384</v>
+        <v>521</v>
       </c>
       <c r="E215" s="28" t="s">
-        <v>256</v>
+        <v>465</v>
       </c>
       <c r="F215" s="125" t="s">
         <v>49</v>
       </c>
       <c r="G215" s="113">
-        <v>22900</v>
+        <v>22340</v>
       </c>
       <c r="H215" s="137"/>
       <c r="I215" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="I215:I218" si="115">ROUND(H215*G215,0)</f>
         <v>0</v>
       </c>
       <c r="J215" s="12">
-        <v>1186.1300000000001</v>
+        <v>4941.6000000000004</v>
       </c>
       <c r="K215" s="13">
-        <f t="shared" si="54"/>
-        <v>27162377</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+        <f t="shared" ref="K215:K218" si="116">ROUND(G215*J215,0)</f>
+        <v>110395344</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A216" s="160">
-        <f t="shared" ref="A216:A218" si="114">IF(C216&lt;&gt;"",MONTH(C216),"")</f>
-        <v>11</v>
+        <f t="shared" si="114"/>
+        <v>10</v>
       </c>
       <c r="B216" s="27" t="s">
         <v>57</v>
       </c>
       <c r="C216" s="26">
-        <v>42313</v>
+        <v>42285</v>
       </c>
       <c r="D216" s="28" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E216" s="28" t="s">
-        <v>256</v>
+        <v>465</v>
       </c>
       <c r="F216" s="125" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G216" s="113">
-        <v>22900</v>
+        <v>22340</v>
       </c>
       <c r="H216" s="137"/>
       <c r="I216" s="13">
-        <f t="shared" ref="I216:I218" si="115">ROUND(H216*G216,0)</f>
+        <f t="shared" si="115"/>
         <v>0</v>
       </c>
       <c r="J216" s="12">
-        <v>33.08</v>
+        <v>483.4</v>
       </c>
       <c r="K216" s="13">
-        <f t="shared" si="54"/>
-        <v>757532</v>
+        <f t="shared" si="116"/>
+        <v>10799156</v>
       </c>
     </row>
     <row r="217" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A217" s="160">
         <f t="shared" si="114"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B217" s="27" t="s">
         <v>57</v>
       </c>
       <c r="C217" s="26">
-        <v>42313</v>
+        <v>42285</v>
       </c>
       <c r="D217" s="28" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E217" s="28" t="s">
-        <v>256</v>
+        <v>465</v>
       </c>
       <c r="F217" s="125" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="G217" s="113">
-        <v>22900</v>
+        <v>22340</v>
       </c>
       <c r="H217" s="137"/>
       <c r="I217" s="13">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="J217" s="12">
-        <v>34.35</v>
-      </c>
+      <c r="J217" s="12"/>
       <c r="K217" s="13">
-        <f t="shared" si="54"/>
-        <v>786615</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A218" s="160">
         <f t="shared" si="114"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B218" s="27" t="s">
         <v>57</v>
       </c>
       <c r="C218" s="26">
-        <v>42313</v>
+        <v>42285</v>
       </c>
       <c r="D218" s="28" t="s">
-        <v>607</v>
+        <v>520</v>
       </c>
       <c r="E218" s="28" t="s">
-        <v>256</v>
+        <v>465</v>
       </c>
       <c r="F218" s="125" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G218" s="113">
-        <v>22900</v>
+        <v>22340</v>
       </c>
       <c r="H218" s="137"/>
       <c r="I218" s="13">
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="J218" s="12">
+      <c r="J218" s="12"/>
+      <c r="K218" s="13">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" s="249" customFormat="1" ht="15.75">
+      <c r="A219" s="241">
+        <f t="shared" si="114"/>
+        <v>10</v>
+      </c>
+      <c r="B219" s="242" t="s">
+        <v>57</v>
+      </c>
+      <c r="C219" s="26">
+        <v>42285</v>
+      </c>
+      <c r="D219" s="244" t="s">
+        <v>61</v>
+      </c>
+      <c r="E219" s="28" t="s">
+        <v>465</v>
+      </c>
+      <c r="F219" s="245" t="s">
+        <v>63</v>
+      </c>
+      <c r="G219" s="113">
+        <v>22340</v>
+      </c>
+      <c r="H219" s="247"/>
+      <c r="I219" s="248"/>
+      <c r="J219" s="252"/>
+      <c r="K219" s="248">
+        <v>1132375</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" s="122" customFormat="1" ht="15.75">
+      <c r="A220" s="160">
+        <f t="shared" si="47"/>
+        <v>11</v>
+      </c>
+      <c r="B220" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C220" s="26">
+        <v>42313</v>
+      </c>
+      <c r="D220" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="E220" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="F220" s="125" t="s">
+        <v>49</v>
+      </c>
+      <c r="G220" s="113">
+        <v>22900</v>
+      </c>
+      <c r="H220" s="137"/>
+      <c r="I220" s="13">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J220" s="12">
+        <v>1186.1300000000001</v>
+      </c>
+      <c r="K220" s="13">
+        <f t="shared" si="54"/>
+        <v>27162377</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" s="122" customFormat="1" ht="15.75">
+      <c r="A221" s="160">
+        <f t="shared" ref="A221:A223" si="117">IF(C221&lt;&gt;"",MONTH(C221),"")</f>
+        <v>11</v>
+      </c>
+      <c r="B221" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C221" s="26">
+        <v>42313</v>
+      </c>
+      <c r="D221" s="28" t="s">
+        <v>608</v>
+      </c>
+      <c r="E221" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="F221" s="125" t="s">
+        <v>63</v>
+      </c>
+      <c r="G221" s="113">
+        <v>22900</v>
+      </c>
+      <c r="H221" s="137"/>
+      <c r="I221" s="13">
+        <f t="shared" ref="I221:I223" si="118">ROUND(H221*G221,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J221" s="12">
+        <v>33.08</v>
+      </c>
+      <c r="K221" s="13">
+        <f t="shared" si="54"/>
+        <v>757532</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" s="122" customFormat="1" ht="15.75">
+      <c r="A222" s="160">
+        <f t="shared" si="117"/>
+        <v>11</v>
+      </c>
+      <c r="B222" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C222" s="26">
+        <v>42313</v>
+      </c>
+      <c r="D222" s="28" t="s">
+        <v>606</v>
+      </c>
+      <c r="E222" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="F222" s="125" t="s">
+        <v>62</v>
+      </c>
+      <c r="G222" s="113">
+        <v>22900</v>
+      </c>
+      <c r="H222" s="137"/>
+      <c r="I222" s="13">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="J222" s="12">
+        <v>34.35</v>
+      </c>
+      <c r="K222" s="13">
+        <f t="shared" si="54"/>
+        <v>786615</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" s="122" customFormat="1" ht="15.75">
+      <c r="A223" s="160">
+        <f t="shared" si="117"/>
+        <v>11</v>
+      </c>
+      <c r="B223" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C223" s="26">
+        <v>42313</v>
+      </c>
+      <c r="D223" s="28" t="s">
+        <v>607</v>
+      </c>
+      <c r="E223" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="F223" s="125" t="s">
+        <v>76</v>
+      </c>
+      <c r="G223" s="113">
+        <v>22900</v>
+      </c>
+      <c r="H223" s="137"/>
+      <c r="I223" s="13">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="J223" s="12">
         <v>3.44</v>
       </c>
-      <c r="K218" s="13">
+      <c r="K223" s="13">
         <f t="shared" si="54"/>
         <v>78776</v>
       </c>
     </row>
-    <row r="219" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
-      <c r="A219" s="160">
-        <f t="shared" si="47"/>
-        <v>11</v>
-      </c>
-      <c r="B219" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C219" s="26">
-        <v>42328</v>
-      </c>
-      <c r="D219" s="28" t="s">
-        <v>723</v>
-      </c>
-      <c r="E219" s="28" t="s">
-        <v>722</v>
-      </c>
-      <c r="F219" s="125" t="s">
-        <v>49</v>
-      </c>
-      <c r="G219" s="113">
-        <v>22440</v>
-      </c>
-      <c r="H219" s="137"/>
-      <c r="I219" s="13">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="J219" s="12">
-        <v>63356.42</v>
-      </c>
-      <c r="K219" s="13">
-        <f t="shared" si="54"/>
-        <v>1421718065</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11" s="122" customFormat="1" ht="15.75">
-      <c r="A220" s="160">
-        <f t="shared" ref="A220:A221" si="116">IF(C220&lt;&gt;"",MONTH(C220),"")</f>
-        <v>11</v>
-      </c>
-      <c r="B220" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C220" s="26">
-        <v>42328</v>
-      </c>
-      <c r="D220" s="28" t="s">
-        <v>374</v>
-      </c>
-      <c r="E220" s="28" t="s">
-        <v>722</v>
-      </c>
-      <c r="F220" s="125" t="s">
-        <v>62</v>
-      </c>
-      <c r="G220" s="113">
-        <v>22440</v>
-      </c>
-      <c r="H220" s="137"/>
-      <c r="I220" s="13">
-        <f t="shared" ref="I220:I221" si="117">ROUND(H220*G220,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J220" s="12">
-        <v>3.25</v>
-      </c>
-      <c r="K220" s="13">
-        <f t="shared" ref="K220:K221" si="118">ROUND(G220*J220,0)</f>
-        <v>72930</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
-      <c r="A221" s="160">
-        <f t="shared" si="116"/>
-        <v>11</v>
-      </c>
-      <c r="B221" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C221" s="26">
-        <v>42328</v>
-      </c>
-      <c r="D221" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="E221" s="28" t="s">
-        <v>722</v>
-      </c>
-      <c r="F221" s="125" t="s">
-        <v>76</v>
-      </c>
-      <c r="G221" s="113">
-        <v>22440</v>
-      </c>
-      <c r="H221" s="137"/>
-      <c r="I221" s="13">
-        <f t="shared" si="117"/>
-        <v>0</v>
-      </c>
-      <c r="J221" s="12">
-        <v>0.33</v>
-      </c>
-      <c r="K221" s="13">
-        <f t="shared" si="118"/>
-        <v>7405</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
-      <c r="A222" s="160">
-        <f t="shared" si="47"/>
-        <v>11</v>
-      </c>
-      <c r="B222" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C222" s="26">
-        <v>42335</v>
-      </c>
-      <c r="D222" s="28" t="s">
-        <v>519</v>
-      </c>
-      <c r="E222" s="28" t="s">
-        <v>722</v>
-      </c>
-      <c r="F222" s="125" t="s">
-        <v>49</v>
-      </c>
-      <c r="G222" s="113">
-        <v>22450</v>
-      </c>
-      <c r="H222" s="137"/>
-      <c r="I222" s="13">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="J222" s="12">
-        <v>35469.589999999997</v>
-      </c>
-      <c r="K222" s="13">
-        <f t="shared" si="54"/>
-        <v>796292296</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11" s="122" customFormat="1" ht="15.75">
-      <c r="A223" s="160">
-        <f t="shared" si="47"/>
-        <v>11</v>
-      </c>
-      <c r="B223" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C223" s="26">
-        <v>42335</v>
-      </c>
-      <c r="D223" s="28" t="s">
-        <v>374</v>
-      </c>
-      <c r="E223" s="28" t="s">
-        <v>722</v>
-      </c>
-      <c r="F223" s="125" t="s">
-        <v>62</v>
-      </c>
-      <c r="G223" s="113">
-        <v>22450</v>
-      </c>
-      <c r="H223" s="137"/>
-      <c r="I223" s="13">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="J223" s="12">
-        <v>14.55</v>
-      </c>
-      <c r="K223" s="13">
-        <f t="shared" si="54"/>
-        <v>326648</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="224" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A224" s="160">
         <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="B224" s="27" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C224" s="26">
-        <v>42335</v>
+        <v>42328</v>
       </c>
       <c r="D224" s="28" t="s">
-        <v>375</v>
+        <v>722</v>
       </c>
       <c r="E224" s="28" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F224" s="125" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="G224" s="113">
-        <v>22450</v>
+        <v>22440</v>
       </c>
       <c r="H224" s="137"/>
       <c r="I224" s="13">
@@ -13471,220 +13467,222 @@
         <v>0</v>
       </c>
       <c r="J224" s="12">
-        <v>1.46</v>
+        <v>63356.42</v>
       </c>
       <c r="K224" s="13">
         <f t="shared" si="54"/>
-        <v>32777</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+        <v>1421718065</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A225" s="160">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="A225:A226" si="119">IF(C225&lt;&gt;"",MONTH(C225),"")</f>
         <v>11</v>
       </c>
       <c r="B225" s="27" t="s">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="C225" s="26">
-        <v>42335</v>
+        <v>42328</v>
       </c>
       <c r="D225" s="28" t="s">
-        <v>720</v>
-      </c>
-      <c r="E225" s="28"/>
+        <v>374</v>
+      </c>
+      <c r="E225" s="28" t="s">
+        <v>721</v>
+      </c>
       <c r="F225" s="125" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="G225" s="113">
-        <v>22520</v>
-      </c>
-      <c r="H225" s="137">
-        <v>22513.56</v>
-      </c>
+        <v>22440</v>
+      </c>
+      <c r="H225" s="137"/>
       <c r="I225" s="13">
-        <f t="shared" si="46"/>
-        <v>507005371</v>
-      </c>
-      <c r="J225" s="12"/>
+        <f t="shared" ref="I225:I226" si="120">ROUND(H225*G225,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J225" s="12">
+        <v>3.25</v>
+      </c>
       <c r="K225" s="13">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+        <f t="shared" ref="K225:K226" si="121">ROUND(G225*J225,0)</f>
+        <v>72930</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A226" s="160">
-        <f t="shared" si="47"/>
+        <f t="shared" si="119"/>
         <v>11</v>
       </c>
       <c r="B226" s="27" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C226" s="26">
-        <v>42338</v>
+        <v>42328</v>
       </c>
       <c r="D226" s="28" t="s">
-        <v>519</v>
+        <v>375</v>
       </c>
       <c r="E226" s="28" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F226" s="125" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="G226" s="113">
-        <v>22450</v>
+        <v>22440</v>
       </c>
       <c r="H226" s="137"/>
       <c r="I226" s="13">
-        <f t="shared" si="46"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="J226" s="12">
-        <v>72158.62</v>
+        <v>0.33</v>
       </c>
       <c r="K226" s="13">
-        <f t="shared" si="54"/>
-        <v>1619961019</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+        <f t="shared" si="121"/>
+        <v>7405</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A227" s="160">
         <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="B227" s="27" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C227" s="26">
-        <v>42319</v>
+        <v>42335</v>
       </c>
       <c r="D227" s="28" t="s">
-        <v>610</v>
+        <v>519</v>
       </c>
       <c r="E227" s="28" t="s">
-        <v>465</v>
+        <v>77</v>
       </c>
       <c r="F227" s="125" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G227" s="113">
-        <v>22285</v>
-      </c>
-      <c r="H227" s="137">
-        <v>96954</v>
-      </c>
+        <v>22450</v>
+      </c>
+      <c r="H227" s="137"/>
       <c r="I227" s="13">
         <f t="shared" si="46"/>
-        <v>2160619890</v>
-      </c>
-      <c r="J227" s="12"/>
+        <v>0</v>
+      </c>
+      <c r="J227" s="12">
+        <v>35469.589999999997</v>
+      </c>
       <c r="K227" s="13">
         <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+        <v>796292296</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A228" s="160">
-        <f t="shared" ref="A228:A229" si="119">IF(C228&lt;&gt;"",MONTH(C228),"")</f>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="B228" s="27" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C228" s="26">
         <v>42335</v>
       </c>
       <c r="D228" s="28" t="s">
-        <v>610</v>
+        <v>374</v>
       </c>
       <c r="E228" s="28" t="s">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c r="F228" s="125" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G228" s="113">
-        <v>22430</v>
-      </c>
-      <c r="H228" s="137">
-        <v>64624</v>
-      </c>
+        <v>22450</v>
+      </c>
+      <c r="H228" s="137"/>
       <c r="I228" s="13">
-        <f t="shared" ref="I228:I229" si="120">ROUND(H228*G228,0)</f>
-        <v>1449516320</v>
-      </c>
-      <c r="J228" s="12"/>
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J228" s="12">
+        <v>14.55</v>
+      </c>
       <c r="K228" s="13">
-        <f t="shared" ref="K228:K229" si="121">ROUND(G228*J228,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+        <f t="shared" si="54"/>
+        <v>326648</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A229" s="160">
-        <f t="shared" si="119"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="B229" s="27" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C229" s="26">
         <v>42335</v>
       </c>
       <c r="D229" s="28" t="s">
-        <v>609</v>
+        <v>375</v>
       </c>
       <c r="E229" s="28" t="s">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c r="F229" s="125" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="G229" s="113">
-        <v>22430</v>
-      </c>
-      <c r="H229" s="137">
-        <v>11424</v>
-      </c>
+        <v>22450</v>
+      </c>
+      <c r="H229" s="137"/>
       <c r="I229" s="13">
-        <f t="shared" si="120"/>
-        <v>256240320</v>
-      </c>
-      <c r="J229" s="12"/>
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J229" s="12">
+        <v>1.46</v>
+      </c>
       <c r="K229" s="13">
-        <f t="shared" si="121"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+        <f t="shared" si="54"/>
+        <v>32777</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A230" s="160">
         <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="B230" s="27" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="C230" s="26">
         <v>42335</v>
       </c>
       <c r="D230" s="28" t="s">
+        <v>766</v>
+      </c>
+      <c r="E230" s="28" t="s">
         <v>721</v>
       </c>
-      <c r="E230" s="28" t="s">
-        <v>722</v>
-      </c>
       <c r="F230" s="125" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G230" s="113">
-        <v>22430</v>
+        <v>22520</v>
       </c>
       <c r="H230" s="137">
-        <v>211200</v>
+        <v>22513.56</v>
       </c>
       <c r="I230" s="13">
         <f t="shared" si="46"/>
-        <v>4737216000</v>
+        <v>507005371</v>
       </c>
       <c r="J230" s="12"/>
       <c r="K230" s="13">
@@ -13692,43 +13690,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="231" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A231" s="160">
-        <f t="shared" si="47"/>
+        <f>IF(C231&lt;&gt;"",MONTH(C231),"")</f>
         <v>11</v>
       </c>
       <c r="B231" s="27" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C231" s="26">
-        <v>42321</v>
+        <v>42335</v>
       </c>
       <c r="D231" s="28" t="s">
-        <v>521</v>
+        <v>765</v>
       </c>
       <c r="E231" s="28" t="s">
-        <v>465</v>
+        <v>721</v>
       </c>
       <c r="F231" s="125" t="s">
-        <v>49</v>
+        <v>767</v>
       </c>
       <c r="G231" s="113">
-        <v>22410</v>
-      </c>
-      <c r="H231" s="137"/>
+        <v>22520</v>
+      </c>
+      <c r="H231" s="137">
+        <v>18.440000000000001</v>
+      </c>
       <c r="I231" s="13">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="J231" s="12">
-        <v>92100</v>
-      </c>
+        <f>ROUND(H231*G231,0)</f>
+        <v>415269</v>
+      </c>
+      <c r="J231" s="12"/>
       <c r="K231" s="13">
-        <f t="shared" si="54"/>
-        <v>2063961000</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+        <f>ROUND(G231*J231,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A232" s="160">
         <f t="shared" si="47"/>
         <v>11</v>
@@ -13737,19 +13735,19 @@
         <v>48</v>
       </c>
       <c r="C232" s="26">
-        <v>42328</v>
+        <v>42338</v>
       </c>
       <c r="D232" s="28" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E232" s="28" t="s">
-        <v>465</v>
+        <v>256</v>
       </c>
       <c r="F232" s="125" t="s">
         <v>49</v>
       </c>
       <c r="G232" s="113">
-        <v>22440</v>
+        <v>22450</v>
       </c>
       <c r="H232" s="137"/>
       <c r="I232" s="13">
@@ -13757,28 +13755,42 @@
         <v>0</v>
       </c>
       <c r="J232" s="12">
-        <v>4467.3900000000003</v>
+        <v>72158.62</v>
       </c>
       <c r="K232" s="13">
         <f t="shared" si="54"/>
-        <v>100248232</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
-      <c r="A233" s="160" t="str">
+        <v>1619961019</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" s="122" customFormat="1" ht="15.75">
+      <c r="A233" s="160">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="B233" s="27"/>
-      <c r="C233" s="26"/>
-      <c r="D233" s="28"/>
-      <c r="E233" s="28"/>
-      <c r="F233" s="125"/>
-      <c r="G233" s="113"/>
-      <c r="H233" s="137"/>
+        <v>11</v>
+      </c>
+      <c r="B233" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C233" s="26">
+        <v>42319</v>
+      </c>
+      <c r="D233" s="28" t="s">
+        <v>610</v>
+      </c>
+      <c r="E233" s="28" t="s">
+        <v>465</v>
+      </c>
+      <c r="F233" s="125" t="s">
+        <v>55</v>
+      </c>
+      <c r="G233" s="113">
+        <v>22285</v>
+      </c>
+      <c r="H233" s="137">
+        <v>96954</v>
+      </c>
       <c r="I233" s="13">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>2160619890</v>
       </c>
       <c r="J233" s="12"/>
       <c r="K233" s="13">
@@ -13786,65 +13798,107 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
-      <c r="A234" s="160" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="B234" s="27"/>
-      <c r="C234" s="26"/>
-      <c r="D234" s="28"/>
-      <c r="E234" s="28"/>
-      <c r="F234" s="125"/>
-      <c r="G234" s="113"/>
-      <c r="H234" s="137"/>
+    <row r="234" spans="1:11" s="122" customFormat="1" ht="15.75">
+      <c r="A234" s="160">
+        <f t="shared" ref="A234:A235" si="122">IF(C234&lt;&gt;"",MONTH(C234),"")</f>
+        <v>11</v>
+      </c>
+      <c r="B234" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C234" s="26">
+        <v>42335</v>
+      </c>
+      <c r="D234" s="28" t="s">
+        <v>610</v>
+      </c>
+      <c r="E234" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="F234" s="125" t="s">
+        <v>55</v>
+      </c>
+      <c r="G234" s="113">
+        <v>22430</v>
+      </c>
+      <c r="H234" s="137">
+        <v>64624</v>
+      </c>
       <c r="I234" s="13">
-        <f t="shared" si="46"/>
-        <v>0</v>
+        <f t="shared" ref="I234:I235" si="123">ROUND(H234*G234,0)</f>
+        <v>1449516320</v>
       </c>
       <c r="J234" s="12"/>
       <c r="K234" s="13">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
-      <c r="A235" s="160" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="B235" s="27"/>
-      <c r="C235" s="26"/>
-      <c r="D235" s="28"/>
-      <c r="E235" s="28"/>
-      <c r="F235" s="125"/>
-      <c r="G235" s="113"/>
-      <c r="H235" s="137"/>
+        <f t="shared" ref="K234:K235" si="124">ROUND(G234*J234,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" s="122" customFormat="1" ht="15.75">
+      <c r="A235" s="160">
+        <f t="shared" si="122"/>
+        <v>11</v>
+      </c>
+      <c r="B235" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C235" s="26">
+        <v>42335</v>
+      </c>
+      <c r="D235" s="28" t="s">
+        <v>609</v>
+      </c>
+      <c r="E235" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="F235" s="125" t="s">
+        <v>55</v>
+      </c>
+      <c r="G235" s="113">
+        <v>22430</v>
+      </c>
+      <c r="H235" s="137">
+        <v>11424</v>
+      </c>
       <c r="I235" s="13">
-        <f t="shared" si="46"/>
-        <v>0</v>
+        <f t="shared" si="123"/>
+        <v>256240320</v>
       </c>
       <c r="J235" s="12"/>
       <c r="K235" s="13">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
-      <c r="A236" s="160" t="str">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" s="122" customFormat="1" ht="15.75">
+      <c r="A236" s="160">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="B236" s="27"/>
-      <c r="C236" s="26"/>
-      <c r="D236" s="28"/>
-      <c r="E236" s="28"/>
-      <c r="F236" s="125"/>
-      <c r="G236" s="113"/>
-      <c r="H236" s="137"/>
+        <v>11</v>
+      </c>
+      <c r="B236" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C236" s="26">
+        <v>42335</v>
+      </c>
+      <c r="D236" s="28" t="s">
+        <v>720</v>
+      </c>
+      <c r="E236" s="28" t="s">
+        <v>721</v>
+      </c>
+      <c r="F236" s="125" t="s">
+        <v>55</v>
+      </c>
+      <c r="G236" s="113">
+        <v>22430</v>
+      </c>
+      <c r="H236" s="137">
+        <v>211200</v>
+      </c>
       <c r="I236" s="13">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>4737216000</v>
       </c>
       <c r="J236" s="12"/>
       <c r="K236" s="13">
@@ -13852,161 +13906,256 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
-      <c r="A237" s="160" t="str">
+    <row r="237" spans="1:11" s="122" customFormat="1" ht="15.75">
+      <c r="A237" s="160">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="B237" s="27"/>
-      <c r="C237" s="26"/>
-      <c r="D237" s="28"/>
-      <c r="E237" s="28"/>
-      <c r="F237" s="125"/>
-      <c r="G237" s="113"/>
+        <v>11</v>
+      </c>
+      <c r="B237" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C237" s="26">
+        <v>42321</v>
+      </c>
+      <c r="D237" s="28" t="s">
+        <v>521</v>
+      </c>
+      <c r="E237" s="28" t="s">
+        <v>465</v>
+      </c>
+      <c r="F237" s="125" t="s">
+        <v>49</v>
+      </c>
+      <c r="G237" s="113">
+        <v>22410</v>
+      </c>
       <c r="H237" s="137"/>
       <c r="I237" s="13">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="J237" s="12"/>
+      <c r="J237" s="12">
+        <v>92100</v>
+      </c>
       <c r="K237" s="13">
         <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
-      <c r="A238" s="160" t="str">
+        <v>2063961000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" s="122" customFormat="1" ht="15.75">
+      <c r="A238" s="160">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="B238" s="27"/>
-      <c r="C238" s="26"/>
-      <c r="D238" s="28"/>
-      <c r="E238" s="28"/>
-      <c r="F238" s="125"/>
-      <c r="G238" s="113"/>
+        <v>11</v>
+      </c>
+      <c r="B238" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C238" s="26">
+        <v>42328</v>
+      </c>
+      <c r="D238" s="28" t="s">
+        <v>521</v>
+      </c>
+      <c r="E238" s="28" t="s">
+        <v>465</v>
+      </c>
+      <c r="F238" s="125" t="s">
+        <v>49</v>
+      </c>
+      <c r="G238" s="113">
+        <v>22440</v>
+      </c>
       <c r="H238" s="137"/>
       <c r="I238" s="13">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="J238" s="12"/>
+      <c r="J238" s="12">
+        <v>4467.3900000000003</v>
+      </c>
       <c r="K238" s="13">
         <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
-      <c r="A239" s="160" t="str">
+        <v>100248232</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" s="122" customFormat="1" ht="15.75">
+      <c r="A239" s="160">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="B239" s="27"/>
-      <c r="C239" s="26"/>
-      <c r="D239" s="28"/>
-      <c r="E239" s="28"/>
-      <c r="F239" s="125"/>
-      <c r="G239" s="113"/>
+        <v>11</v>
+      </c>
+      <c r="B239" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C239" s="26">
+        <v>42328</v>
+      </c>
+      <c r="D239" s="28" t="s">
+        <v>608</v>
+      </c>
+      <c r="E239" s="28" t="s">
+        <v>465</v>
+      </c>
+      <c r="F239" s="125" t="s">
+        <v>63</v>
+      </c>
+      <c r="G239" s="113">
+        <v>22440</v>
+      </c>
       <c r="H239" s="137"/>
       <c r="I239" s="13">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="J239" s="12"/>
+      <c r="J239" s="12">
+        <v>62.68</v>
+      </c>
       <c r="K239" s="13">
         <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
-      <c r="A240" s="160" t="str">
+        <v>1406539</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" s="122" customFormat="1" ht="15.75">
+      <c r="A240" s="160">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="B240" s="27"/>
-      <c r="C240" s="26"/>
-      <c r="D240" s="28"/>
-      <c r="E240" s="28"/>
-      <c r="F240" s="125"/>
-      <c r="G240" s="113"/>
+        <v>11</v>
+      </c>
+      <c r="B240" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C240" s="26">
+        <v>42328</v>
+      </c>
+      <c r="D240" s="28" t="s">
+        <v>606</v>
+      </c>
+      <c r="E240" s="28" t="s">
+        <v>465</v>
+      </c>
+      <c r="F240" s="125" t="s">
+        <v>62</v>
+      </c>
+      <c r="G240" s="113">
+        <v>22440</v>
+      </c>
       <c r="H240" s="137"/>
       <c r="I240" s="13">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="J240" s="12"/>
+      <c r="J240" s="12">
+        <v>199.65</v>
+      </c>
       <c r="K240" s="13">
         <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
-      <c r="A241" s="160" t="str">
+        <v>4480146</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" s="122" customFormat="1" ht="15.75">
+      <c r="A241" s="160">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="B241" s="27"/>
-      <c r="C241" s="26"/>
-      <c r="D241" s="28"/>
-      <c r="E241" s="28"/>
-      <c r="F241" s="125"/>
-      <c r="G241" s="113"/>
+        <v>11</v>
+      </c>
+      <c r="B241" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C241" s="26">
+        <v>42328</v>
+      </c>
+      <c r="D241" s="28" t="s">
+        <v>607</v>
+      </c>
+      <c r="E241" s="28" t="s">
+        <v>465</v>
+      </c>
+      <c r="F241" s="125" t="s">
+        <v>76</v>
+      </c>
+      <c r="G241" s="113">
+        <v>22440</v>
+      </c>
       <c r="H241" s="137"/>
       <c r="I241" s="13">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="J241" s="12"/>
+      <c r="J241" s="12">
+        <v>19.96</v>
+      </c>
       <c r="K241" s="13">
         <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
-      <c r="A242" s="160" t="str">
+        <v>447902</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" s="122" customFormat="1" ht="15.75">
+      <c r="A242" s="160">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="B242" s="27"/>
-      <c r="C242" s="26"/>
-      <c r="D242" s="28"/>
-      <c r="E242" s="28"/>
-      <c r="F242" s="125"/>
-      <c r="G242" s="113"/>
+        <v>11</v>
+      </c>
+      <c r="B242" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C242" s="26">
+        <v>42328</v>
+      </c>
+      <c r="D242" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="E242" s="28" t="s">
+        <v>465</v>
+      </c>
+      <c r="F242" s="125" t="s">
+        <v>62</v>
+      </c>
+      <c r="G242" s="113">
+        <v>22440</v>
+      </c>
       <c r="H242" s="137"/>
       <c r="I242" s="13">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="J242" s="12"/>
+      <c r="J242" s="12">
+        <v>104.32</v>
+      </c>
       <c r="K242" s="13">
         <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
-      <c r="A243" s="160" t="str">
+        <v>2340941</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" s="249" customFormat="1" ht="15.75">
+      <c r="A243" s="241">
         <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="B243" s="27"/>
-      <c r="C243" s="26"/>
-      <c r="D243" s="28"/>
-      <c r="E243" s="28"/>
-      <c r="F243" s="125"/>
-      <c r="G243" s="113"/>
-      <c r="H243" s="137"/>
-      <c r="I243" s="13">
-        <f t="shared" ref="I243:I250" si="122">ROUND(H243*G243,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J243" s="12"/>
-      <c r="K243" s="13">
+        <v>11</v>
+      </c>
+      <c r="B243" s="242" t="s">
+        <v>57</v>
+      </c>
+      <c r="C243" s="26">
+        <v>42328</v>
+      </c>
+      <c r="D243" s="244" t="s">
+        <v>61</v>
+      </c>
+      <c r="E243" s="28" t="s">
+        <v>465</v>
+      </c>
+      <c r="F243" s="245" t="s">
+        <v>70</v>
+      </c>
+      <c r="G243" s="113">
+        <v>22440</v>
+      </c>
+      <c r="H243" s="247"/>
+      <c r="I243" s="248">
+        <v>12264870</v>
+      </c>
+      <c r="J243" s="252"/>
+      <c r="K243" s="248">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="244" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A244" s="160" t="str">
         <f t="shared" si="47"/>
         <v/>
@@ -14019,7 +14168,7 @@
       <c r="G244" s="113"/>
       <c r="H244" s="137"/>
       <c r="I244" s="13">
-        <f t="shared" si="122"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="J244" s="12"/>
@@ -14028,7 +14177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="245" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A245" s="160" t="str">
         <f t="shared" si="47"/>
         <v/>
@@ -14041,7 +14190,7 @@
       <c r="G245" s="113"/>
       <c r="H245" s="137"/>
       <c r="I245" s="13">
-        <f t="shared" si="122"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="J245" s="12"/>
@@ -14050,7 +14199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="246" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A246" s="160" t="str">
         <f t="shared" si="47"/>
         <v/>
@@ -14063,7 +14212,7 @@
       <c r="G246" s="113"/>
       <c r="H246" s="137"/>
       <c r="I246" s="13">
-        <f t="shared" si="122"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="J246" s="12"/>
@@ -14072,7 +14221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="247" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A247" s="160" t="str">
         <f t="shared" si="47"/>
         <v/>
@@ -14085,7 +14234,7 @@
       <c r="G247" s="113"/>
       <c r="H247" s="137"/>
       <c r="I247" s="13">
-        <f t="shared" si="122"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="J247" s="12"/>
@@ -14094,9 +14243,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="248" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A248" s="160" t="str">
-        <f t="shared" ref="A248:A250" si="123">IF(C248&lt;&gt;"",MONTH(C248),"")</f>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="B248" s="27"/>
@@ -14107,7 +14256,7 @@
       <c r="G248" s="113"/>
       <c r="H248" s="137"/>
       <c r="I248" s="13">
-        <f t="shared" si="122"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="J248" s="12"/>
@@ -14116,9 +14265,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="249" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A249" s="160" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="B249" s="27"/>
@@ -14129,7 +14278,7 @@
       <c r="G249" s="113"/>
       <c r="H249" s="137"/>
       <c r="I249" s="13">
-        <f t="shared" si="122"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="J249" s="12"/>
@@ -14138,9 +14287,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:11" s="122" customFormat="1" ht="15.75" hidden="1">
+    <row r="250" spans="1:11" s="122" customFormat="1" ht="15.75">
       <c r="A250" s="160" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="B250" s="27"/>
@@ -14151,7 +14300,7 @@
       <c r="G250" s="113"/>
       <c r="H250" s="137"/>
       <c r="I250" s="13">
-        <f t="shared" si="122"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="J250" s="12"/>
@@ -14160,36 +14309,252 @@
         <v>0</v>
       </c>
     </row>
+    <row r="251" spans="1:11" s="122" customFormat="1" ht="15.75">
+      <c r="A251" s="160" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="B251" s="27"/>
+      <c r="C251" s="26"/>
+      <c r="D251" s="28"/>
+      <c r="E251" s="28"/>
+      <c r="F251" s="125"/>
+      <c r="G251" s="113"/>
+      <c r="H251" s="137"/>
+      <c r="I251" s="13">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J251" s="12"/>
+      <c r="K251" s="13">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" s="122" customFormat="1" ht="15.75">
+      <c r="A252" s="160" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="B252" s="27"/>
+      <c r="C252" s="26"/>
+      <c r="D252" s="28"/>
+      <c r="E252" s="28"/>
+      <c r="F252" s="125"/>
+      <c r="G252" s="113"/>
+      <c r="H252" s="137"/>
+      <c r="I252" s="13">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J252" s="12"/>
+      <c r="K252" s="13">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" s="122" customFormat="1" ht="15.75">
+      <c r="A253" s="160" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="B253" s="27"/>
+      <c r="C253" s="26"/>
+      <c r="D253" s="28"/>
+      <c r="E253" s="28"/>
+      <c r="F253" s="125"/>
+      <c r="G253" s="113"/>
+      <c r="H253" s="137"/>
+      <c r="I253" s="13">
+        <f t="shared" ref="I253:I260" si="125">ROUND(H253*G253,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J253" s="12"/>
+      <c r="K253" s="13">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" s="122" customFormat="1" ht="15.75">
+      <c r="A254" s="160" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="B254" s="27"/>
+      <c r="C254" s="26"/>
+      <c r="D254" s="28"/>
+      <c r="E254" s="28"/>
+      <c r="F254" s="125"/>
+      <c r="G254" s="113"/>
+      <c r="H254" s="137"/>
+      <c r="I254" s="13">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="J254" s="12"/>
+      <c r="K254" s="13">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" s="122" customFormat="1" ht="15.75">
+      <c r="A255" s="160" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="B255" s="27"/>
+      <c r="C255" s="26"/>
+      <c r="D255" s="28"/>
+      <c r="E255" s="28"/>
+      <c r="F255" s="125"/>
+      <c r="G255" s="113"/>
+      <c r="H255" s="137"/>
+      <c r="I255" s="13">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="J255" s="12"/>
+      <c r="K255" s="13">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" s="122" customFormat="1" ht="15.75">
+      <c r="A256" s="160" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="B256" s="27"/>
+      <c r="C256" s="26"/>
+      <c r="D256" s="28"/>
+      <c r="E256" s="28"/>
+      <c r="F256" s="125"/>
+      <c r="G256" s="113"/>
+      <c r="H256" s="137"/>
+      <c r="I256" s="13">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="J256" s="12"/>
+      <c r="K256" s="13">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" s="122" customFormat="1" ht="15.75">
+      <c r="A257" s="160" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="B257" s="27"/>
+      <c r="C257" s="26"/>
+      <c r="D257" s="28"/>
+      <c r="E257" s="28"/>
+      <c r="F257" s="125"/>
+      <c r="G257" s="113"/>
+      <c r="H257" s="137"/>
+      <c r="I257" s="13">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="J257" s="12"/>
+      <c r="K257" s="13">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" s="122" customFormat="1" ht="15.75">
+      <c r="A258" s="160" t="str">
+        <f t="shared" ref="A258:A260" si="126">IF(C258&lt;&gt;"",MONTH(C258),"")</f>
+        <v/>
+      </c>
+      <c r="B258" s="27"/>
+      <c r="C258" s="26"/>
+      <c r="D258" s="28"/>
+      <c r="E258" s="28"/>
+      <c r="F258" s="125"/>
+      <c r="G258" s="113"/>
+      <c r="H258" s="137"/>
+      <c r="I258" s="13">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="J258" s="12"/>
+      <c r="K258" s="13">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" s="122" customFormat="1" ht="15.75">
+      <c r="A259" s="160" t="str">
+        <f t="shared" si="126"/>
+        <v/>
+      </c>
+      <c r="B259" s="27"/>
+      <c r="C259" s="26"/>
+      <c r="D259" s="28"/>
+      <c r="E259" s="28"/>
+      <c r="F259" s="125"/>
+      <c r="G259" s="113"/>
+      <c r="H259" s="137"/>
+      <c r="I259" s="13">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="J259" s="12"/>
+      <c r="K259" s="13">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" s="122" customFormat="1" ht="15.75">
+      <c r="A260" s="160" t="str">
+        <f t="shared" si="126"/>
+        <v/>
+      </c>
+      <c r="B260" s="27"/>
+      <c r="C260" s="26"/>
+      <c r="D260" s="28"/>
+      <c r="E260" s="28"/>
+      <c r="F260" s="125"/>
+      <c r="G260" s="113"/>
+      <c r="H260" s="137"/>
+      <c r="I260" s="13">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="J260" s="12"/>
+      <c r="K260" s="13">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:K250">
+  <autoFilter ref="A4:K260">
     <filterColumn colId="0"/>
     <filterColumn colId="1"/>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="642"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="5"/>
   </autoFilter>
   <mergeCells count="11">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="G1:G3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H195:I195 E5:E250">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H195:I195 E5:E260">
       <formula1>DSKHusd</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14201,25 +14566,27 @@
   <dimension ref="A2:O106"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="11" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D29" sqref="D29"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9:J9"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" customWidth="1"/>
     <col min="15" max="15" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14244,12 +14611,12 @@
       <c r="O2" s="99"/>
     </row>
     <row r="3" spans="1:15" s="55" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="309" t="s">
+      <c r="A3" s="299" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="309"/>
-      <c r="C3" s="309"/>
-      <c r="D3" s="309"/>
+      <c r="B3" s="299"/>
+      <c r="C3" s="299"/>
+      <c r="D3" s="299"/>
       <c r="E3" s="56"/>
       <c r="G3" s="167"/>
       <c r="H3" s="168"/>
@@ -14299,23 +14666,23 @@
       <c r="O5" s="178"/>
     </row>
     <row r="6" spans="1:15" s="58" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A6" s="310" t="s">
+      <c r="A6" s="300" t="s">
         <v>257</v>
       </c>
-      <c r="B6" s="310"/>
-      <c r="C6" s="310"/>
-      <c r="D6" s="310"/>
-      <c r="E6" s="310"/>
-      <c r="F6" s="310"/>
-      <c r="G6" s="310"/>
-      <c r="H6" s="310"/>
-      <c r="I6" s="310"/>
-      <c r="J6" s="310"/>
-      <c r="K6" s="310"/>
-      <c r="L6" s="310"/>
-      <c r="M6" s="310"/>
-      <c r="N6" s="310"/>
-      <c r="O6" s="310"/>
+      <c r="B6" s="300"/>
+      <c r="C6" s="300"/>
+      <c r="D6" s="300"/>
+      <c r="E6" s="300"/>
+      <c r="F6" s="300"/>
+      <c r="G6" s="300"/>
+      <c r="H6" s="300"/>
+      <c r="I6" s="300"/>
+      <c r="J6" s="300"/>
+      <c r="K6" s="300"/>
+      <c r="L6" s="300"/>
+      <c r="M6" s="300"/>
+      <c r="N6" s="300"/>
+      <c r="O6" s="300"/>
     </row>
     <row r="7" spans="1:15" s="58" customFormat="1" ht="15">
       <c r="H7" s="210" t="s">
@@ -14331,11 +14698,11 @@
       <c r="G9" s="143" t="s">
         <v>324</v>
       </c>
-      <c r="H9" s="311" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" s="311"/>
-      <c r="J9" s="311"/>
+      <c r="H9" s="301" t="s">
+        <v>465</v>
+      </c>
+      <c r="I9" s="301"/>
+      <c r="J9" s="301"/>
     </row>
     <row r="10" spans="1:15" s="58" customFormat="1" ht="15">
       <c r="H10" s="210" t="s">
@@ -14360,75 +14727,75 @@
       <c r="O11" s="179"/>
     </row>
     <row r="12" spans="1:15" s="210" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A12" s="312" t="s">
+      <c r="A12" s="302" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="302" t="s">
+      <c r="B12" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="315"/>
-      <c r="D12" s="312" t="s">
+      <c r="C12" s="306"/>
+      <c r="D12" s="302" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="312" t="s">
+      <c r="E12" s="302" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="312" t="s">
+      <c r="F12" s="302" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="316" t="s">
+      <c r="G12" s="307" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="302" t="s">
+      <c r="H12" s="305" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="319"/>
-      <c r="J12" s="319"/>
-      <c r="K12" s="315"/>
-      <c r="L12" s="302" t="s">
+      <c r="I12" s="310"/>
+      <c r="J12" s="310"/>
+      <c r="K12" s="306"/>
+      <c r="L12" s="305" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="303"/>
-      <c r="N12" s="303"/>
-      <c r="O12" s="304"/>
+      <c r="M12" s="312"/>
+      <c r="N12" s="312"/>
+      <c r="O12" s="313"/>
     </row>
     <row r="13" spans="1:15" s="210" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="313"/>
-      <c r="B13" s="305" t="s">
+      <c r="A13" s="303"/>
+      <c r="B13" s="314" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="305" t="s">
+      <c r="C13" s="314" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="313"/>
-      <c r="E13" s="313"/>
-      <c r="F13" s="313"/>
-      <c r="G13" s="317"/>
-      <c r="H13" s="307" t="s">
+      <c r="D13" s="303"/>
+      <c r="E13" s="303"/>
+      <c r="F13" s="303"/>
+      <c r="G13" s="308"/>
+      <c r="H13" s="316" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="308"/>
-      <c r="J13" s="307" t="s">
+      <c r="I13" s="317"/>
+      <c r="J13" s="316" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="308"/>
-      <c r="L13" s="307" t="s">
+      <c r="K13" s="317"/>
+      <c r="L13" s="316" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="304"/>
-      <c r="N13" s="307" t="s">
+      <c r="M13" s="313"/>
+      <c r="N13" s="316" t="s">
         <v>11</v>
       </c>
-      <c r="O13" s="304"/>
+      <c r="O13" s="313"/>
     </row>
     <row r="14" spans="1:15" s="210" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A14" s="314"/>
-      <c r="B14" s="306"/>
-      <c r="C14" s="306"/>
-      <c r="D14" s="314"/>
-      <c r="E14" s="314"/>
-      <c r="F14" s="314"/>
-      <c r="G14" s="318"/>
+      <c r="A14" s="304"/>
+      <c r="B14" s="315"/>
+      <c r="C14" s="315"/>
+      <c r="D14" s="304"/>
+      <c r="E14" s="304"/>
+      <c r="F14" s="304"/>
+      <c r="G14" s="309"/>
       <c r="H14" s="180" t="s">
         <v>26</v>
       </c>
@@ -14517,11 +14884,11 @@
       <c r="K16" s="63"/>
       <c r="L16" s="185">
         <f>VLOOKUP($H$9,'131'!$B$5:$F$15,2,0)</f>
-        <v>55493.47</v>
+        <v>0</v>
       </c>
       <c r="M16" s="187">
         <f>VLOOKUP($H$9,'131'!$B$5:$F$15,3,0)</f>
-        <v>1172866246</v>
+        <v>0</v>
       </c>
       <c r="N16" s="185">
         <f>VLOOKUP($H$9,'131'!$B$5:$F$15,4,0)</f>
@@ -14535,229 +14902,229 @@
     <row r="17" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A17" s="68">
         <f t="shared" ref="A17:A99" ca="1" si="0">IF(C17&lt;&gt;"",C17,"")</f>
-        <v>42038</v>
+        <v>42175</v>
       </c>
       <c r="B17" s="69" t="str">
         <f ca="1">IF(ROWS($2:2)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:2)),))</f>
-        <v>GBC</v>
+        <v>X03/TP</v>
       </c>
       <c r="C17" s="68">
         <f ca="1">IF(ROWS($2:2)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:2)),))</f>
-        <v>42038</v>
+        <v>42175</v>
       </c>
       <c r="D17" s="195" t="str">
         <f ca="1">IF(ROWS($2:2)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:2)),))</f>
-        <v>Markov - Thu tiền hàng</v>
+        <v>O.CHEON - Khô cá bò tẩm - TK 300434620750</v>
       </c>
       <c r="E17" s="188" t="str">
         <f ca="1">IF(ROWS($2:2)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:2)),))</f>
-        <v>1122</v>
+        <v>5112X</v>
       </c>
       <c r="F17" s="188">
         <f ca="1">IF(ROWS($2:2)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:2)),))</f>
-        <v>21345</v>
+        <v>21760</v>
       </c>
       <c r="G17" s="188"/>
       <c r="H17" s="196">
         <f ca="1">IF(ROWS($2:2)&gt;COUNT(Dong1),"",OFFSET('131-TH'!H$1,SMALL(Dong1,ROWS($2:2)),))</f>
-        <v>0</v>
+        <v>103680</v>
       </c>
       <c r="I17" s="188">
         <f ca="1">IF(ROWS($2:2)&gt;COUNT(Dong1),"",OFFSET('131-TH'!I$1,SMALL(Dong1,ROWS($2:2)),))</f>
-        <v>0</v>
+        <v>2256076800</v>
       </c>
       <c r="J17" s="196">
         <f ca="1">IF(ROWS($2:2)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:2)),))</f>
-        <v>107065.8</v>
+        <v>0</v>
       </c>
       <c r="K17" s="188">
         <f ca="1">IF(ROWS($2:2)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:2)),))</f>
-        <v>2285319501</v>
+        <v>0</v>
       </c>
       <c r="L17" s="189">
         <f t="shared" ref="L17" ca="1" si="1">IF(D17&lt;&gt;"",ROUND(MAX(L16+H17-J17-N16,0),2),0)</f>
-        <v>0</v>
+        <v>103680</v>
       </c>
       <c r="M17" s="71">
         <f t="shared" ref="M17" ca="1" si="2">IF(D17&lt;&gt;"",MAX(M16-O16+I17-K17,0),0)</f>
-        <v>0</v>
+        <v>2256076800</v>
       </c>
       <c r="N17" s="189">
         <f t="shared" ref="N17" ca="1" si="3">IF(D17&lt;&gt;"",ROUND(MAX(N16+J17-H17-L16,0),2),0)</f>
-        <v>51572.33</v>
+        <v>0</v>
       </c>
       <c r="O17" s="71">
         <f t="shared" ref="O17" ca="1" si="4">IF(D17&lt;&gt;"",MAX(O16-M16+K17-I17,0),0)</f>
-        <v>1112453255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A18" s="68">
         <f t="shared" ref="A18:A57" ca="1" si="5">IF(C18&lt;&gt;"",C18,"")</f>
-        <v>42062</v>
+        <v>42177</v>
       </c>
       <c r="B18" s="69" t="str">
         <f ca="1">IF(ROWS($2:3)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:3)),))</f>
-        <v>X02/TP</v>
+        <v>GBC</v>
       </c>
       <c r="C18" s="68">
         <f ca="1">IF(ROWS($2:3)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:3)),))</f>
-        <v>42062</v>
+        <v>42177</v>
       </c>
       <c r="D18" s="195" t="str">
         <f ca="1">IF(ROWS($2:3)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:3)),))</f>
-        <v>Markov - Cá chỉ vàng (12kg/bó) - TK 300305907000 - UTXK</v>
+        <v>Thu tiền hàng - O.Cheon</v>
       </c>
       <c r="E18" s="188" t="str">
         <f ca="1">IF(ROWS($2:3)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:3)),))</f>
-        <v>5112X</v>
+        <v>1122</v>
       </c>
       <c r="F18" s="188">
         <f ca="1">IF(ROWS($2:3)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:3)),))</f>
-        <v>21458</v>
+        <v>21835</v>
       </c>
       <c r="G18" s="188"/>
       <c r="H18" s="196">
         <f ca="1">IF(ROWS($2:3)&gt;COUNT(Dong1),"",OFFSET('131-TH'!H$1,SMALL(Dong1,ROWS($2:3)),))</f>
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="I18" s="188">
         <f ca="1">IF(ROWS($2:3)&gt;COUNT(Dong1),"",OFFSET('131-TH'!I$1,SMALL(Dong1,ROWS($2:3)),))</f>
-        <v>257496000</v>
+        <v>0</v>
       </c>
       <c r="J18" s="196">
         <f ca="1">IF(ROWS($2:3)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:3)),))</f>
-        <v>0</v>
+        <v>98358.62</v>
       </c>
       <c r="K18" s="188">
         <f ca="1">IF(ROWS($2:3)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:3)),))</f>
-        <v>0</v>
+        <v>2147660468</v>
       </c>
       <c r="L18" s="189">
         <f t="shared" ref="L18:L57" ca="1" si="6">IF(D18&lt;&gt;"",ROUND(MAX(L17+H18-J18-N17,0),2),0)</f>
-        <v>0</v>
+        <v>5321.38</v>
       </c>
       <c r="M18" s="71">
         <f t="shared" ref="M18:M57" ca="1" si="7">IF(D18&lt;&gt;"",MAX(M17-O17+I18-K18,0),0)</f>
-        <v>0</v>
+        <v>108416332</v>
       </c>
       <c r="N18" s="189">
         <f t="shared" ref="N18:N57" ca="1" si="8">IF(D18&lt;&gt;"",ROUND(MAX(N17+J18-H18-L17,0),2),0)</f>
-        <v>39572.33</v>
+        <v>0</v>
       </c>
       <c r="O18" s="71">
         <f t="shared" ref="O18:O57" ca="1" si="9">IF(D18&lt;&gt;"",MAX(O17-M17+K18-I18,0),0)</f>
-        <v>854957255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A19" s="68">
         <f t="shared" ca="1" si="5"/>
-        <v>42062</v>
+        <v>42177</v>
       </c>
       <c r="B19" s="69" t="str">
         <f ca="1">IF(ROWS($2:4)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:4)),))</f>
-        <v>X02/TP</v>
+        <v>CTGS</v>
       </c>
       <c r="C19" s="68">
         <f ca="1">IF(ROWS($2:4)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:4)),))</f>
-        <v>42062</v>
+        <v>42177</v>
       </c>
       <c r="D19" s="195" t="str">
         <f ca="1">IF(ROWS($2:4)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:4)),))</f>
-        <v>Markov - Cá chỉ vàng (10.8kg/bó) - TK 300305907000 - UTXK</v>
+        <v>Phí xử lý bộ chứng từ</v>
       </c>
       <c r="E19" s="188" t="str">
         <f ca="1">IF(ROWS($2:4)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:4)),))</f>
-        <v>5112X</v>
+        <v>642</v>
       </c>
       <c r="F19" s="188">
         <f ca="1">IF(ROWS($2:4)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:4)),))</f>
-        <v>21458</v>
+        <v>21835</v>
       </c>
       <c r="G19" s="188"/>
       <c r="H19" s="196">
         <f ca="1">IF(ROWS($2:4)&gt;COUNT(Dong1),"",OFFSET('131-TH'!H$1,SMALL(Dong1,ROWS($2:4)),))</f>
-        <v>16038</v>
+        <v>0</v>
       </c>
       <c r="I19" s="188">
         <f ca="1">IF(ROWS($2:4)&gt;COUNT(Dong1),"",OFFSET('131-TH'!I$1,SMALL(Dong1,ROWS($2:4)),))</f>
-        <v>344143404</v>
+        <v>0</v>
       </c>
       <c r="J19" s="196">
         <f ca="1">IF(ROWS($2:4)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:4)),))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K19" s="188">
         <f ca="1">IF(ROWS($2:4)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:4)),))</f>
-        <v>0</v>
+        <v>218350</v>
       </c>
       <c r="L19" s="189">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>5311.38</v>
       </c>
       <c r="M19" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>108197982</v>
       </c>
       <c r="N19" s="189">
         <f t="shared" ca="1" si="8"/>
-        <v>23534.33</v>
+        <v>0</v>
       </c>
       <c r="O19" s="71">
         <f t="shared" ca="1" si="9"/>
-        <v>510813851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A20" s="68">
         <f t="shared" ca="1" si="5"/>
-        <v>42062</v>
+        <v>42177</v>
       </c>
       <c r="B20" s="69" t="str">
         <f ca="1">IF(ROWS($2:5)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:5)),))</f>
-        <v>X02/TP</v>
+        <v>CTGS</v>
       </c>
       <c r="C20" s="68">
         <f ca="1">IF(ROWS($2:5)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:5)),))</f>
-        <v>42062</v>
+        <v>42177</v>
       </c>
       <c r="D20" s="195" t="str">
         <f ca="1">IF(ROWS($2:5)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:5)),))</f>
-        <v>Markov - Cá chỉ vàng (10kg/bó) - TK 300305907000 - UTXK</v>
+        <v>VAT Phí xử lý bộ chứng từ</v>
       </c>
       <c r="E20" s="188" t="str">
         <f ca="1">IF(ROWS($2:5)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:5)),))</f>
-        <v>5112X</v>
+        <v>1331</v>
       </c>
       <c r="F20" s="188">
         <f ca="1">IF(ROWS($2:5)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:5)),))</f>
-        <v>21458</v>
+        <v>21835</v>
       </c>
       <c r="G20" s="188"/>
       <c r="H20" s="196">
         <f ca="1">IF(ROWS($2:5)&gt;COUNT(Dong1),"",OFFSET('131-TH'!H$1,SMALL(Dong1,ROWS($2:5)),))</f>
-        <v>103800</v>
+        <v>0</v>
       </c>
       <c r="I20" s="188">
         <f ca="1">IF(ROWS($2:5)&gt;COUNT(Dong1),"",OFFSET('131-TH'!I$1,SMALL(Dong1,ROWS($2:5)),))</f>
-        <v>2227340400</v>
+        <v>0</v>
       </c>
       <c r="J20" s="196">
         <f ca="1">IF(ROWS($2:5)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:5)),))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="188">
         <f ca="1">IF(ROWS($2:5)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:5)),))</f>
-        <v>0</v>
+        <v>21835</v>
       </c>
       <c r="L20" s="189">
         <f t="shared" ca="1" si="6"/>
-        <v>80265.67</v>
+        <v>5310.38</v>
       </c>
       <c r="M20" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>1716526549</v>
+        <v>108176147</v>
       </c>
       <c r="N20" s="189">
         <f t="shared" ca="1" si="8"/>
@@ -14771,52 +15138,52 @@
     <row r="21" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A21" s="68">
         <f t="shared" ca="1" si="5"/>
-        <v>42062</v>
+        <v>42177</v>
       </c>
       <c r="B21" s="69" t="str">
         <f ca="1">IF(ROWS($2:6)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:6)),))</f>
-        <v>X02/TP</v>
+        <v>CTGS</v>
       </c>
       <c r="C21" s="68">
         <f ca="1">IF(ROWS($2:6)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:6)),))</f>
-        <v>42062</v>
+        <v>42177</v>
       </c>
       <c r="D21" s="195" t="str">
         <f ca="1">IF(ROWS($2:6)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:6)),))</f>
-        <v>Markov - Cá cơm (10kg/bó) - TK 300305907000 - UTXK</v>
+        <v>Phí DHL</v>
       </c>
       <c r="E21" s="188" t="str">
         <f ca="1">IF(ROWS($2:6)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:6)),))</f>
-        <v>5112X</v>
+        <v>642</v>
       </c>
       <c r="F21" s="188">
         <f ca="1">IF(ROWS($2:6)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:6)),))</f>
-        <v>21458</v>
+        <v>21835</v>
       </c>
       <c r="G21" s="188"/>
       <c r="H21" s="196">
         <f ca="1">IF(ROWS($2:6)&gt;COUNT(Dong1),"",OFFSET('131-TH'!H$1,SMALL(Dong1,ROWS($2:6)),))</f>
-        <v>36900</v>
+        <v>0</v>
       </c>
       <c r="I21" s="188">
         <f ca="1">IF(ROWS($2:6)&gt;COUNT(Dong1),"",OFFSET('131-TH'!I$1,SMALL(Dong1,ROWS($2:6)),))</f>
-        <v>791800200</v>
+        <v>0</v>
       </c>
       <c r="J21" s="196">
         <f ca="1">IF(ROWS($2:6)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:6)),))</f>
-        <v>0</v>
+        <v>27.62</v>
       </c>
       <c r="K21" s="188">
         <f ca="1">IF(ROWS($2:6)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:6)),))</f>
-        <v>0</v>
+        <v>603083</v>
       </c>
       <c r="L21" s="189">
         <f t="shared" ca="1" si="6"/>
-        <v>117165.67</v>
+        <v>5282.76</v>
       </c>
       <c r="M21" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>2508326749</v>
+        <v>107573064</v>
       </c>
       <c r="N21" s="189">
         <f t="shared" ca="1" si="8"/>
@@ -14830,27 +15197,27 @@
     <row r="22" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A22" s="68">
         <f t="shared" ca="1" si="5"/>
-        <v>42062</v>
+        <v>42177</v>
       </c>
       <c r="B22" s="69" t="str">
         <f ca="1">IF(ROWS($2:7)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:7)),))</f>
-        <v>GBC</v>
+        <v>CTGS</v>
       </c>
       <c r="C22" s="68">
         <f ca="1">IF(ROWS($2:7)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:7)),))</f>
-        <v>42062</v>
+        <v>42177</v>
       </c>
       <c r="D22" s="195" t="str">
         <f ca="1">IF(ROWS($2:7)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:7)),))</f>
-        <v>Markov - Thu tiền hàng</v>
+        <v>VAT Phí DHL</v>
       </c>
       <c r="E22" s="188" t="str">
         <f ca="1">IF(ROWS($2:7)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:7)),))</f>
-        <v>1122</v>
+        <v>1331</v>
       </c>
       <c r="F22" s="188">
         <f ca="1">IF(ROWS($2:7)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:7)),))</f>
-        <v>21330</v>
+        <v>21835</v>
       </c>
       <c r="G22" s="188"/>
       <c r="H22" s="196">
@@ -14863,19 +15230,19 @@
       </c>
       <c r="J22" s="196">
         <f ca="1">IF(ROWS($2:7)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:7)),))</f>
-        <v>70045.08</v>
+        <v>2.76</v>
       </c>
       <c r="K22" s="188">
         <f ca="1">IF(ROWS($2:7)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:7)),))</f>
-        <v>1494061556</v>
+        <v>60265</v>
       </c>
       <c r="L22" s="189">
         <f t="shared" ca="1" si="6"/>
-        <v>47120.59</v>
+        <v>5280</v>
       </c>
       <c r="M22" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>1014265193</v>
+        <v>107512799</v>
       </c>
       <c r="N22" s="189">
         <f t="shared" ca="1" si="8"/>
@@ -14889,27 +15256,27 @@
     <row r="23" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A23" s="68">
         <f t="shared" ca="1" si="5"/>
-        <v>42062</v>
+        <v>42185</v>
       </c>
       <c r="B23" s="69" t="str">
         <f ca="1">IF(ROWS($2:8)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:8)),))</f>
-        <v>CTGS</v>
+        <v>GBC</v>
       </c>
       <c r="C23" s="68">
         <f ca="1">IF(ROWS($2:8)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:8)),))</f>
-        <v>42062</v>
+        <v>42185</v>
       </c>
       <c r="D23" s="195" t="str">
         <f ca="1">IF(ROWS($2:8)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:8)),))</f>
-        <v>Phí thanh toán nước ngoài</v>
+        <v>Thu tiền hàng - O.Cheon</v>
       </c>
       <c r="E23" s="188" t="str">
         <f ca="1">IF(ROWS($2:8)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:8)),))</f>
-        <v>642</v>
+        <v>1122</v>
       </c>
       <c r="F23" s="188">
         <f ca="1">IF(ROWS($2:8)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:8)),))</f>
-        <v>21330</v>
+        <v>21785</v>
       </c>
       <c r="G23" s="188"/>
       <c r="H23" s="196">
@@ -14922,19 +15289,19 @@
       </c>
       <c r="J23" s="196">
         <f ca="1">IF(ROWS($2:8)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:8)),))</f>
-        <v>30.84</v>
+        <v>4862.17</v>
       </c>
       <c r="K23" s="188">
         <f ca="1">IF(ROWS($2:8)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:8)),))</f>
-        <v>657817</v>
+        <v>105922373</v>
       </c>
       <c r="L23" s="189">
         <f t="shared" ca="1" si="6"/>
-        <v>47089.75</v>
+        <v>417.83</v>
       </c>
       <c r="M23" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>1013607376</v>
+        <v>1590426</v>
       </c>
       <c r="N23" s="189">
         <f t="shared" ca="1" si="8"/>
@@ -14948,7 +15315,7 @@
     <row r="24" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A24" s="68">
         <f t="shared" ref="A24:A27" ca="1" si="10">IF(C24&lt;&gt;"",C24,"")</f>
-        <v>42062</v>
+        <v>42185</v>
       </c>
       <c r="B24" s="69" t="str">
         <f ca="1">IF(ROWS($2:9)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:9)),))</f>
@@ -14956,19 +15323,19 @@
       </c>
       <c r="C24" s="68">
         <f ca="1">IF(ROWS($2:9)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:9)),))</f>
-        <v>42062</v>
+        <v>42185</v>
       </c>
       <c r="D24" s="195" t="str">
         <f ca="1">IF(ROWS($2:9)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:9)),))</f>
-        <v>VAT Phí thanh toán nước ngoài</v>
+        <v>Phí thanh toán bộ chứng từ</v>
       </c>
       <c r="E24" s="188" t="str">
         <f ca="1">IF(ROWS($2:9)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:9)),))</f>
-        <v>1331</v>
+        <v>642</v>
       </c>
       <c r="F24" s="188">
         <f ca="1">IF(ROWS($2:9)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:9)),))</f>
-        <v>21330</v>
+        <v>21785</v>
       </c>
       <c r="G24" s="188"/>
       <c r="H24" s="196">
@@ -14981,19 +15348,19 @@
       </c>
       <c r="J24" s="196">
         <f ca="1">IF(ROWS($2:9)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:9)),))</f>
-        <v>3.08</v>
+        <v>147.6</v>
       </c>
       <c r="K24" s="188">
         <f ca="1">IF(ROWS($2:9)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:9)),))</f>
-        <v>65696</v>
+        <v>3215466</v>
       </c>
       <c r="L24" s="189">
         <f t="shared" ref="L24:L27" ca="1" si="11">IF(D24&lt;&gt;"",ROUND(MAX(L23+H24-J24-N23,0),2),0)</f>
-        <v>47086.67</v>
+        <v>270.23</v>
       </c>
       <c r="M24" s="71">
         <f t="shared" ref="M24:M27" ca="1" si="12">IF(D24&lt;&gt;"",MAX(M23-O23+I24-K24,0),0)</f>
-        <v>1013541680</v>
+        <v>0</v>
       </c>
       <c r="N24" s="189">
         <f t="shared" ref="N24:N27" ca="1" si="13">IF(D24&lt;&gt;"",ROUND(MAX(N23+J24-H24-L23,0),2),0)</f>
@@ -15001,13 +15368,13 @@
       </c>
       <c r="O24" s="71">
         <f t="shared" ref="O24:O27" ca="1" si="14">IF(D24&lt;&gt;"",MAX(O23-M23+K24-I24,0),0)</f>
-        <v>0</v>
+        <v>1625040</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A25" s="68">
         <f t="shared" ca="1" si="10"/>
-        <v>42062</v>
+        <v>42185</v>
       </c>
       <c r="B25" s="69" t="str">
         <f ca="1">IF(ROWS($2:10)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:10)),))</f>
@@ -15015,19 +15382,19 @@
       </c>
       <c r="C25" s="68">
         <f ca="1">IF(ROWS($2:10)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:10)),))</f>
-        <v>42062</v>
+        <v>42185</v>
       </c>
       <c r="D25" s="195" t="str">
         <f ca="1">IF(ROWS($2:10)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:10)),))</f>
-        <v>Phí NH NNg giảm trừ</v>
+        <v>VAT Phí thanh toán bộ chứng từ</v>
       </c>
       <c r="E25" s="188" t="str">
         <f ca="1">IF(ROWS($2:10)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:10)),))</f>
-        <v>642</v>
+        <v>1331</v>
       </c>
       <c r="F25" s="188">
         <f ca="1">IF(ROWS($2:10)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:10)),))</f>
-        <v>21330</v>
+        <v>21785</v>
       </c>
       <c r="G25" s="188"/>
       <c r="H25" s="196">
@@ -15040,19 +15407,19 @@
       </c>
       <c r="J25" s="196">
         <f ca="1">IF(ROWS($2:10)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:10)),))</f>
-        <v>3</v>
+        <v>14.76</v>
       </c>
       <c r="K25" s="188">
         <f ca="1">IF(ROWS($2:10)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:10)),))</f>
-        <v>63990</v>
+        <v>321547</v>
       </c>
       <c r="L25" s="189">
         <f t="shared" ca="1" si="11"/>
-        <v>47083.67</v>
+        <v>255.47</v>
       </c>
       <c r="M25" s="71">
         <f t="shared" ca="1" si="12"/>
-        <v>1013477690</v>
+        <v>0</v>
       </c>
       <c r="N25" s="189">
         <f t="shared" ca="1" si="13"/>
@@ -15060,13 +15427,13 @@
       </c>
       <c r="O25" s="71">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>1946587</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A26" s="68">
         <f t="shared" ca="1" si="10"/>
-        <v>42062</v>
+        <v>42185</v>
       </c>
       <c r="B26" s="69" t="str">
         <f ca="1">IF(ROWS($2:11)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:11)),))</f>
@@ -15074,19 +15441,19 @@
       </c>
       <c r="C26" s="68">
         <f ca="1">IF(ROWS($2:11)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:11)),))</f>
-        <v>42062</v>
+        <v>42185</v>
       </c>
       <c r="D26" s="195" t="str">
         <f ca="1">IF(ROWS($2:11)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:11)),))</f>
-        <v>Phí NH NNg giảm trừ</v>
+        <v>Lãi suất chiết khấu - O.Cheon</v>
       </c>
       <c r="E26" s="188" t="str">
         <f ca="1">IF(ROWS($2:11)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:11)),))</f>
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="F26" s="188">
         <f ca="1">IF(ROWS($2:11)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:11)),))</f>
-        <v>21330</v>
+        <v>21785</v>
       </c>
       <c r="G26" s="188"/>
       <c r="H26" s="196">
@@ -15099,19 +15466,19 @@
       </c>
       <c r="J26" s="196">
         <f ca="1">IF(ROWS($2:11)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:11)),))</f>
-        <v>10</v>
+        <v>87.47</v>
       </c>
       <c r="K26" s="188">
         <f ca="1">IF(ROWS($2:11)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:11)),))</f>
-        <v>213300</v>
+        <v>1905534</v>
       </c>
       <c r="L26" s="189">
         <f t="shared" ca="1" si="11"/>
-        <v>47073.67</v>
+        <v>168</v>
       </c>
       <c r="M26" s="71">
         <f t="shared" ca="1" si="12"/>
-        <v>1013264390</v>
+        <v>0</v>
       </c>
       <c r="N26" s="189">
         <f t="shared" ca="1" si="13"/>
@@ -15119,33 +15486,33 @@
       </c>
       <c r="O26" s="71">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>3852121</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A27" s="68">
         <f t="shared" ca="1" si="10"/>
-        <v>42062</v>
+        <v>42185</v>
       </c>
       <c r="B27" s="69" t="str">
         <f ca="1">IF(ROWS($2:12)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:12)),))</f>
-        <v>GBC</v>
+        <v>CTGS</v>
       </c>
       <c r="C27" s="68">
         <f ca="1">IF(ROWS($2:12)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:12)),))</f>
-        <v>42062</v>
+        <v>42185</v>
       </c>
       <c r="D27" s="195" t="str">
         <f ca="1">IF(ROWS($2:12)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:12)),))</f>
-        <v>Markov - Thu tiền hàng</v>
+        <v>NH nước ngoài trừ phí</v>
       </c>
       <c r="E27" s="188" t="str">
         <f ca="1">IF(ROWS($2:12)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:12)),))</f>
-        <v>1122</v>
+        <v>642</v>
       </c>
       <c r="F27" s="188">
         <f ca="1">IF(ROWS($2:12)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:12)),))</f>
-        <v>21330</v>
+        <v>21785</v>
       </c>
       <c r="G27" s="188"/>
       <c r="H27" s="196">
@@ -15158,19 +15525,19 @@
       </c>
       <c r="J27" s="196">
         <f ca="1">IF(ROWS($2:12)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:12)),))</f>
-        <v>31088.799999999999</v>
+        <v>168</v>
       </c>
       <c r="K27" s="188">
         <f ca="1">IF(ROWS($2:12)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:12)),))</f>
-        <v>663124104</v>
+        <v>3659880</v>
       </c>
       <c r="L27" s="189">
         <f t="shared" ca="1" si="11"/>
-        <v>15984.87</v>
+        <v>0</v>
       </c>
       <c r="M27" s="71">
         <f t="shared" ca="1" si="12"/>
-        <v>350140286</v>
+        <v>0</v>
       </c>
       <c r="N27" s="189">
         <f t="shared" ca="1" si="13"/>
@@ -15178,42 +15545,42 @@
       </c>
       <c r="O27" s="71">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>7512001</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A28" s="68">
         <f t="shared" ca="1" si="5"/>
-        <v>42064</v>
+        <v>42185</v>
       </c>
       <c r="B28" s="69" t="str">
         <f ca="1">IF(ROWS($2:13)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:13)),))</f>
-        <v>X01/TP</v>
+        <v>CTGS</v>
       </c>
       <c r="C28" s="68">
         <f ca="1">IF(ROWS($2:13)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:13)),))</f>
-        <v>42064</v>
+        <v>42185</v>
       </c>
       <c r="D28" s="195" t="str">
         <f ca="1">IF(ROWS($2:13)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:13)),))</f>
-        <v>Markov - Cá chỉ vàng (12kg/bó) - TK 300307715800</v>
+        <v>Chênh lệch tỷ giá</v>
       </c>
       <c r="E28" s="188" t="str">
         <f ca="1">IF(ROWS($2:13)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:13)),))</f>
-        <v>5112X</v>
+        <v>515</v>
       </c>
       <c r="F28" s="188">
         <f ca="1">IF(ROWS($2:13)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:13)),))</f>
-        <v>21458</v>
+        <v>0</v>
       </c>
       <c r="G28" s="188"/>
       <c r="H28" s="196">
         <f ca="1">IF(ROWS($2:13)&gt;COUNT(Dong1),"",OFFSET('131-TH'!H$1,SMALL(Dong1,ROWS($2:13)),))</f>
-        <v>22200</v>
+        <v>0</v>
       </c>
       <c r="I28" s="188">
         <f ca="1">IF(ROWS($2:13)&gt;COUNT(Dong1),"",OFFSET('131-TH'!I$1,SMALL(Dong1,ROWS($2:13)),))</f>
-        <v>476367600</v>
+        <v>7512001</v>
       </c>
       <c r="J28" s="196">
         <f ca="1">IF(ROWS($2:13)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:13)),))</f>
@@ -15225,11 +15592,11 @@
       </c>
       <c r="L28" s="189">
         <f t="shared" ca="1" si="6"/>
-        <v>38184.870000000003</v>
+        <v>0</v>
       </c>
       <c r="M28" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>826507886</v>
+        <v>0</v>
       </c>
       <c r="N28" s="189">
         <f t="shared" ca="1" si="8"/>
@@ -15243,7 +15610,7 @@
     <row r="29" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A29" s="68">
         <f t="shared" ca="1" si="5"/>
-        <v>42064</v>
+        <v>42231</v>
       </c>
       <c r="B29" s="69" t="str">
         <f ca="1">IF(ROWS($2:14)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:14)),))</f>
@@ -15251,11 +15618,11 @@
       </c>
       <c r="C29" s="68">
         <f ca="1">IF(ROWS($2:14)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:14)),))</f>
-        <v>42064</v>
+        <v>42231</v>
       </c>
       <c r="D29" s="195" t="str">
         <f ca="1">IF(ROWS($2:14)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:14)),))</f>
-        <v>Markov - Cá chỉ vàng (10.8kg/bó) - TK 300307715800</v>
+        <v>Ghẹ khô lạt</v>
       </c>
       <c r="E29" s="188" t="str">
         <f ca="1">IF(ROWS($2:14)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:14)),))</f>
@@ -15263,16 +15630,16 @@
       </c>
       <c r="F29" s="188">
         <f ca="1">IF(ROWS($2:14)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:14)),))</f>
-        <v>21458</v>
+        <v>21780</v>
       </c>
       <c r="G29" s="188"/>
       <c r="H29" s="196">
         <f ca="1">IF(ROWS($2:14)&gt;COUNT(Dong1),"",OFFSET('131-TH'!H$1,SMALL(Dong1,ROWS($2:14)),))</f>
-        <v>28868.400000000001</v>
+        <v>103560</v>
       </c>
       <c r="I29" s="188">
         <f ca="1">IF(ROWS($2:14)&gt;COUNT(Dong1),"",OFFSET('131-TH'!I$1,SMALL(Dong1,ROWS($2:14)),))</f>
-        <v>619458127</v>
+        <v>2255536800</v>
       </c>
       <c r="J29" s="196">
         <f ca="1">IF(ROWS($2:14)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:14)),))</f>
@@ -15284,11 +15651,11 @@
       </c>
       <c r="L29" s="189">
         <f t="shared" ca="1" si="6"/>
-        <v>67053.27</v>
+        <v>103560</v>
       </c>
       <c r="M29" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>1445966013</v>
+        <v>2255536800</v>
       </c>
       <c r="N29" s="189">
         <f t="shared" ca="1" si="8"/>
@@ -15302,52 +15669,52 @@
     <row r="30" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A30" s="68">
         <f t="shared" ca="1" si="5"/>
-        <v>42064</v>
+        <v>42233</v>
       </c>
       <c r="B30" s="69" t="str">
         <f ca="1">IF(ROWS($2:15)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:15)),))</f>
-        <v>X01/TP</v>
+        <v>GBC</v>
       </c>
       <c r="C30" s="68">
         <f ca="1">IF(ROWS($2:15)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:15)),))</f>
-        <v>42064</v>
+        <v>42233</v>
       </c>
       <c r="D30" s="195" t="str">
         <f ca="1">IF(ROWS($2:15)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:15)),))</f>
-        <v>Markov - Cá chỉ vàng (10kg/bó) - TK 300307715800</v>
+        <v>Thu tiền hàng - O.Cheon</v>
       </c>
       <c r="E30" s="188" t="str">
         <f ca="1">IF(ROWS($2:15)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:15)),))</f>
-        <v>5112X</v>
+        <v>1122</v>
       </c>
       <c r="F30" s="188">
         <f ca="1">IF(ROWS($2:15)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:15)),))</f>
-        <v>21458</v>
+        <v>22106</v>
       </c>
       <c r="G30" s="188"/>
       <c r="H30" s="196">
         <f ca="1">IF(ROWS($2:15)&gt;COUNT(Dong1),"",OFFSET('131-TH'!H$1,SMALL(Dong1,ROWS($2:15)),))</f>
-        <v>25950</v>
+        <v>0</v>
       </c>
       <c r="I30" s="188">
         <f ca="1">IF(ROWS($2:15)&gt;COUNT(Dong1),"",OFFSET('131-TH'!I$1,SMALL(Dong1,ROWS($2:15)),))</f>
-        <v>556835100</v>
+        <v>0</v>
       </c>
       <c r="J30" s="196">
         <f ca="1">IF(ROWS($2:15)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:15)),))</f>
-        <v>0</v>
+        <v>98308.24</v>
       </c>
       <c r="K30" s="188">
         <f ca="1">IF(ROWS($2:15)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:15)),))</f>
-        <v>0</v>
+        <v>2173201953</v>
       </c>
       <c r="L30" s="189">
         <f t="shared" ca="1" si="6"/>
-        <v>93003.27</v>
+        <v>5251.76</v>
       </c>
       <c r="M30" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>2002801113</v>
+        <v>82334847</v>
       </c>
       <c r="N30" s="189">
         <f t="shared" ca="1" si="8"/>
@@ -15361,52 +15728,52 @@
     <row r="31" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A31" s="68">
         <f t="shared" ca="1" si="5"/>
-        <v>42064</v>
+        <v>42233</v>
       </c>
       <c r="B31" s="69" t="str">
         <f ca="1">IF(ROWS($2:16)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:16)),))</f>
-        <v>X01/TP</v>
+        <v>CTGS</v>
       </c>
       <c r="C31" s="68">
         <f ca="1">IF(ROWS($2:16)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:16)),))</f>
-        <v>42064</v>
+        <v>42233</v>
       </c>
       <c r="D31" s="195" t="str">
         <f ca="1">IF(ROWS($2:16)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:16)),))</f>
-        <v>Markov - Cá cơm (9kg/bó) - TK 300307715800</v>
+        <v>Phí xử lý bộ chứng từ</v>
       </c>
       <c r="E31" s="188" t="str">
         <f ca="1">IF(ROWS($2:16)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:16)),))</f>
-        <v>5112X</v>
+        <v>642</v>
       </c>
       <c r="F31" s="188">
         <f ca="1">IF(ROWS($2:16)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:16)),))</f>
-        <v>21458</v>
+        <v>22106</v>
       </c>
       <c r="G31" s="188"/>
       <c r="H31" s="196">
         <f ca="1">IF(ROWS($2:16)&gt;COUNT(Dong1),"",OFFSET('131-TH'!H$1,SMALL(Dong1,ROWS($2:16)),))</f>
-        <v>29565</v>
+        <v>0</v>
       </c>
       <c r="I31" s="188">
         <f ca="1">IF(ROWS($2:16)&gt;COUNT(Dong1),"",OFFSET('131-TH'!I$1,SMALL(Dong1,ROWS($2:16)),))</f>
-        <v>634405770</v>
+        <v>0</v>
       </c>
       <c r="J31" s="196">
         <f ca="1">IF(ROWS($2:16)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:16)),))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K31" s="188">
         <f ca="1">IF(ROWS($2:16)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:16)),))</f>
-        <v>0</v>
+        <v>221060</v>
       </c>
       <c r="L31" s="189">
         <f t="shared" ca="1" si="6"/>
-        <v>122568.27</v>
+        <v>5241.76</v>
       </c>
       <c r="M31" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>2637206883</v>
+        <v>82113787</v>
       </c>
       <c r="N31" s="189">
         <f t="shared" ca="1" si="8"/>
@@ -15420,27 +15787,27 @@
     <row r="32" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A32" s="68">
         <f t="shared" ca="1" si="5"/>
-        <v>42066</v>
+        <v>42233</v>
       </c>
       <c r="B32" s="69" t="str">
         <f ca="1">IF(ROWS($2:17)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:17)),))</f>
-        <v>GBC</v>
+        <v>CTGS</v>
       </c>
       <c r="C32" s="68">
         <f ca="1">IF(ROWS($2:17)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:17)),))</f>
-        <v>42066</v>
+        <v>42233</v>
       </c>
       <c r="D32" s="195" t="str">
         <f ca="1">IF(ROWS($2:17)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:17)),))</f>
-        <v>Markov - Thu tiền hàng</v>
+        <v>VAT Phí xử lý bộ chứng từ</v>
       </c>
       <c r="E32" s="188" t="str">
         <f ca="1">IF(ROWS($2:17)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:17)),))</f>
-        <v>1122</v>
+        <v>1331</v>
       </c>
       <c r="F32" s="188">
         <f ca="1">IF(ROWS($2:17)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:17)),))</f>
-        <v>21330</v>
+        <v>22106</v>
       </c>
       <c r="G32" s="188"/>
       <c r="H32" s="196">
@@ -15453,19 +15820,19 @@
       </c>
       <c r="J32" s="196">
         <f ca="1">IF(ROWS($2:17)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:17)),))</f>
-        <v>42181.32</v>
+        <v>1</v>
       </c>
       <c r="K32" s="188">
         <f ca="1">IF(ROWS($2:17)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:17)),))</f>
-        <v>899727556</v>
+        <v>22106</v>
       </c>
       <c r="L32" s="189">
         <f t="shared" ca="1" si="6"/>
-        <v>80386.95</v>
+        <v>5240.76</v>
       </c>
       <c r="M32" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>1737479327</v>
+        <v>82091681</v>
       </c>
       <c r="N32" s="189">
         <f t="shared" ca="1" si="8"/>
@@ -15479,7 +15846,7 @@
     <row r="33" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A33" s="68">
         <f t="shared" ca="1" si="5"/>
-        <v>42066</v>
+        <v>42233</v>
       </c>
       <c r="B33" s="69" t="str">
         <f ca="1">IF(ROWS($2:18)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:18)),))</f>
@@ -15487,11 +15854,11 @@
       </c>
       <c r="C33" s="68">
         <f ca="1">IF(ROWS($2:18)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:18)),))</f>
-        <v>42066</v>
+        <v>42233</v>
       </c>
       <c r="D33" s="195" t="str">
         <f ca="1">IF(ROWS($2:18)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:18)),))</f>
-        <v>Phí thanh toán nước ngoài</v>
+        <v>Phí DHL</v>
       </c>
       <c r="E33" s="188" t="str">
         <f ca="1">IF(ROWS($2:18)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:18)),))</f>
@@ -15499,7 +15866,7 @@
       </c>
       <c r="F33" s="188">
         <f ca="1">IF(ROWS($2:18)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:18)),))</f>
-        <v>21330</v>
+        <v>22106</v>
       </c>
       <c r="G33" s="188"/>
       <c r="H33" s="196">
@@ -15512,19 +15879,19 @@
       </c>
       <c r="J33" s="196">
         <f ca="1">IF(ROWS($2:18)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:18)),))</f>
-        <v>18.57</v>
+        <v>55.24</v>
       </c>
       <c r="K33" s="188">
         <f ca="1">IF(ROWS($2:18)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:18)),))</f>
-        <v>396098</v>
+        <v>1221135</v>
       </c>
       <c r="L33" s="189">
         <f t="shared" ca="1" si="6"/>
-        <v>80368.38</v>
+        <v>5185.5200000000004</v>
       </c>
       <c r="M33" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>1737083229</v>
+        <v>80870546</v>
       </c>
       <c r="N33" s="189">
         <f t="shared" ca="1" si="8"/>
@@ -15538,7 +15905,7 @@
     <row r="34" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A34" s="68">
         <f t="shared" ca="1" si="5"/>
-        <v>42066</v>
+        <v>42233</v>
       </c>
       <c r="B34" s="69" t="str">
         <f ca="1">IF(ROWS($2:19)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:19)),))</f>
@@ -15546,11 +15913,11 @@
       </c>
       <c r="C34" s="68">
         <f ca="1">IF(ROWS($2:19)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:19)),))</f>
-        <v>42066</v>
+        <v>42233</v>
       </c>
       <c r="D34" s="195" t="str">
         <f ca="1">IF(ROWS($2:19)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:19)),))</f>
-        <v>VAT Phí thanh toán nước ngoài</v>
+        <v>VAT Phí DHL</v>
       </c>
       <c r="E34" s="188" t="str">
         <f ca="1">IF(ROWS($2:19)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:19)),))</f>
@@ -15558,7 +15925,7 @@
       </c>
       <c r="F34" s="188">
         <f ca="1">IF(ROWS($2:19)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:19)),))</f>
-        <v>21330</v>
+        <v>22106</v>
       </c>
       <c r="G34" s="188"/>
       <c r="H34" s="196">
@@ -15571,19 +15938,19 @@
       </c>
       <c r="J34" s="196">
         <f ca="1">IF(ROWS($2:19)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:19)),))</f>
-        <v>1.86</v>
+        <v>5.52</v>
       </c>
       <c r="K34" s="188">
         <f ca="1">IF(ROWS($2:19)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:19)),))</f>
-        <v>39674</v>
+        <v>122025</v>
       </c>
       <c r="L34" s="189">
         <f t="shared" ca="1" si="6"/>
-        <v>80366.52</v>
+        <v>5180</v>
       </c>
       <c r="M34" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>1737043555</v>
+        <v>80748521</v>
       </c>
       <c r="N34" s="189">
         <f t="shared" ca="1" si="8"/>
@@ -15597,7 +15964,7 @@
     <row r="35" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A35" s="68">
         <f t="shared" ca="1" si="5"/>
-        <v>42067</v>
+        <v>42242</v>
       </c>
       <c r="B35" s="69" t="str">
         <f ca="1">IF(ROWS($2:20)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:20)),))</f>
@@ -15605,11 +15972,11 @@
       </c>
       <c r="C35" s="68">
         <f ca="1">IF(ROWS($2:20)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:20)),))</f>
-        <v>42067</v>
+        <v>42242</v>
       </c>
       <c r="D35" s="195" t="str">
         <f ca="1">IF(ROWS($2:20)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:20)),))</f>
-        <v>Markov - Thu tiền hàng</v>
+        <v>Thu tiền hàng - O.Cheon</v>
       </c>
       <c r="E35" s="188" t="str">
         <f ca="1">IF(ROWS($2:20)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:20)),))</f>
@@ -15617,7 +15984,7 @@
       </c>
       <c r="F35" s="188">
         <f ca="1">IF(ROWS($2:20)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:20)),))</f>
-        <v>21330</v>
+        <v>22520</v>
       </c>
       <c r="G35" s="188"/>
       <c r="H35" s="196">
@@ -15630,19 +15997,19 @@
       </c>
       <c r="J35" s="196">
         <f ca="1">IF(ROWS($2:20)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:20)),))</f>
-        <v>47357.8</v>
+        <v>4672.29</v>
       </c>
       <c r="K35" s="188">
         <f ca="1">IF(ROWS($2:20)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:20)),))</f>
-        <v>1010141874</v>
+        <v>105219971</v>
       </c>
       <c r="L35" s="189">
         <f t="shared" ca="1" si="6"/>
-        <v>33008.720000000001</v>
+        <v>507.71</v>
       </c>
       <c r="M35" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>726901681</v>
+        <v>0</v>
       </c>
       <c r="N35" s="189">
         <f t="shared" ca="1" si="8"/>
@@ -15650,33 +16017,33 @@
       </c>
       <c r="O35" s="71">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>24471450</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A36" s="68">
         <f t="shared" ca="1" si="5"/>
-        <v>42067</v>
+        <v>42242</v>
       </c>
       <c r="B36" s="69" t="str">
         <f ca="1">IF(ROWS($2:21)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:21)),))</f>
-        <v>GBC</v>
+        <v>CTGS</v>
       </c>
       <c r="C36" s="68">
         <f ca="1">IF(ROWS($2:21)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:21)),))</f>
-        <v>42067</v>
+        <v>42242</v>
       </c>
       <c r="D36" s="195" t="str">
         <f ca="1">IF(ROWS($2:21)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:21)),))</f>
-        <v>Markov - Thu tiền hàng</v>
+        <v>Lãi suất chiết khấu</v>
       </c>
       <c r="E36" s="188" t="str">
         <f ca="1">IF(ROWS($2:21)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:21)),))</f>
-        <v>1122</v>
+        <v>635</v>
       </c>
       <c r="F36" s="188">
         <f ca="1">IF(ROWS($2:21)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:21)),))</f>
-        <v>21330</v>
+        <v>22520</v>
       </c>
       <c r="G36" s="188"/>
       <c r="H36" s="196">
@@ -15689,19 +16056,19 @@
       </c>
       <c r="J36" s="196">
         <f ca="1">IF(ROWS($2:21)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:21)),))</f>
-        <v>21692.95</v>
+        <v>98.38</v>
       </c>
       <c r="K36" s="188">
         <f ca="1">IF(ROWS($2:21)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:21)),))</f>
-        <v>462710624</v>
+        <v>2215518</v>
       </c>
       <c r="L36" s="189">
         <f t="shared" ca="1" si="6"/>
-        <v>11315.77</v>
+        <v>409.33</v>
       </c>
       <c r="M36" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>264191057</v>
+        <v>0</v>
       </c>
       <c r="N36" s="189">
         <f t="shared" ca="1" si="8"/>
@@ -15709,33 +16076,33 @@
       </c>
       <c r="O36" s="71">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>26686968</v>
       </c>
     </row>
     <row r="37" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A37" s="68">
         <f t="shared" ca="1" si="5"/>
-        <v>42088</v>
+        <v>42242</v>
       </c>
       <c r="B37" s="69" t="str">
         <f ca="1">IF(ROWS($2:22)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:22)),))</f>
-        <v>GBC</v>
+        <v>CTGS</v>
       </c>
       <c r="C37" s="68">
         <f ca="1">IF(ROWS($2:22)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:22)),))</f>
-        <v>42088</v>
+        <v>42242</v>
       </c>
       <c r="D37" s="195" t="str">
         <f ca="1">IF(ROWS($2:22)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:22)),))</f>
-        <v>Markov - Thu tiền hàng</v>
+        <v>Phí thanh tóan bộ chứng từ</v>
       </c>
       <c r="E37" s="188" t="str">
         <f ca="1">IF(ROWS($2:22)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:22)),))</f>
-        <v>1122</v>
+        <v>642</v>
       </c>
       <c r="F37" s="188">
         <f ca="1">IF(ROWS($2:22)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:22)),))</f>
-        <v>21500</v>
+        <v>22520</v>
       </c>
       <c r="G37" s="188"/>
       <c r="H37" s="196">
@@ -15748,19 +16115,19 @@
       </c>
       <c r="J37" s="196">
         <f ca="1">IF(ROWS($2:22)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:22)),))</f>
-        <v>11315.77</v>
+        <v>147.57</v>
       </c>
       <c r="K37" s="188">
         <f ca="1">IF(ROWS($2:22)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:22)),))</f>
-        <v>243289055</v>
+        <v>3323276</v>
       </c>
       <c r="L37" s="189">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>261.76</v>
       </c>
       <c r="M37" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>20902002</v>
+        <v>0</v>
       </c>
       <c r="N37" s="189">
         <f t="shared" ca="1" si="8"/>
@@ -15768,13 +16135,13 @@
       </c>
       <c r="O37" s="71">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>30010244</v>
       </c>
     </row>
     <row r="38" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A38" s="68">
         <f t="shared" ca="1" si="5"/>
-        <v>42088</v>
+        <v>42242</v>
       </c>
       <c r="B38" s="69" t="str">
         <f ca="1">IF(ROWS($2:23)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:23)),))</f>
@@ -15782,19 +16149,19 @@
       </c>
       <c r="C38" s="68">
         <f ca="1">IF(ROWS($2:23)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:23)),))</f>
-        <v>42088</v>
+        <v>42242</v>
       </c>
       <c r="D38" s="195" t="str">
         <f ca="1">IF(ROWS($2:23)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:23)),))</f>
-        <v>Markov - Chênh lệch tỷ giá</v>
+        <v>VAT Phí thanh tóan bộ chứng từ</v>
       </c>
       <c r="E38" s="188" t="str">
         <f ca="1">IF(ROWS($2:23)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:23)),))</f>
-        <v>635</v>
+        <v>1331</v>
       </c>
       <c r="F38" s="188">
         <f ca="1">IF(ROWS($2:23)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:23)),))</f>
-        <v>0</v>
+        <v>22520</v>
       </c>
       <c r="G38" s="188"/>
       <c r="H38" s="196">
@@ -15807,15 +16174,15 @@
       </c>
       <c r="J38" s="196">
         <f ca="1">IF(ROWS($2:23)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:23)),))</f>
-        <v>0</v>
+        <v>14.76</v>
       </c>
       <c r="K38" s="188">
         <f ca="1">IF(ROWS($2:23)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:23)),))</f>
-        <v>20902002</v>
+        <v>332395</v>
       </c>
       <c r="L38" s="189">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="M38" s="71">
         <f t="shared" ca="1" si="7"/>
@@ -15827,33 +16194,33 @@
       </c>
       <c r="O38" s="71">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>30342639</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A39" s="68">
         <f t="shared" ca="1" si="5"/>
-        <v>42088</v>
+        <v>42242</v>
       </c>
       <c r="B39" s="69" t="str">
         <f ca="1">IF(ROWS($2:24)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:24)),))</f>
-        <v>GBC</v>
+        <v>CTGS</v>
       </c>
       <c r="C39" s="68">
         <f ca="1">IF(ROWS($2:24)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:24)),))</f>
-        <v>42088</v>
+        <v>42242</v>
       </c>
       <c r="D39" s="195" t="str">
         <f ca="1">IF(ROWS($2:24)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:24)),))</f>
-        <v>Markov - Thu tiền hàng</v>
+        <v>Phí NH nước ngoài giảm trừ</v>
       </c>
       <c r="E39" s="188" t="str">
         <f ca="1">IF(ROWS($2:24)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:24)),))</f>
-        <v>1122</v>
+        <v>642</v>
       </c>
       <c r="F39" s="188">
         <f ca="1">IF(ROWS($2:24)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:24)),))</f>
-        <v>21500</v>
+        <v>22520</v>
       </c>
       <c r="G39" s="188"/>
       <c r="H39" s="196">
@@ -15866,11 +16233,11 @@
       </c>
       <c r="J39" s="196">
         <f ca="1">IF(ROWS($2:24)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:24)),))</f>
-        <v>9603.5299999999988</v>
+        <v>247</v>
       </c>
       <c r="K39" s="188">
         <f ca="1">IF(ROWS($2:24)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:24)),))</f>
-        <v>206475895</v>
+        <v>5562440</v>
       </c>
       <c r="L39" s="189">
         <f t="shared" ca="1" si="6"/>
@@ -15882,46 +16249,46 @@
       </c>
       <c r="N39" s="189">
         <f t="shared" ca="1" si="8"/>
-        <v>9603.5300000000007</v>
+        <v>0</v>
       </c>
       <c r="O39" s="71">
         <f t="shared" ca="1" si="9"/>
-        <v>206475895</v>
+        <v>35905079</v>
       </c>
     </row>
     <row r="40" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A40" s="68">
         <f t="shared" ca="1" si="5"/>
-        <v>42085</v>
+        <v>42242</v>
       </c>
       <c r="B40" s="69" t="str">
         <f ca="1">IF(ROWS($2:25)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:25)),))</f>
-        <v>X03/TP</v>
+        <v>CTGS</v>
       </c>
       <c r="C40" s="68">
         <f ca="1">IF(ROWS($2:25)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:25)),))</f>
-        <v>42085</v>
+        <v>42242</v>
       </c>
       <c r="D40" s="195" t="str">
         <f ca="1">IF(ROWS($2:25)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:25)),))</f>
-        <v>Markov - Cá chỉ vàng (12kg/bó) - TK 300330755930</v>
+        <v>Chênh lệch tỷ giá</v>
       </c>
       <c r="E40" s="188" t="str">
         <f ca="1">IF(ROWS($2:25)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:25)),))</f>
-        <v>5112X</v>
+        <v>515</v>
       </c>
       <c r="F40" s="188">
         <f ca="1">IF(ROWS($2:25)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:25)),))</f>
-        <v>21340</v>
+        <v>22520</v>
       </c>
       <c r="G40" s="188"/>
       <c r="H40" s="196">
         <f ca="1">IF(ROWS($2:25)&gt;COUNT(Dong1),"",OFFSET('131-TH'!H$1,SMALL(Dong1,ROWS($2:25)),))</f>
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="I40" s="188">
         <f ca="1">IF(ROWS($2:25)&gt;COUNT(Dong1),"",OFFSET('131-TH'!I$1,SMALL(Dong1,ROWS($2:25)),))</f>
-        <v>384120000</v>
+        <v>35905079</v>
       </c>
       <c r="J40" s="196">
         <f ca="1">IF(ROWS($2:25)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:25)),))</f>
@@ -15933,11 +16300,11 @@
       </c>
       <c r="L40" s="189">
         <f t="shared" ca="1" si="6"/>
-        <v>8396.4699999999993</v>
+        <v>0</v>
       </c>
       <c r="M40" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>177644105</v>
+        <v>0</v>
       </c>
       <c r="N40" s="189">
         <f t="shared" ca="1" si="8"/>
@@ -15951,19 +16318,19 @@
     <row r="41" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A41" s="68">
         <f t="shared" ca="1" si="5"/>
-        <v>42085</v>
+        <v>42276</v>
       </c>
       <c r="B41" s="69" t="str">
         <f ca="1">IF(ROWS($2:26)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:26)),))</f>
-        <v>X03/TP</v>
+        <v>X02/TP</v>
       </c>
       <c r="C41" s="68">
         <f ca="1">IF(ROWS($2:26)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:26)),))</f>
-        <v>42085</v>
+        <v>42276</v>
       </c>
       <c r="D41" s="195" t="str">
         <f ca="1">IF(ROWS($2:26)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:26)),))</f>
-        <v>Markov - Cá chỉ vàng (10.8kg/bó) - TK 300330755930</v>
+        <v>Khô cá bò tẩm</v>
       </c>
       <c r="E41" s="188" t="str">
         <f ca="1">IF(ROWS($2:26)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:26)),))</f>
@@ -15971,16 +16338,16 @@
       </c>
       <c r="F41" s="188">
         <f ca="1">IF(ROWS($2:26)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:26)),))</f>
-        <v>21340</v>
+        <v>22455</v>
       </c>
       <c r="G41" s="188"/>
       <c r="H41" s="196">
         <f ca="1">IF(ROWS($2:26)&gt;COUNT(Dong1),"",OFFSET('131-TH'!H$1,SMALL(Dong1,ROWS($2:26)),))</f>
-        <v>21384</v>
+        <v>107125</v>
       </c>
       <c r="I41" s="188">
         <f ca="1">IF(ROWS($2:26)&gt;COUNT(Dong1),"",OFFSET('131-TH'!I$1,SMALL(Dong1,ROWS($2:26)),))</f>
-        <v>456334560</v>
+        <v>2405491875</v>
       </c>
       <c r="J41" s="196">
         <f ca="1">IF(ROWS($2:26)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:26)),))</f>
@@ -15992,11 +16359,11 @@
       </c>
       <c r="L41" s="189">
         <f t="shared" ca="1" si="6"/>
-        <v>29780.47</v>
+        <v>107125</v>
       </c>
       <c r="M41" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>633978665</v>
+        <v>2405491875</v>
       </c>
       <c r="N41" s="189">
         <f t="shared" ca="1" si="8"/>
@@ -16010,52 +16377,52 @@
     <row r="42" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="68">
         <f t="shared" ca="1" si="5"/>
-        <v>42085</v>
+        <v>42277</v>
       </c>
       <c r="B42" s="69" t="str">
         <f ca="1">IF(ROWS($2:27)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:27)),))</f>
-        <v>X03/TP</v>
+        <v>GBC</v>
       </c>
       <c r="C42" s="68">
         <f ca="1">IF(ROWS($2:27)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:27)),))</f>
-        <v>42085</v>
+        <v>42277</v>
       </c>
       <c r="D42" s="195" t="str">
         <f ca="1">IF(ROWS($2:27)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:27)),))</f>
-        <v>Markov - Cá chỉ vàng (10kg/bó) - TK 300330755930</v>
+        <v>Thu tiền hàng - O.Cheon</v>
       </c>
       <c r="E42" s="188" t="str">
         <f ca="1">IF(ROWS($2:27)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:27)),))</f>
-        <v>5112X</v>
+        <v>1122</v>
       </c>
       <c r="F42" s="188">
         <f ca="1">IF(ROWS($2:27)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:27)),))</f>
-        <v>21340</v>
+        <v>22450</v>
       </c>
       <c r="G42" s="188"/>
       <c r="H42" s="196">
         <f ca="1">IF(ROWS($2:27)&gt;COUNT(Dong1),"",OFFSET('131-TH'!H$1,SMALL(Dong1,ROWS($2:27)),))</f>
-        <v>16608</v>
+        <v>0</v>
       </c>
       <c r="I42" s="188">
         <f ca="1">IF(ROWS($2:27)&gt;COUNT(Dong1),"",OFFSET('131-TH'!I$1,SMALL(Dong1,ROWS($2:27)),))</f>
-        <v>354414720</v>
+        <v>0</v>
       </c>
       <c r="J42" s="196">
         <f ca="1">IF(ROWS($2:27)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:27)),))</f>
-        <v>0</v>
+        <v>101700</v>
       </c>
       <c r="K42" s="188">
         <f ca="1">IF(ROWS($2:27)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:27)),))</f>
-        <v>0</v>
+        <v>2283165000</v>
       </c>
       <c r="L42" s="189">
         <f t="shared" ca="1" si="6"/>
-        <v>46388.47</v>
+        <v>5425</v>
       </c>
       <c r="M42" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>988393385</v>
+        <v>122326875</v>
       </c>
       <c r="N42" s="189">
         <f t="shared" ca="1" si="8"/>
@@ -16069,52 +16436,52 @@
     <row r="43" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="68">
         <f t="shared" ca="1" si="5"/>
-        <v>42085</v>
+        <v>42285</v>
       </c>
       <c r="B43" s="69" t="str">
         <f ca="1">IF(ROWS($2:28)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:28)),))</f>
-        <v>X03/TP</v>
+        <v>GBC</v>
       </c>
       <c r="C43" s="68">
         <f ca="1">IF(ROWS($2:28)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:28)),))</f>
-        <v>42085</v>
+        <v>42285</v>
       </c>
       <c r="D43" s="195" t="str">
         <f ca="1">IF(ROWS($2:28)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:28)),))</f>
-        <v>Markov - Cá cơm (9kg/bó) - TK 300330755930</v>
+        <v>Thu tiền hàng - O.Cheon</v>
       </c>
       <c r="E43" s="188" t="str">
         <f ca="1">IF(ROWS($2:28)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:28)),))</f>
-        <v>5112X</v>
+        <v>1122</v>
       </c>
       <c r="F43" s="188">
         <f ca="1">IF(ROWS($2:28)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:28)),))</f>
-        <v>21340</v>
+        <v>22340</v>
       </c>
       <c r="G43" s="188"/>
       <c r="H43" s="196">
         <f ca="1">IF(ROWS($2:28)&gt;COUNT(Dong1),"",OFFSET('131-TH'!H$1,SMALL(Dong1,ROWS($2:28)),))</f>
-        <v>21352.5</v>
+        <v>0</v>
       </c>
       <c r="I43" s="188">
         <f ca="1">IF(ROWS($2:28)&gt;COUNT(Dong1),"",OFFSET('131-TH'!I$1,SMALL(Dong1,ROWS($2:28)),))</f>
-        <v>455662350</v>
+        <v>0</v>
       </c>
       <c r="J43" s="196">
         <f ca="1">IF(ROWS($2:28)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:28)),))</f>
-        <v>0</v>
+        <v>4941.6000000000004</v>
       </c>
       <c r="K43" s="188">
         <f ca="1">IF(ROWS($2:28)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:28)),))</f>
-        <v>0</v>
+        <v>110395344</v>
       </c>
       <c r="L43" s="189">
         <f t="shared" ca="1" si="6"/>
-        <v>67740.97</v>
+        <v>483.4</v>
       </c>
       <c r="M43" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>1444055735</v>
+        <v>11931531</v>
       </c>
       <c r="N43" s="189">
         <f t="shared" ca="1" si="8"/>
@@ -16128,52 +16495,52 @@
     <row r="44" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A44" s="68">
         <f t="shared" ca="1" si="5"/>
-        <v>42085</v>
+        <v>42285</v>
       </c>
       <c r="B44" s="69" t="str">
         <f ca="1">IF(ROWS($2:29)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:29)),))</f>
-        <v>X03/TP</v>
+        <v>CTGS</v>
       </c>
       <c r="C44" s="68">
         <f ca="1">IF(ROWS($2:29)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:29)),))</f>
-        <v>42085</v>
+        <v>42285</v>
       </c>
       <c r="D44" s="195" t="str">
         <f ca="1">IF(ROWS($2:29)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:29)),))</f>
-        <v>Markov - Cá cơm (10kg/bó) - TK 300330755930</v>
+        <v>Phí thanh tóan bộ chứng từ</v>
       </c>
       <c r="E44" s="188" t="str">
         <f ca="1">IF(ROWS($2:29)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:29)),))</f>
-        <v>5112X</v>
+        <v>642</v>
       </c>
       <c r="F44" s="188">
         <f ca="1">IF(ROWS($2:29)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:29)),))</f>
-        <v>21340</v>
+        <v>22340</v>
       </c>
       <c r="G44" s="188"/>
       <c r="H44" s="196">
         <f ca="1">IF(ROWS($2:29)&gt;COUNT(Dong1),"",OFFSET('131-TH'!H$1,SMALL(Dong1,ROWS($2:29)),))</f>
-        <v>41205</v>
+        <v>0</v>
       </c>
       <c r="I44" s="188">
         <f ca="1">IF(ROWS($2:29)&gt;COUNT(Dong1),"",OFFSET('131-TH'!I$1,SMALL(Dong1,ROWS($2:29)),))</f>
-        <v>879314700</v>
+        <v>0</v>
       </c>
       <c r="J44" s="196">
         <f ca="1">IF(ROWS($2:29)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:29)),))</f>
-        <v>0</v>
+        <v>483.4</v>
       </c>
       <c r="K44" s="188">
         <f ca="1">IF(ROWS($2:29)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:29)),))</f>
-        <v>0</v>
+        <v>10799156</v>
       </c>
       <c r="L44" s="189">
         <f t="shared" ca="1" si="6"/>
-        <v>108945.97</v>
+        <v>0</v>
       </c>
       <c r="M44" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>2323370435</v>
+        <v>1132375</v>
       </c>
       <c r="N44" s="189">
         <f t="shared" ca="1" si="8"/>
@@ -16187,27 +16554,27 @@
     <row r="45" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A45" s="68">
         <f t="shared" ref="A45" ca="1" si="15">IF(C45&lt;&gt;"",C45,"")</f>
-        <v>42093</v>
+        <v>42285</v>
       </c>
       <c r="B45" s="69" t="str">
         <f ca="1">IF(ROWS($2:30)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:30)),))</f>
-        <v>GBC</v>
+        <v>CTGS</v>
       </c>
       <c r="C45" s="68">
         <f ca="1">IF(ROWS($2:30)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:30)),))</f>
-        <v>42093</v>
+        <v>42285</v>
       </c>
       <c r="D45" s="195" t="str">
         <f ca="1">IF(ROWS($2:30)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:30)),))</f>
-        <v>Markov - Thu tiền hàng</v>
+        <v>VAT Phí thanh tóan bộ chứng từ</v>
       </c>
       <c r="E45" s="188" t="str">
         <f ca="1">IF(ROWS($2:30)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:30)),))</f>
-        <v>1122</v>
+        <v>1331</v>
       </c>
       <c r="F45" s="188">
         <f ca="1">IF(ROWS($2:30)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:30)),))</f>
-        <v>21520</v>
+        <v>22340</v>
       </c>
       <c r="G45" s="188"/>
       <c r="H45" s="196">
@@ -16220,19 +16587,19 @@
       </c>
       <c r="J45" s="196">
         <f ca="1">IF(ROWS($2:30)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:30)),))</f>
-        <v>49339.16</v>
+        <v>0</v>
       </c>
       <c r="K45" s="188">
         <f ca="1">IF(ROWS($2:30)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:30)),))</f>
-        <v>1061778723</v>
+        <v>0</v>
       </c>
       <c r="L45" s="189">
         <f t="shared" ref="L45" ca="1" si="16">IF(D45&lt;&gt;"",ROUND(MAX(L44+H45-J45-N44,0),2),0)</f>
-        <v>59606.81</v>
+        <v>0</v>
       </c>
       <c r="M45" s="71">
         <f t="shared" ref="M45" ca="1" si="17">IF(D45&lt;&gt;"",MAX(M44-O44+I45-K45,0),0)</f>
-        <v>1261591712</v>
+        <v>1132375</v>
       </c>
       <c r="N45" s="189">
         <f t="shared" ref="N45" ca="1" si="18">IF(D45&lt;&gt;"",ROUND(MAX(N44+J45-H45-L44,0),2),0)</f>
@@ -16246,7 +16613,7 @@
     <row r="46" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A46" s="68">
         <f t="shared" ca="1" si="5"/>
-        <v>42093</v>
+        <v>42285</v>
       </c>
       <c r="B46" s="69" t="str">
         <f ca="1">IF(ROWS($2:31)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:31)),))</f>
@@ -16254,11 +16621,11 @@
       </c>
       <c r="C46" s="68">
         <f ca="1">IF(ROWS($2:31)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:31)),))</f>
-        <v>42093</v>
+        <v>42285</v>
       </c>
       <c r="D46" s="195" t="str">
         <f ca="1">IF(ROWS($2:31)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:31)),))</f>
-        <v>Phí thanh toán nước ngoài</v>
+        <v>Phí NH nước ngoài giảm trừ</v>
       </c>
       <c r="E46" s="188" t="str">
         <f ca="1">IF(ROWS($2:31)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:31)),))</f>
@@ -16266,7 +16633,7 @@
       </c>
       <c r="F46" s="188">
         <f ca="1">IF(ROWS($2:31)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:31)),))</f>
-        <v>21520</v>
+        <v>22340</v>
       </c>
       <c r="G46" s="188"/>
       <c r="H46" s="196">
@@ -16279,19 +16646,19 @@
       </c>
       <c r="J46" s="196">
         <f ca="1">IF(ROWS($2:31)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:31)),))</f>
-        <v>21.72</v>
+        <v>0</v>
       </c>
       <c r="K46" s="188">
         <f ca="1">IF(ROWS($2:31)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:31)),))</f>
-        <v>467414</v>
+        <v>0</v>
       </c>
       <c r="L46" s="189">
         <f t="shared" ca="1" si="6"/>
-        <v>59585.09</v>
+        <v>0</v>
       </c>
       <c r="M46" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>1261124298</v>
+        <v>1132375</v>
       </c>
       <c r="N46" s="189">
         <f t="shared" ca="1" si="8"/>
@@ -16305,7 +16672,7 @@
     <row r="47" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A47" s="68">
         <f t="shared" ca="1" si="5"/>
-        <v>42093</v>
+        <v>42285</v>
       </c>
       <c r="B47" s="69" t="str">
         <f ca="1">IF(ROWS($2:32)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:32)),))</f>
@@ -16313,19 +16680,19 @@
       </c>
       <c r="C47" s="68">
         <f ca="1">IF(ROWS($2:32)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:32)),))</f>
-        <v>42093</v>
+        <v>42285</v>
       </c>
       <c r="D47" s="195" t="str">
         <f ca="1">IF(ROWS($2:32)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:32)),))</f>
-        <v>VAT Phí thanh toán nước ngoài</v>
+        <v>Chênh lệch tỷ giá</v>
       </c>
       <c r="E47" s="188" t="str">
         <f ca="1">IF(ROWS($2:32)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:32)),))</f>
-        <v>1331</v>
+        <v>635</v>
       </c>
       <c r="F47" s="188">
         <f ca="1">IF(ROWS($2:32)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:32)),))</f>
-        <v>21520</v>
+        <v>22340</v>
       </c>
       <c r="G47" s="188"/>
       <c r="H47" s="196">
@@ -16338,19 +16705,19 @@
       </c>
       <c r="J47" s="196">
         <f ca="1">IF(ROWS($2:32)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:32)),))</f>
-        <v>2.17</v>
+        <v>0</v>
       </c>
       <c r="K47" s="188">
         <f ca="1">IF(ROWS($2:32)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:32)),))</f>
-        <v>46698</v>
+        <v>1132375</v>
       </c>
       <c r="L47" s="189">
         <f t="shared" ca="1" si="6"/>
-        <v>59582.92</v>
+        <v>0</v>
       </c>
       <c r="M47" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>1261077600</v>
+        <v>0</v>
       </c>
       <c r="N47" s="189">
         <f t="shared" ca="1" si="8"/>
@@ -16364,52 +16731,52 @@
     <row r="48" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A48" s="68">
         <f t="shared" ca="1" si="5"/>
-        <v>42093</v>
+        <v>42319</v>
       </c>
       <c r="B48" s="69" t="str">
         <f ca="1">IF(ROWS($2:33)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:33)),))</f>
-        <v>CTGS</v>
+        <v>X01/TP</v>
       </c>
       <c r="C48" s="68">
         <f ca="1">IF(ROWS($2:33)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:33)),))</f>
-        <v>42093</v>
+        <v>42319</v>
       </c>
       <c r="D48" s="195" t="str">
         <f ca="1">IF(ROWS($2:33)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:33)),))</f>
-        <v>Phí NH NNg giảm trừ</v>
+        <v>Khô cá bò tẩm</v>
       </c>
       <c r="E48" s="188" t="str">
         <f ca="1">IF(ROWS($2:33)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:33)),))</f>
-        <v>642</v>
+        <v>5112X</v>
       </c>
       <c r="F48" s="188">
         <f ca="1">IF(ROWS($2:33)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:33)),))</f>
-        <v>21520</v>
+        <v>22285</v>
       </c>
       <c r="G48" s="188"/>
       <c r="H48" s="196">
         <f ca="1">IF(ROWS($2:33)&gt;COUNT(Dong1),"",OFFSET('131-TH'!H$1,SMALL(Dong1,ROWS($2:33)),))</f>
-        <v>0</v>
+        <v>96954</v>
       </c>
       <c r="I48" s="188">
         <f ca="1">IF(ROWS($2:33)&gt;COUNT(Dong1),"",OFFSET('131-TH'!I$1,SMALL(Dong1,ROWS($2:33)),))</f>
-        <v>0</v>
+        <v>2160619890</v>
       </c>
       <c r="J48" s="196">
         <f ca="1">IF(ROWS($2:33)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:33)),))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K48" s="188">
         <f ca="1">IF(ROWS($2:33)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:33)),))</f>
-        <v>64560</v>
+        <v>0</v>
       </c>
       <c r="L48" s="189">
         <f t="shared" ca="1" si="6"/>
-        <v>59579.92</v>
+        <v>96954</v>
       </c>
       <c r="M48" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>1261013040</v>
+        <v>2160619890</v>
       </c>
       <c r="N48" s="189">
         <f t="shared" ca="1" si="8"/>
@@ -16423,27 +16790,27 @@
     <row r="49" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A49" s="68">
         <f t="shared" ca="1" si="5"/>
-        <v>42093</v>
+        <v>42321</v>
       </c>
       <c r="B49" s="69" t="str">
         <f ca="1">IF(ROWS($2:34)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:34)),))</f>
-        <v>CTGS</v>
+        <v>GBC</v>
       </c>
       <c r="C49" s="68">
         <f ca="1">IF(ROWS($2:34)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:34)),))</f>
-        <v>42093</v>
+        <v>42321</v>
       </c>
       <c r="D49" s="195" t="str">
         <f ca="1">IF(ROWS($2:34)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:34)),))</f>
-        <v>Phí NH NNg giảm trừ</v>
+        <v>Thu tiền hàng - O.Cheon</v>
       </c>
       <c r="E49" s="188" t="str">
         <f ca="1">IF(ROWS($2:34)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:34)),))</f>
-        <v>642</v>
+        <v>1122</v>
       </c>
       <c r="F49" s="188">
         <f ca="1">IF(ROWS($2:34)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:34)),))</f>
-        <v>21520</v>
+        <v>22410</v>
       </c>
       <c r="G49" s="188"/>
       <c r="H49" s="196">
@@ -16456,19 +16823,19 @@
       </c>
       <c r="J49" s="196">
         <f ca="1">IF(ROWS($2:34)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:34)),))</f>
-        <v>10</v>
+        <v>92100</v>
       </c>
       <c r="K49" s="188">
         <f ca="1">IF(ROWS($2:34)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:34)),))</f>
-        <v>215200</v>
+        <v>2063961000</v>
       </c>
       <c r="L49" s="189">
         <f t="shared" ca="1" si="6"/>
-        <v>59569.919999999998</v>
+        <v>4854</v>
       </c>
       <c r="M49" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>1260797840</v>
+        <v>96658890</v>
       </c>
       <c r="N49" s="189">
         <f t="shared" ca="1" si="8"/>
@@ -16482,7 +16849,7 @@
     <row r="50" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A50" s="68">
         <f t="shared" ca="1" si="5"/>
-        <v>42159</v>
+        <v>42328</v>
       </c>
       <c r="B50" s="69" t="str">
         <f ca="1">IF(ROWS($2:35)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:35)),))</f>
@@ -16490,11 +16857,11 @@
       </c>
       <c r="C50" s="68">
         <f ca="1">IF(ROWS($2:35)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:35)),))</f>
-        <v>42159</v>
+        <v>42328</v>
       </c>
       <c r="D50" s="195" t="str">
         <f ca="1">IF(ROWS($2:35)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:35)),))</f>
-        <v xml:space="preserve">Thu tiền hàng - </v>
+        <v>Thu tiền hàng - O.Cheon</v>
       </c>
       <c r="E50" s="188" t="str">
         <f ca="1">IF(ROWS($2:35)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:35)),))</f>
@@ -16502,7 +16869,7 @@
       </c>
       <c r="F50" s="188">
         <f ca="1">IF(ROWS($2:35)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:35)),))</f>
-        <v>21790</v>
+        <v>22440</v>
       </c>
       <c r="G50" s="188"/>
       <c r="H50" s="196">
@@ -16515,19 +16882,19 @@
       </c>
       <c r="J50" s="196">
         <f ca="1">IF(ROWS($2:35)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:35)),))</f>
-        <v>15542.98</v>
+        <v>4467.3900000000003</v>
       </c>
       <c r="K50" s="188">
         <f ca="1">IF(ROWS($2:35)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:35)),))</f>
-        <v>338681534</v>
+        <v>100248232</v>
       </c>
       <c r="L50" s="189">
         <f t="shared" ca="1" si="6"/>
-        <v>44026.94</v>
+        <v>386.61</v>
       </c>
       <c r="M50" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>922116306</v>
+        <v>0</v>
       </c>
       <c r="N50" s="189">
         <f t="shared" ca="1" si="8"/>
@@ -16535,13 +16902,13 @@
       </c>
       <c r="O50" s="71">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>3589342</v>
       </c>
     </row>
     <row r="51" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A51" s="68">
         <f t="shared" ca="1" si="5"/>
-        <v>42159</v>
+        <v>42328</v>
       </c>
       <c r="B51" s="69" t="str">
         <f ca="1">IF(ROWS($2:36)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:36)),))</f>
@@ -16549,19 +16916,19 @@
       </c>
       <c r="C51" s="68">
         <f ca="1">IF(ROWS($2:36)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:36)),))</f>
-        <v>42159</v>
+        <v>42328</v>
       </c>
       <c r="D51" s="195" t="str">
         <f ca="1">IF(ROWS($2:36)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:36)),))</f>
-        <v>Phí nhận tiền đến từ nước ngoài</v>
+        <v>Lãi suất chiết khấu</v>
       </c>
       <c r="E51" s="188" t="str">
         <f ca="1">IF(ROWS($2:36)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:36)),))</f>
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="F51" s="188">
         <f ca="1">IF(ROWS($2:36)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:36)),))</f>
-        <v>21790</v>
+        <v>22440</v>
       </c>
       <c r="G51" s="188"/>
       <c r="H51" s="196">
@@ -16574,19 +16941,19 @@
       </c>
       <c r="J51" s="196">
         <f ca="1">IF(ROWS($2:36)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:36)),))</f>
-        <v>6.84</v>
+        <v>62.68</v>
       </c>
       <c r="K51" s="188">
         <f ca="1">IF(ROWS($2:36)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:36)),))</f>
-        <v>149044</v>
+        <v>1406539</v>
       </c>
       <c r="L51" s="189">
         <f t="shared" ca="1" si="6"/>
-        <v>44020.1</v>
+        <v>323.93</v>
       </c>
       <c r="M51" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>921967262</v>
+        <v>0</v>
       </c>
       <c r="N51" s="189">
         <f t="shared" ca="1" si="8"/>
@@ -16594,13 +16961,13 @@
       </c>
       <c r="O51" s="71">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>4995881</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A52" s="68">
         <f t="shared" ca="1" si="5"/>
-        <v>42159</v>
+        <v>42328</v>
       </c>
       <c r="B52" s="69" t="str">
         <f ca="1">IF(ROWS($2:37)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:37)),))</f>
@@ -16608,19 +16975,19 @@
       </c>
       <c r="C52" s="68">
         <f ca="1">IF(ROWS($2:37)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:37)),))</f>
-        <v>42159</v>
+        <v>42328</v>
       </c>
       <c r="D52" s="195" t="str">
         <f ca="1">IF(ROWS($2:37)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:37)),))</f>
-        <v>VAT Phí nhận tiền đến từ nước ngoài</v>
+        <v>Phí thanh tóan bộ chứng từ</v>
       </c>
       <c r="E52" s="188" t="str">
         <f ca="1">IF(ROWS($2:37)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:37)),))</f>
-        <v>1331</v>
+        <v>642</v>
       </c>
       <c r="F52" s="188">
         <f ca="1">IF(ROWS($2:37)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:37)),))</f>
-        <v>21790</v>
+        <v>22440</v>
       </c>
       <c r="G52" s="188"/>
       <c r="H52" s="196">
@@ -16633,19 +17000,19 @@
       </c>
       <c r="J52" s="196">
         <f ca="1">IF(ROWS($2:37)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:37)),))</f>
-        <v>0.68</v>
+        <v>199.65</v>
       </c>
       <c r="K52" s="188">
         <f ca="1">IF(ROWS($2:37)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:37)),))</f>
-        <v>14817</v>
+        <v>4480146</v>
       </c>
       <c r="L52" s="189">
         <f t="shared" ca="1" si="6"/>
-        <v>44019.42</v>
+        <v>124.28</v>
       </c>
       <c r="M52" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>921952445</v>
+        <v>0</v>
       </c>
       <c r="N52" s="189">
         <f t="shared" ca="1" si="8"/>
@@ -16653,13 +17020,13 @@
       </c>
       <c r="O52" s="71">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>9476027</v>
       </c>
     </row>
     <row r="53" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A53" s="68">
         <f t="shared" ca="1" si="5"/>
-        <v>42159</v>
+        <v>42328</v>
       </c>
       <c r="B53" s="69" t="str">
         <f ca="1">IF(ROWS($2:38)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:38)),))</f>
@@ -16667,19 +17034,19 @@
       </c>
       <c r="C53" s="68">
         <f ca="1">IF(ROWS($2:38)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:38)),))</f>
-        <v>42159</v>
+        <v>42328</v>
       </c>
       <c r="D53" s="195" t="str">
         <f ca="1">IF(ROWS($2:38)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:38)),))</f>
-        <v>Phí NH nước ngoài giảm trừ</v>
+        <v>VAT Phí thanh tóan bộ chứng từ</v>
       </c>
       <c r="E53" s="188" t="str">
         <f ca="1">IF(ROWS($2:38)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:38)),))</f>
-        <v>642</v>
+        <v>1331</v>
       </c>
       <c r="F53" s="188">
         <f ca="1">IF(ROWS($2:38)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:38)),))</f>
-        <v>21790</v>
+        <v>22440</v>
       </c>
       <c r="G53" s="188"/>
       <c r="H53" s="196">
@@ -16692,19 +17059,19 @@
       </c>
       <c r="J53" s="196">
         <f ca="1">IF(ROWS($2:38)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:38)),))</f>
-        <v>3</v>
+        <v>19.96</v>
       </c>
       <c r="K53" s="188">
         <f ca="1">IF(ROWS($2:38)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:38)),))</f>
-        <v>65370</v>
+        <v>447902</v>
       </c>
       <c r="L53" s="189">
         <f t="shared" ca="1" si="6"/>
-        <v>44016.42</v>
+        <v>104.32</v>
       </c>
       <c r="M53" s="71">
         <f t="shared" ca="1" si="7"/>
-        <v>921887075</v>
+        <v>0</v>
       </c>
       <c r="N53" s="189">
         <f t="shared" ca="1" si="8"/>
@@ -16712,50 +17079,50 @@
       </c>
       <c r="O53" s="71">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>9923929</v>
       </c>
     </row>
     <row r="54" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A54" s="68" t="str">
+      <c r="A54" s="68">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>42328</v>
       </c>
       <c r="B54" s="69" t="str">
         <f ca="1">IF(ROWS($2:39)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:39)),))</f>
-        <v/>
-      </c>
-      <c r="C54" s="68" t="str">
+        <v>CTGS</v>
+      </c>
+      <c r="C54" s="68">
         <f ca="1">IF(ROWS($2:39)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:39)),))</f>
-        <v/>
+        <v>42328</v>
       </c>
       <c r="D54" s="195" t="str">
         <f ca="1">IF(ROWS($2:39)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:39)),))</f>
-        <v/>
+        <v>Phí NH nước ngoài giảm trừ</v>
       </c>
       <c r="E54" s="188" t="str">
         <f ca="1">IF(ROWS($2:39)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:39)),))</f>
-        <v/>
-      </c>
-      <c r="F54" s="188" t="str">
+        <v>642</v>
+      </c>
+      <c r="F54" s="188">
         <f ca="1">IF(ROWS($2:39)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:39)),))</f>
-        <v/>
+        <v>22440</v>
       </c>
       <c r="G54" s="188"/>
-      <c r="H54" s="196" t="str">
+      <c r="H54" s="196">
         <f ca="1">IF(ROWS($2:39)&gt;COUNT(Dong1),"",OFFSET('131-TH'!H$1,SMALL(Dong1,ROWS($2:39)),))</f>
-        <v/>
-      </c>
-      <c r="I54" s="188" t="str">
+        <v>0</v>
+      </c>
+      <c r="I54" s="188">
         <f ca="1">IF(ROWS($2:39)&gt;COUNT(Dong1),"",OFFSET('131-TH'!I$1,SMALL(Dong1,ROWS($2:39)),))</f>
-        <v/>
-      </c>
-      <c r="J54" s="196" t="str">
+        <v>0</v>
+      </c>
+      <c r="J54" s="196">
         <f ca="1">IF(ROWS($2:39)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:39)),))</f>
-        <v/>
-      </c>
-      <c r="K54" s="188" t="str">
+        <v>104.32</v>
+      </c>
+      <c r="K54" s="188">
         <f ca="1">IF(ROWS($2:39)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:39)),))</f>
-        <v/>
+        <v>2340941</v>
       </c>
       <c r="L54" s="189">
         <f t="shared" ca="1" si="6"/>
@@ -16771,50 +17138,50 @@
       </c>
       <c r="O54" s="71">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>12264870</v>
       </c>
     </row>
     <row r="55" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A55" s="68" t="str">
+      <c r="A55" s="68">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>42328</v>
       </c>
       <c r="B55" s="69" t="str">
         <f ca="1">IF(ROWS($2:40)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:40)),))</f>
-        <v/>
-      </c>
-      <c r="C55" s="68" t="str">
+        <v>CTGS</v>
+      </c>
+      <c r="C55" s="68">
         <f ca="1">IF(ROWS($2:40)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:40)),))</f>
-        <v/>
+        <v>42328</v>
       </c>
       <c r="D55" s="195" t="str">
         <f ca="1">IF(ROWS($2:40)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:40)),))</f>
-        <v/>
+        <v>Chênh lệch tỷ giá</v>
       </c>
       <c r="E55" s="188" t="str">
         <f ca="1">IF(ROWS($2:40)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:40)),))</f>
-        <v/>
-      </c>
-      <c r="F55" s="188" t="str">
+        <v>515</v>
+      </c>
+      <c r="F55" s="188">
         <f ca="1">IF(ROWS($2:40)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:40)),))</f>
-        <v/>
+        <v>22440</v>
       </c>
       <c r="G55" s="188"/>
-      <c r="H55" s="196" t="str">
+      <c r="H55" s="196">
         <f ca="1">IF(ROWS($2:40)&gt;COUNT(Dong1),"",OFFSET('131-TH'!H$1,SMALL(Dong1,ROWS($2:40)),))</f>
-        <v/>
-      </c>
-      <c r="I55" s="188" t="str">
+        <v>0</v>
+      </c>
+      <c r="I55" s="188">
         <f ca="1">IF(ROWS($2:40)&gt;COUNT(Dong1),"",OFFSET('131-TH'!I$1,SMALL(Dong1,ROWS($2:40)),))</f>
-        <v/>
-      </c>
-      <c r="J55" s="196" t="str">
+        <v>12264870</v>
+      </c>
+      <c r="J55" s="196">
         <f ca="1">IF(ROWS($2:40)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:40)),))</f>
-        <v/>
-      </c>
-      <c r="K55" s="188" t="str">
+        <v>0</v>
+      </c>
+      <c r="K55" s="188">
         <f ca="1">IF(ROWS($2:40)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:40)),))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L55" s="189">
         <f t="shared" ca="1" si="6"/>
@@ -18310,7 +18677,7 @@
     </row>
     <row r="81" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A81" s="68" t="str">
-        <f t="shared" ref="A81:A92" ca="1" si="30">IF(C81&lt;&gt;"",C81,"")</f>
+        <f t="shared" ref="A81:A86" ca="1" si="30">IF(C81&lt;&gt;"",C81,"")</f>
         <v/>
       </c>
       <c r="B81" s="69" t="str">
@@ -18351,19 +18718,19 @@
         <v/>
       </c>
       <c r="L81" s="189">
-        <f t="shared" ref="L81:L92" ca="1" si="31">IF(D81&lt;&gt;"",ROUND(MAX(L80+H81-J81-N80,0),2),0)</f>
+        <f t="shared" ref="L81:L86" ca="1" si="31">IF(D81&lt;&gt;"",ROUND(MAX(L80+H81-J81-N80,0),2),0)</f>
         <v>0</v>
       </c>
       <c r="M81" s="71">
-        <f t="shared" ref="M81:M92" ca="1" si="32">IF(D81&lt;&gt;"",MAX(M80-O80+I81-K81,0),0)</f>
+        <f t="shared" ref="M81:M86" ca="1" si="32">IF(D81&lt;&gt;"",MAX(M80-O80+I81-K81,0),0)</f>
         <v>0</v>
       </c>
       <c r="N81" s="189">
-        <f t="shared" ref="N81:N92" ca="1" si="33">IF(D81&lt;&gt;"",ROUND(MAX(N80+J81-H81-L80,0),2),0)</f>
+        <f t="shared" ref="N81:N86" ca="1" si="33">IF(D81&lt;&gt;"",ROUND(MAX(N80+J81-H81-L80,0),2),0)</f>
         <v>0</v>
       </c>
       <c r="O81" s="71">
-        <f t="shared" ref="O81:O92" ca="1" si="34">IF(D81&lt;&gt;"",MAX(O80-M80+K81-I81,0),0)</f>
+        <f t="shared" ref="O81:O86" ca="1" si="34">IF(D81&lt;&gt;"",MAX(O80-M80+K81-I81,0),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -18664,7 +19031,7 @@
     </row>
     <row r="87" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A87" s="68" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ref="A87:A98" ca="1" si="35">IF(C87&lt;&gt;"",C87,"")</f>
         <v/>
       </c>
       <c r="B87" s="69" t="str">
@@ -18705,25 +19072,25 @@
         <v/>
       </c>
       <c r="L87" s="189">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ref="L87:L98" ca="1" si="36">IF(D87&lt;&gt;"",ROUND(MAX(L86+H87-J87-N86,0),2),0)</f>
         <v>0</v>
       </c>
       <c r="M87" s="71">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ref="M87:M98" ca="1" si="37">IF(D87&lt;&gt;"",MAX(M86-O86+I87-K87,0),0)</f>
         <v>0</v>
       </c>
       <c r="N87" s="189">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ref="N87:N98" ca="1" si="38">IF(D87&lt;&gt;"",ROUND(MAX(N86+J87-H87-L86,0),2),0)</f>
         <v>0</v>
       </c>
       <c r="O87" s="71">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ref="O87:O98" ca="1" si="39">IF(D87&lt;&gt;"",MAX(O86-M86+K87-I87,0),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A88" s="68" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="B88" s="69" t="str">
@@ -18764,25 +19131,25 @@
         <v/>
       </c>
       <c r="L88" s="189">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="M88" s="71">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v>0</v>
       </c>
       <c r="N88" s="189">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v>0</v>
       </c>
       <c r="O88" s="71">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A89" s="68" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="B89" s="69" t="str">
@@ -18823,25 +19190,25 @@
         <v/>
       </c>
       <c r="L89" s="189">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="M89" s="71">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v>0</v>
       </c>
       <c r="N89" s="189">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v>0</v>
       </c>
       <c r="O89" s="71">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A90" s="68" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="B90" s="69" t="str">
@@ -18882,25 +19249,25 @@
         <v/>
       </c>
       <c r="L90" s="189">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="M90" s="71">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v>0</v>
       </c>
       <c r="N90" s="189">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v>0</v>
       </c>
       <c r="O90" s="71">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A91" s="68" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="B91" s="69" t="str">
@@ -18941,25 +19308,25 @@
         <v/>
       </c>
       <c r="L91" s="189">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="M91" s="71">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v>0</v>
       </c>
       <c r="N91" s="189">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v>0</v>
       </c>
       <c r="O91" s="71">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A92" s="68" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="35"/>
         <v/>
       </c>
       <c r="B92" s="69" t="str">
@@ -19000,123 +19367,375 @@
         <v/>
       </c>
       <c r="L92" s="189">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="36"/>
         <v>0</v>
       </c>
       <c r="M92" s="71">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="37"/>
         <v>0</v>
       </c>
       <c r="N92" s="189">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="38"/>
         <v>0</v>
       </c>
       <c r="O92" s="71">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="39"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A93" s="68"/>
-      <c r="B93" s="145"/>
-      <c r="C93" s="82"/>
-      <c r="D93" s="190"/>
-      <c r="E93" s="280"/>
-      <c r="F93" s="280"/>
-      <c r="G93" s="280"/>
-      <c r="H93" s="281"/>
-      <c r="I93" s="188"/>
-      <c r="J93" s="281"/>
-      <c r="K93" s="280"/>
-      <c r="L93" s="189"/>
-      <c r="M93" s="71"/>
-      <c r="N93" s="189"/>
-      <c r="O93" s="71"/>
+      <c r="A93" s="68" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="B93" s="69" t="str">
+        <f ca="1">IF(ROWS($2:78)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:78)),))</f>
+        <v/>
+      </c>
+      <c r="C93" s="68" t="str">
+        <f ca="1">IF(ROWS($2:78)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:78)),))</f>
+        <v/>
+      </c>
+      <c r="D93" s="195" t="str">
+        <f ca="1">IF(ROWS($2:78)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:78)),))</f>
+        <v/>
+      </c>
+      <c r="E93" s="188" t="str">
+        <f ca="1">IF(ROWS($2:78)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:78)),))</f>
+        <v/>
+      </c>
+      <c r="F93" s="188" t="str">
+        <f ca="1">IF(ROWS($2:78)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:78)),))</f>
+        <v/>
+      </c>
+      <c r="G93" s="188"/>
+      <c r="H93" s="196" t="str">
+        <f ca="1">IF(ROWS($2:78)&gt;COUNT(Dong1),"",OFFSET('131-TH'!H$1,SMALL(Dong1,ROWS($2:78)),))</f>
+        <v/>
+      </c>
+      <c r="I93" s="188" t="str">
+        <f ca="1">IF(ROWS($2:78)&gt;COUNT(Dong1),"",OFFSET('131-TH'!I$1,SMALL(Dong1,ROWS($2:78)),))</f>
+        <v/>
+      </c>
+      <c r="J93" s="196" t="str">
+        <f ca="1">IF(ROWS($2:78)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:78)),))</f>
+        <v/>
+      </c>
+      <c r="K93" s="188" t="str">
+        <f ca="1">IF(ROWS($2:78)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:78)),))</f>
+        <v/>
+      </c>
+      <c r="L93" s="189">
+        <f t="shared" ca="1" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="M93" s="71">
+        <f t="shared" ca="1" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N93" s="189">
+        <f t="shared" ca="1" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="O93" s="71">
+        <f t="shared" ca="1" si="39"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A94" s="68"/>
-      <c r="B94" s="145"/>
-      <c r="C94" s="82"/>
-      <c r="D94" s="190"/>
-      <c r="E94" s="280"/>
-      <c r="F94" s="280"/>
-      <c r="G94" s="280"/>
-      <c r="H94" s="281"/>
-      <c r="I94" s="188"/>
-      <c r="J94" s="281"/>
-      <c r="K94" s="280"/>
-      <c r="L94" s="189"/>
-      <c r="M94" s="71"/>
-      <c r="N94" s="189"/>
-      <c r="O94" s="71"/>
+      <c r="A94" s="68" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="B94" s="69" t="str">
+        <f ca="1">IF(ROWS($2:79)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:79)),))</f>
+        <v/>
+      </c>
+      <c r="C94" s="68" t="str">
+        <f ca="1">IF(ROWS($2:79)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:79)),))</f>
+        <v/>
+      </c>
+      <c r="D94" s="195" t="str">
+        <f ca="1">IF(ROWS($2:79)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:79)),))</f>
+        <v/>
+      </c>
+      <c r="E94" s="188" t="str">
+        <f ca="1">IF(ROWS($2:79)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:79)),))</f>
+        <v/>
+      </c>
+      <c r="F94" s="188" t="str">
+        <f ca="1">IF(ROWS($2:79)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:79)),))</f>
+        <v/>
+      </c>
+      <c r="G94" s="188"/>
+      <c r="H94" s="196" t="str">
+        <f ca="1">IF(ROWS($2:79)&gt;COUNT(Dong1),"",OFFSET('131-TH'!H$1,SMALL(Dong1,ROWS($2:79)),))</f>
+        <v/>
+      </c>
+      <c r="I94" s="188" t="str">
+        <f ca="1">IF(ROWS($2:79)&gt;COUNT(Dong1),"",OFFSET('131-TH'!I$1,SMALL(Dong1,ROWS($2:79)),))</f>
+        <v/>
+      </c>
+      <c r="J94" s="196" t="str">
+        <f ca="1">IF(ROWS($2:79)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:79)),))</f>
+        <v/>
+      </c>
+      <c r="K94" s="188" t="str">
+        <f ca="1">IF(ROWS($2:79)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:79)),))</f>
+        <v/>
+      </c>
+      <c r="L94" s="189">
+        <f t="shared" ca="1" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="M94" s="71">
+        <f t="shared" ca="1" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N94" s="189">
+        <f t="shared" ca="1" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="O94" s="71">
+        <f t="shared" ca="1" si="39"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A95" s="68"/>
-      <c r="B95" s="145"/>
-      <c r="C95" s="82"/>
-      <c r="D95" s="190"/>
-      <c r="E95" s="280"/>
-      <c r="F95" s="280"/>
-      <c r="G95" s="280"/>
-      <c r="H95" s="281"/>
-      <c r="I95" s="188"/>
-      <c r="J95" s="281"/>
-      <c r="K95" s="280"/>
-      <c r="L95" s="189"/>
-      <c r="M95" s="71"/>
-      <c r="N95" s="189"/>
-      <c r="O95" s="71"/>
+      <c r="A95" s="68" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="B95" s="69" t="str">
+        <f ca="1">IF(ROWS($2:80)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:80)),))</f>
+        <v/>
+      </c>
+      <c r="C95" s="68" t="str">
+        <f ca="1">IF(ROWS($2:80)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:80)),))</f>
+        <v/>
+      </c>
+      <c r="D95" s="195" t="str">
+        <f ca="1">IF(ROWS($2:80)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:80)),))</f>
+        <v/>
+      </c>
+      <c r="E95" s="188" t="str">
+        <f ca="1">IF(ROWS($2:80)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:80)),))</f>
+        <v/>
+      </c>
+      <c r="F95" s="188" t="str">
+        <f ca="1">IF(ROWS($2:80)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:80)),))</f>
+        <v/>
+      </c>
+      <c r="G95" s="188"/>
+      <c r="H95" s="196" t="str">
+        <f ca="1">IF(ROWS($2:80)&gt;COUNT(Dong1),"",OFFSET('131-TH'!H$1,SMALL(Dong1,ROWS($2:80)),))</f>
+        <v/>
+      </c>
+      <c r="I95" s="188" t="str">
+        <f ca="1">IF(ROWS($2:80)&gt;COUNT(Dong1),"",OFFSET('131-TH'!I$1,SMALL(Dong1,ROWS($2:80)),))</f>
+        <v/>
+      </c>
+      <c r="J95" s="196" t="str">
+        <f ca="1">IF(ROWS($2:80)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:80)),))</f>
+        <v/>
+      </c>
+      <c r="K95" s="188" t="str">
+        <f ca="1">IF(ROWS($2:80)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:80)),))</f>
+        <v/>
+      </c>
+      <c r="L95" s="189">
+        <f t="shared" ca="1" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="M95" s="71">
+        <f t="shared" ca="1" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N95" s="189">
+        <f t="shared" ca="1" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="O95" s="71">
+        <f t="shared" ca="1" si="39"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A96" s="68"/>
-      <c r="B96" s="145"/>
-      <c r="C96" s="82"/>
-      <c r="D96" s="190"/>
-      <c r="E96" s="280"/>
-      <c r="F96" s="280"/>
-      <c r="G96" s="280"/>
-      <c r="H96" s="281"/>
-      <c r="I96" s="188"/>
-      <c r="J96" s="281"/>
-      <c r="K96" s="280"/>
-      <c r="L96" s="189"/>
-      <c r="M96" s="71"/>
-      <c r="N96" s="189"/>
-      <c r="O96" s="71"/>
+      <c r="A96" s="68" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="B96" s="69" t="str">
+        <f ca="1">IF(ROWS($2:81)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:81)),))</f>
+        <v/>
+      </c>
+      <c r="C96" s="68" t="str">
+        <f ca="1">IF(ROWS($2:81)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:81)),))</f>
+        <v/>
+      </c>
+      <c r="D96" s="195" t="str">
+        <f ca="1">IF(ROWS($2:81)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:81)),))</f>
+        <v/>
+      </c>
+      <c r="E96" s="188" t="str">
+        <f ca="1">IF(ROWS($2:81)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:81)),))</f>
+        <v/>
+      </c>
+      <c r="F96" s="188" t="str">
+        <f ca="1">IF(ROWS($2:81)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:81)),))</f>
+        <v/>
+      </c>
+      <c r="G96" s="188"/>
+      <c r="H96" s="196" t="str">
+        <f ca="1">IF(ROWS($2:81)&gt;COUNT(Dong1),"",OFFSET('131-TH'!H$1,SMALL(Dong1,ROWS($2:81)),))</f>
+        <v/>
+      </c>
+      <c r="I96" s="188" t="str">
+        <f ca="1">IF(ROWS($2:81)&gt;COUNT(Dong1),"",OFFSET('131-TH'!I$1,SMALL(Dong1,ROWS($2:81)),))</f>
+        <v/>
+      </c>
+      <c r="J96" s="196" t="str">
+        <f ca="1">IF(ROWS($2:81)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:81)),))</f>
+        <v/>
+      </c>
+      <c r="K96" s="188" t="str">
+        <f ca="1">IF(ROWS($2:81)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:81)),))</f>
+        <v/>
+      </c>
+      <c r="L96" s="189">
+        <f t="shared" ca="1" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="M96" s="71">
+        <f t="shared" ca="1" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N96" s="189">
+        <f t="shared" ca="1" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="O96" s="71">
+        <f t="shared" ca="1" si="39"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A97" s="68"/>
-      <c r="B97" s="145"/>
-      <c r="C97" s="82"/>
-      <c r="D97" s="190"/>
-      <c r="E97" s="280"/>
-      <c r="F97" s="280"/>
-      <c r="G97" s="280"/>
-      <c r="H97" s="281"/>
-      <c r="I97" s="188"/>
-      <c r="J97" s="281"/>
-      <c r="K97" s="280"/>
-      <c r="L97" s="189"/>
-      <c r="M97" s="71"/>
-      <c r="N97" s="189"/>
-      <c r="O97" s="71"/>
+      <c r="A97" s="68" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="B97" s="69" t="str">
+        <f ca="1">IF(ROWS($2:82)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:82)),))</f>
+        <v/>
+      </c>
+      <c r="C97" s="68" t="str">
+        <f ca="1">IF(ROWS($2:82)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:82)),))</f>
+        <v/>
+      </c>
+      <c r="D97" s="195" t="str">
+        <f ca="1">IF(ROWS($2:82)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:82)),))</f>
+        <v/>
+      </c>
+      <c r="E97" s="188" t="str">
+        <f ca="1">IF(ROWS($2:82)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:82)),))</f>
+        <v/>
+      </c>
+      <c r="F97" s="188" t="str">
+        <f ca="1">IF(ROWS($2:82)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:82)),))</f>
+        <v/>
+      </c>
+      <c r="G97" s="188"/>
+      <c r="H97" s="196" t="str">
+        <f ca="1">IF(ROWS($2:82)&gt;COUNT(Dong1),"",OFFSET('131-TH'!H$1,SMALL(Dong1,ROWS($2:82)),))</f>
+        <v/>
+      </c>
+      <c r="I97" s="188" t="str">
+        <f ca="1">IF(ROWS($2:82)&gt;COUNT(Dong1),"",OFFSET('131-TH'!I$1,SMALL(Dong1,ROWS($2:82)),))</f>
+        <v/>
+      </c>
+      <c r="J97" s="196" t="str">
+        <f ca="1">IF(ROWS($2:82)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:82)),))</f>
+        <v/>
+      </c>
+      <c r="K97" s="188" t="str">
+        <f ca="1">IF(ROWS($2:82)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:82)),))</f>
+        <v/>
+      </c>
+      <c r="L97" s="189">
+        <f t="shared" ca="1" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="M97" s="71">
+        <f t="shared" ca="1" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N97" s="189">
+        <f t="shared" ca="1" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="O97" s="71">
+        <f t="shared" ca="1" si="39"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A98" s="68"/>
-      <c r="B98" s="145"/>
-      <c r="C98" s="82"/>
-      <c r="D98" s="190"/>
-      <c r="E98" s="280"/>
-      <c r="F98" s="280"/>
-      <c r="G98" s="280"/>
-      <c r="H98" s="281"/>
-      <c r="I98" s="188"/>
-      <c r="J98" s="281"/>
-      <c r="K98" s="280"/>
-      <c r="L98" s="189"/>
-      <c r="M98" s="71"/>
-      <c r="N98" s="189"/>
-      <c r="O98" s="71"/>
+      <c r="A98" s="68" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v/>
+      </c>
+      <c r="B98" s="69" t="str">
+        <f ca="1">IF(ROWS($2:83)&gt;COUNT(Dong1),"",OFFSET('131-TH'!B$1,SMALL(Dong1,ROWS($2:83)),))</f>
+        <v/>
+      </c>
+      <c r="C98" s="68" t="str">
+        <f ca="1">IF(ROWS($2:83)&gt;COUNT(Dong1),"",OFFSET('131-TH'!C$1,SMALL(Dong1,ROWS($2:83)),))</f>
+        <v/>
+      </c>
+      <c r="D98" s="195" t="str">
+        <f ca="1">IF(ROWS($2:83)&gt;COUNT(Dong1),"",OFFSET('131-TH'!D$1,SMALL(Dong1,ROWS($2:83)),))</f>
+        <v/>
+      </c>
+      <c r="E98" s="188" t="str">
+        <f ca="1">IF(ROWS($2:83)&gt;COUNT(Dong1),"",OFFSET('131-TH'!F$1,SMALL(Dong1,ROWS($2:83)),))</f>
+        <v/>
+      </c>
+      <c r="F98" s="188" t="str">
+        <f ca="1">IF(ROWS($2:83)&gt;COUNT(Dong1),"",OFFSET('131-TH'!G$1,SMALL(Dong1,ROWS($2:83)),))</f>
+        <v/>
+      </c>
+      <c r="G98" s="188"/>
+      <c r="H98" s="196" t="str">
+        <f ca="1">IF(ROWS($2:83)&gt;COUNT(Dong1),"",OFFSET('131-TH'!H$1,SMALL(Dong1,ROWS($2:83)),))</f>
+        <v/>
+      </c>
+      <c r="I98" s="188" t="str">
+        <f ca="1">IF(ROWS($2:83)&gt;COUNT(Dong1),"",OFFSET('131-TH'!I$1,SMALL(Dong1,ROWS($2:83)),))</f>
+        <v/>
+      </c>
+      <c r="J98" s="196" t="str">
+        <f ca="1">IF(ROWS($2:83)&gt;COUNT(Dong1),"",OFFSET('131-TH'!J$1,SMALL(Dong1,ROWS($2:83)),))</f>
+        <v/>
+      </c>
+      <c r="K98" s="188" t="str">
+        <f ca="1">IF(ROWS($2:83)&gt;COUNT(Dong1),"",OFFSET('131-TH'!K$1,SMALL(Dong1,ROWS($2:83)),))</f>
+        <v/>
+      </c>
+      <c r="L98" s="189">
+        <f t="shared" ca="1" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="M98" s="71">
+        <f t="shared" ca="1" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N98" s="189">
+        <f t="shared" ca="1" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="O98" s="71">
+        <f t="shared" ca="1" si="39"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:15" s="58" customFormat="1" ht="16.5" customHeight="1">
       <c r="A99" s="68" t="str">
@@ -19154,19 +19773,19 @@
       </c>
       <c r="H100" s="192">
         <f ca="1">SUM(H17:H99)</f>
-        <v>393870.9</v>
+        <v>411319</v>
       </c>
       <c r="I100" s="78">
         <f ca="1">SUM(I17:I99)</f>
-        <v>8437692931</v>
+        <v>9133407315</v>
       </c>
       <c r="J100" s="193">
         <f ca="1">SUM(J17:J99)</f>
-        <v>405347.95</v>
+        <v>411319.00000000006</v>
       </c>
       <c r="K100" s="78">
         <f ca="1">ROUND(SUM(K17:K99),0)</f>
-        <v>8688672102</v>
+        <v>9133407315</v>
       </c>
       <c r="L100" s="192" t="s">
         <v>19</v>
@@ -19209,11 +19828,11 @@
       </c>
       <c r="L101" s="192">
         <f ca="1">ROUND(MAX(L16+H100-N16-J100,0),2)</f>
-        <v>44016.42</v>
+        <v>0</v>
       </c>
       <c r="M101" s="78">
         <f ca="1">ROUND(MAX(M16+I100-O16-K100,0),0)</f>
-        <v>921887075</v>
+        <v>0</v>
       </c>
       <c r="N101" s="78">
         <f ca="1">ROUND(MAX(N16+J100-L16-H100,0),2)</f>
@@ -19261,14 +19880,14 @@
       <c r="G104" s="161"/>
       <c r="H104" s="162"/>
       <c r="I104" s="161"/>
-      <c r="J104" s="301" t="s">
+      <c r="J104" s="311" t="s">
         <v>128</v>
       </c>
-      <c r="K104" s="301"/>
-      <c r="L104" s="301"/>
-      <c r="M104" s="301"/>
-      <c r="N104" s="301"/>
-      <c r="O104" s="301"/>
+      <c r="K104" s="311"/>
+      <c r="L104" s="311"/>
+      <c r="M104" s="311"/>
+      <c r="N104" s="311"/>
+      <c r="O104" s="311"/>
     </row>
     <row r="105" spans="1:15" s="58" customFormat="1" ht="15">
       <c r="A105" s="213"/>
@@ -19283,10 +19902,10 @@
       <c r="I105" s="161"/>
       <c r="J105" s="163"/>
       <c r="K105" s="161"/>
-      <c r="L105" s="301" t="s">
+      <c r="L105" s="311" t="s">
         <v>22</v>
       </c>
-      <c r="M105" s="301"/>
+      <c r="M105" s="311"/>
     </row>
     <row r="106" spans="1:15" s="58" customFormat="1" ht="15">
       <c r="A106" s="213"/>
@@ -19301,13 +19920,23 @@
       <c r="I106" s="161"/>
       <c r="J106" s="163"/>
       <c r="K106" s="161"/>
-      <c r="L106" s="301" t="s">
+      <c r="L106" s="311" t="s">
         <v>23</v>
       </c>
-      <c r="M106" s="301"/>
+      <c r="M106" s="311"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J104:O104"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="H9:J9"/>
@@ -19318,23 +19947,14 @@
     <mergeCell ref="F12:F14"/>
     <mergeCell ref="G12:G14"/>
     <mergeCell ref="H12:K12"/>
-    <mergeCell ref="J104:O104"/>
-    <mergeCell ref="L105:M105"/>
-    <mergeCell ref="L106:M106"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9">
       <formula1>DSKHusd</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.18" right="0.15" top="0.33" bottom="0.16" header="0.3" footer="0.3"/>
+  <pageSetup scale="75" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -19345,10 +19965,10 @@
   </sheetPr>
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A2" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G6" sqref="G6"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28:XFD28"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.5"/>
@@ -19365,40 +19985,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A1" s="322" t="s">
+      <c r="A1" s="320" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="322"/>
-      <c r="C1" s="322"/>
-      <c r="D1" s="322"/>
-      <c r="E1" s="322"/>
-      <c r="F1" s="322"/>
-      <c r="G1" s="322"/>
-      <c r="H1" s="322"/>
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="320"/>
+      <c r="F1" s="320"/>
+      <c r="G1" s="320"/>
+      <c r="H1" s="320"/>
     </row>
     <row r="2" spans="1:8" s="39" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A2" s="290" t="s">
+      <c r="A2" s="288" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="288" t="s">
+      <c r="B2" s="286" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="320" t="s">
+      <c r="C2" s="318" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="321"/>
-      <c r="E2" s="320" t="s">
+      <c r="D2" s="319"/>
+      <c r="E2" s="318" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="321"/>
-      <c r="G2" s="320" t="s">
+      <c r="F2" s="319"/>
+      <c r="G2" s="318" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="321"/>
+      <c r="H2" s="319"/>
     </row>
     <row r="3" spans="1:8" s="39" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A3" s="290"/>
-      <c r="B3" s="288"/>
+      <c r="A3" s="288"/>
+      <c r="B3" s="286"/>
       <c r="C3" s="10" t="s">
         <v>37</v>
       </c>
@@ -19454,7 +20074,7 @@
         <f t="shared" ref="A5:A71" si="4">ROW(A5)-3</f>
         <v>2</v>
       </c>
-      <c r="B5" s="282" t="s">
+      <c r="B5" s="280" t="s">
         <v>86</v>
       </c>
       <c r="C5" s="202">
@@ -19485,7 +20105,7 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="B6" s="282" t="s">
+      <c r="B6" s="280" t="s">
         <v>87</v>
       </c>
       <c r="C6" s="202">
@@ -19516,7 +20136,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B7" s="282" t="s">
+      <c r="B7" s="280" t="s">
         <v>88</v>
       </c>
       <c r="C7" s="202">
@@ -19547,7 +20167,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B8" s="282" t="s">
+      <c r="B8" s="280" t="s">
         <v>89</v>
       </c>
       <c r="C8" s="202">
@@ -19578,7 +20198,7 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B9" s="282" t="s">
+      <c r="B9" s="280" t="s">
         <v>326</v>
       </c>
       <c r="C9" s="202">
@@ -19609,7 +20229,7 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B10" s="282" t="s">
+      <c r="B10" s="280" t="s">
         <v>90</v>
       </c>
       <c r="C10" s="202">
@@ -19640,7 +20260,7 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B11" s="282" t="s">
+      <c r="B11" s="280" t="s">
         <v>91</v>
       </c>
       <c r="C11" s="202">
@@ -19671,7 +20291,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B12" s="282" t="s">
+      <c r="B12" s="280" t="s">
         <v>92</v>
       </c>
       <c r="C12" s="202">
@@ -19702,7 +20322,7 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="B13" s="282" t="s">
+      <c r="B13" s="280" t="s">
         <v>469</v>
       </c>
       <c r="C13" s="202">
@@ -19733,8 +20353,8 @@
         <f>ROW(A14)-3</f>
         <v>11</v>
       </c>
-      <c r="B14" s="282" t="s">
-        <v>753</v>
+      <c r="B14" s="280" t="s">
+        <v>752</v>
       </c>
       <c r="C14" s="202">
         <v>0</v>
@@ -19764,7 +20384,7 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="B15" s="282" t="s">
+      <c r="B15" s="280" t="s">
         <v>475</v>
       </c>
       <c r="C15" s="202">
@@ -20261,7 +20881,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C31" s="13">
         <v>0</v>
@@ -20322,13 +20942,13 @@
         <f>ROW(A33)-3</f>
         <v>30</v>
       </c>
-      <c r="B33" s="283" t="s">
+      <c r="B33" s="281" t="s">
         <v>265</v>
       </c>
-      <c r="C33" s="284">
-        <v>0</v>
-      </c>
-      <c r="D33" s="284">
+      <c r="C33" s="282">
+        <v>0</v>
+      </c>
+      <c r="D33" s="282">
         <v>0</v>
       </c>
       <c r="E33" s="200">
@@ -20353,13 +20973,13 @@
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="B34" s="285" t="s">
+      <c r="B34" s="283" t="s">
         <v>300</v>
       </c>
-      <c r="C34" s="286">
-        <v>0</v>
-      </c>
-      <c r="D34" s="286">
+      <c r="C34" s="284">
+        <v>0</v>
+      </c>
+      <c r="D34" s="284">
         <v>0</v>
       </c>
       <c r="E34" s="200">
@@ -20370,11 +20990,11 @@
         <f t="shared" si="1"/>
         <v>286695000</v>
       </c>
-      <c r="G34" s="287">
+      <c r="G34" s="285">
         <f t="shared" ref="G34" si="16">ROUND(MAX(C34+E34-D34-F34,0),2)</f>
         <v>3465000</v>
       </c>
-      <c r="H34" s="287">
+      <c r="H34" s="285">
         <f t="shared" ref="H34" si="17">ROUND(MAX(D34+F34-C34-E34,0),2)</f>
         <v>0</v>
       </c>
@@ -20384,13 +21004,13 @@
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="B35" s="282" t="s">
+      <c r="B35" s="280" t="s">
         <v>301</v>
       </c>
-      <c r="C35" s="286">
-        <v>0</v>
-      </c>
-      <c r="D35" s="286">
+      <c r="C35" s="284">
+        <v>0</v>
+      </c>
+      <c r="D35" s="284">
         <v>0</v>
       </c>
       <c r="E35" s="200">
@@ -20401,11 +21021,11 @@
         <f t="shared" si="1"/>
         <v>800444500</v>
       </c>
-      <c r="G35" s="287">
+      <c r="G35" s="285">
         <f t="shared" ref="G35:G73" si="18">ROUND(MAX(C35+E35-D35-F35,0),2)</f>
         <v>6866500</v>
       </c>
-      <c r="H35" s="287">
+      <c r="H35" s="285">
         <f t="shared" ref="H35:H73" si="19">ROUND(MAX(D35+F35-C35-E35,0),2)</f>
         <v>0</v>
       </c>
@@ -20415,13 +21035,13 @@
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="B36" s="282" t="s">
+      <c r="B36" s="280" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="286">
-        <v>0</v>
-      </c>
-      <c r="D36" s="286">
+      <c r="C36" s="284">
+        <v>0</v>
+      </c>
+      <c r="D36" s="284">
         <v>0</v>
       </c>
       <c r="E36" s="200">
@@ -20432,11 +21052,11 @@
         <f t="shared" si="1"/>
         <v>693940000</v>
       </c>
-      <c r="G36" s="287">
+      <c r="G36" s="285">
         <f t="shared" si="18"/>
         <v>3486500</v>
       </c>
-      <c r="H36" s="287">
+      <c r="H36" s="285">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -20446,13 +21066,13 @@
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="B37" s="282" t="s">
+      <c r="B37" s="280" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="286">
-        <v>0</v>
-      </c>
-      <c r="D37" s="286">
+      <c r="C37" s="284">
+        <v>0</v>
+      </c>
+      <c r="D37" s="284">
         <v>0</v>
       </c>
       <c r="E37" s="200">
@@ -20463,11 +21083,11 @@
         <f t="shared" si="1"/>
         <v>700324000</v>
       </c>
-      <c r="G37" s="287">
+      <c r="G37" s="285">
         <f t="shared" si="18"/>
         <v>3474000</v>
       </c>
-      <c r="H37" s="287">
+      <c r="H37" s="285">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -20477,13 +21097,13 @@
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="B38" s="282" t="s">
+      <c r="B38" s="280" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="286">
-        <v>0</v>
-      </c>
-      <c r="D38" s="286">
+      <c r="C38" s="284">
+        <v>0</v>
+      </c>
+      <c r="D38" s="284">
         <v>0</v>
       </c>
       <c r="E38" s="200">
@@ -20494,11 +21114,11 @@
         <f t="shared" si="1"/>
         <v>773009500</v>
       </c>
-      <c r="G38" s="287">
+      <c r="G38" s="285">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="H38" s="287">
+      <c r="H38" s="285">
         <f t="shared" si="19"/>
         <v>1738500</v>
       </c>
@@ -21691,7 +22311,7 @@
   </sheetPr>
   <dimension ref="A2:J1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A772" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B26" sqref="B26"/>
       <selection pane="bottomLeft" activeCell="D789" sqref="D789"/>
@@ -21730,7 +22350,7 @@
       <c r="B3" s="54"/>
       <c r="C3" s="54"/>
       <c r="G3" s="100"/>
-      <c r="H3" s="325" t="s">
+      <c r="H3" s="322" t="s">
         <v>250</v>
       </c>
     </row>
@@ -21739,67 +22359,67 @@
       <c r="B4" s="54"/>
       <c r="C4" s="54"/>
       <c r="G4" s="100"/>
-      <c r="H4" s="325"/>
+      <c r="H4" s="322"/>
     </row>
     <row r="5" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A5" s="324" t="s">
+      <c r="A5" s="321" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="324"/>
-      <c r="C5" s="324"/>
-      <c r="D5" s="324"/>
-      <c r="E5" s="324"/>
-      <c r="F5" s="324"/>
-      <c r="G5" s="324"/>
-      <c r="H5" s="324"/>
+      <c r="B5" s="321"/>
+      <c r="C5" s="321"/>
+      <c r="D5" s="321"/>
+      <c r="E5" s="321"/>
+      <c r="F5" s="321"/>
+      <c r="G5" s="321"/>
+      <c r="H5" s="321"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A6" s="301" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="301"/>
-      <c r="C6" s="301"/>
-      <c r="D6" s="301"/>
-      <c r="E6" s="301"/>
-      <c r="F6" s="301"/>
-      <c r="G6" s="301"/>
-      <c r="H6" s="301"/>
+      <c r="A6" s="311" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="311"/>
+      <c r="C6" s="311"/>
+      <c r="D6" s="311"/>
+      <c r="E6" s="311"/>
+      <c r="F6" s="311"/>
+      <c r="G6" s="311"/>
+      <c r="H6" s="311"/>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A7" s="301" t="s">
+      <c r="A7" s="311" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="301"/>
-      <c r="C7" s="301"/>
-      <c r="D7" s="301"/>
-      <c r="E7" s="301"/>
-      <c r="F7" s="301"/>
-      <c r="G7" s="301"/>
-      <c r="H7" s="301"/>
+      <c r="B7" s="311"/>
+      <c r="C7" s="311"/>
+      <c r="D7" s="311"/>
+      <c r="E7" s="311"/>
+      <c r="F7" s="311"/>
+      <c r="G7" s="311"/>
+      <c r="H7" s="311"/>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A8" s="301" t="s">
+      <c r="A8" s="311" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="301"/>
-      <c r="C8" s="301"/>
-      <c r="D8" s="301"/>
-      <c r="E8" s="301"/>
-      <c r="F8" s="301"/>
-      <c r="G8" s="301"/>
-      <c r="H8" s="301"/>
+      <c r="B8" s="311"/>
+      <c r="C8" s="311"/>
+      <c r="D8" s="311"/>
+      <c r="E8" s="311"/>
+      <c r="F8" s="311"/>
+      <c r="G8" s="311"/>
+      <c r="H8" s="311"/>
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A9" s="301" t="s">
+      <c r="A9" s="311" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="301"/>
-      <c r="C9" s="301"/>
-      <c r="D9" s="301"/>
-      <c r="E9" s="301"/>
-      <c r="F9" s="301"/>
-      <c r="G9" s="301"/>
-      <c r="H9" s="301"/>
+      <c r="B9" s="311"/>
+      <c r="C9" s="311"/>
+      <c r="D9" s="311"/>
+      <c r="E9" s="311"/>
+      <c r="F9" s="311"/>
+      <c r="G9" s="311"/>
+      <c r="H9" s="311"/>
     </row>
     <row r="10" spans="1:9" ht="14.25" customHeight="1">
       <c r="C10" s="323"/>
@@ -21810,38 +22430,38 @@
       <c r="H10" s="323"/>
     </row>
     <row r="11" spans="1:9" ht="21" customHeight="1">
-      <c r="A11" s="312" t="s">
+      <c r="A11" s="302" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="302" t="s">
+      <c r="B11" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="315"/>
-      <c r="D11" s="312" t="s">
+      <c r="C11" s="306"/>
+      <c r="D11" s="302" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="312" t="s">
+      <c r="E11" s="302" t="s">
         <v>323</v>
       </c>
-      <c r="F11" s="312" t="s">
+      <c r="F11" s="302" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="302" t="s">
+      <c r="G11" s="305" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="315"/>
+      <c r="H11" s="306"/>
     </row>
     <row r="12" spans="1:9" ht="21" customHeight="1">
-      <c r="A12" s="313"/>
+      <c r="A12" s="303"/>
       <c r="B12" s="140" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="313"/>
-      <c r="E12" s="313"/>
-      <c r="F12" s="313"/>
+      <c r="D12" s="303"/>
+      <c r="E12" s="303"/>
+      <c r="F12" s="303"/>
       <c r="G12" s="140" t="s">
         <v>10</v>
       </c>
@@ -24121,7 +24741,7 @@
         <v>42029</v>
       </c>
       <c r="B92" s="86" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C92" s="85">
         <v>42029</v>
@@ -24150,7 +24770,7 @@
         <v>42029</v>
       </c>
       <c r="B93" s="86" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C93" s="85">
         <v>42029</v>
@@ -24179,7 +24799,7 @@
         <v>42029</v>
       </c>
       <c r="B94" s="86" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C94" s="85">
         <v>42029</v>
@@ -24701,7 +25321,7 @@
         <v>42028</v>
       </c>
       <c r="B112" s="86" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C112" s="85">
         <v>42028</v>
@@ -24730,7 +25350,7 @@
         <v>42028</v>
       </c>
       <c r="B113" s="86" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C113" s="85">
         <v>42028</v>
@@ -24759,7 +25379,7 @@
         <v>42028</v>
       </c>
       <c r="B114" s="86" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C114" s="85">
         <v>42028</v>
@@ -42826,7 +43446,7 @@
         <v>42321</v>
       </c>
       <c r="B753" s="88" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C753" s="85">
         <v>42321</v>
@@ -42854,7 +43474,7 @@
         <v>42321</v>
       </c>
       <c r="B754" s="88" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C754" s="85">
         <v>42321</v>
@@ -42882,7 +43502,7 @@
         <v>42321</v>
       </c>
       <c r="B755" s="88" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C755" s="85">
         <v>42321</v>
@@ -42910,13 +43530,13 @@
         <v>42321</v>
       </c>
       <c r="B756" s="88" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C756" s="85">
         <v>42321</v>
       </c>
       <c r="D756" s="87" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E756" s="206" t="s">
         <v>327</v>
@@ -42938,7 +43558,7 @@
         <v>42327</v>
       </c>
       <c r="B757" s="88" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C757" s="85">
         <v>42327</v>
@@ -42966,7 +43586,7 @@
         <v>42327</v>
       </c>
       <c r="B758" s="88" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C758" s="85">
         <v>42327</v>
@@ -42994,7 +43614,7 @@
         <v>42328</v>
       </c>
       <c r="B759" s="88" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C759" s="85">
         <v>42328</v>
@@ -43022,7 +43642,7 @@
         <v>42332</v>
       </c>
       <c r="B760" s="88" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C760" s="85">
         <v>42332</v>
@@ -43050,7 +43670,7 @@
         <v>42332</v>
       </c>
       <c r="B761" s="88" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C761" s="85">
         <v>42332</v>
@@ -43078,7 +43698,7 @@
         <v>42336</v>
       </c>
       <c r="B762" s="88" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C762" s="85">
         <v>42336</v>
@@ -43106,7 +43726,7 @@
         <v>42336</v>
       </c>
       <c r="B763" s="88" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C763" s="85">
         <v>42336</v>
@@ -43134,7 +43754,7 @@
         <v>42336</v>
       </c>
       <c r="B764" s="88" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C764" s="85">
         <v>42336</v>
@@ -43162,13 +43782,13 @@
         <v>42338</v>
       </c>
       <c r="B765" s="88" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C765" s="85">
         <v>42338</v>
       </c>
       <c r="D765" s="87" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E765" s="206" t="s">
         <v>329</v>
@@ -43190,13 +43810,13 @@
         <v>42338</v>
       </c>
       <c r="B766" s="88" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C766" s="85">
         <v>42338</v>
       </c>
       <c r="D766" s="87" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E766" s="206" t="s">
         <v>329</v>
@@ -43218,7 +43838,7 @@
         <v>42338</v>
       </c>
       <c r="B767" s="88" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C767" s="85">
         <v>42338</v>
@@ -43246,7 +43866,7 @@
         <v>42338</v>
       </c>
       <c r="B768" s="88" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C768" s="85">
         <v>42338</v>
@@ -43274,13 +43894,13 @@
         <v>42338</v>
       </c>
       <c r="B769" s="88" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C769" s="85">
         <v>42338</v>
       </c>
       <c r="D769" s="87" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E769" s="206" t="s">
         <v>99</v>
@@ -43302,13 +43922,13 @@
         <v>42338</v>
       </c>
       <c r="B770" s="88" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C770" s="85">
         <v>42338</v>
       </c>
       <c r="D770" s="87" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E770" s="206" t="s">
         <v>99</v>
@@ -43330,13 +43950,13 @@
         <v>42314</v>
       </c>
       <c r="B771" s="88" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C771" s="85">
         <v>42314</v>
       </c>
       <c r="D771" s="87" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E771" s="206" t="s">
         <v>100</v>
@@ -43358,13 +43978,13 @@
         <v>42314</v>
       </c>
       <c r="B772" s="88" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C772" s="85">
         <v>42314</v>
       </c>
       <c r="D772" s="87" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E772" s="206" t="s">
         <v>100</v>
@@ -43383,13 +44003,13 @@
         <v>42324</v>
       </c>
       <c r="B773" s="88" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C773" s="85">
         <v>42324</v>
       </c>
       <c r="D773" s="87" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E773" s="206" t="s">
         <v>100</v>
@@ -43408,13 +44028,13 @@
         <v>42324</v>
       </c>
       <c r="B774" s="88" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C774" s="85">
         <v>42324</v>
       </c>
       <c r="D774" s="87" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E774" s="206" t="s">
         <v>100</v>
@@ -43433,13 +44053,13 @@
         <v>42334</v>
       </c>
       <c r="B775" s="88" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C775" s="85">
         <v>42335</v>
       </c>
       <c r="D775" s="87" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E775" s="206" t="s">
         <v>100</v>
@@ -43458,13 +44078,13 @@
         <v>42334</v>
       </c>
       <c r="B776" s="88" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C776" s="85">
         <v>42335</v>
       </c>
       <c r="D776" s="87" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E776" s="206" t="s">
         <v>100</v>
@@ -43483,13 +44103,13 @@
         <v>42335</v>
       </c>
       <c r="B777" s="88" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C777" s="85">
         <v>42335</v>
       </c>
       <c r="D777" s="87" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E777" s="206" t="s">
         <v>95</v>
@@ -43508,13 +44128,13 @@
         <v>42335</v>
       </c>
       <c r="B778" s="88" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C778" s="85">
         <v>42335</v>
       </c>
       <c r="D778" s="87" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E778" s="206" t="s">
         <v>95</v>
@@ -43539,7 +44159,7 @@
         <v>42314</v>
       </c>
       <c r="D779" s="87" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E779" s="206" t="s">
         <v>100</v>
@@ -43567,10 +44187,10 @@
         <v>42319</v>
       </c>
       <c r="D780" s="87" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E780" s="206" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F780" s="88" t="s">
         <v>142</v>
@@ -43595,7 +44215,7 @@
         <v>42321</v>
       </c>
       <c r="D781" s="87" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E781" s="206" t="s">
         <v>327</v>
@@ -43623,7 +44243,7 @@
         <v>42321</v>
       </c>
       <c r="D782" s="87" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E782" s="206" t="s">
         <v>654</v>
@@ -43679,10 +44299,10 @@
         <v>42321</v>
       </c>
       <c r="D784" s="87" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E784" s="206" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F784" s="88" t="s">
         <v>142</v>
@@ -43707,7 +44327,7 @@
         <v>42321</v>
       </c>
       <c r="D785" s="87" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E785" s="206" t="s">
         <v>327</v>
@@ -43763,7 +44383,7 @@
         <v>42321</v>
       </c>
       <c r="D787" s="87" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E787" s="206" t="s">
         <v>100</v>
@@ -43791,7 +44411,7 @@
         <v>42335</v>
       </c>
       <c r="D788" s="87" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E788" s="206" t="s">
         <v>100</v>
@@ -46790,12 +47410,6 @@
     <sortCondition ref="A699"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:H8"/>
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:C11"/>
@@ -46803,6 +47417,12 @@
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:H8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -46855,11 +47475,11 @@
       <c r="B2" s="54"/>
       <c r="C2" s="54"/>
       <c r="G2" s="99"/>
-      <c r="H2" s="329" t="s">
+      <c r="H2" s="326" t="s">
         <v>249</v>
       </c>
-      <c r="I2" s="329"/>
-      <c r="J2" s="329"/>
+      <c r="I2" s="326"/>
+      <c r="J2" s="326"/>
     </row>
     <row r="3" spans="1:12" s="55" customFormat="1" ht="14.25" customHeight="1">
       <c r="A3" s="56" t="s">
@@ -46868,90 +47488,90 @@
       <c r="B3" s="54"/>
       <c r="C3" s="54"/>
       <c r="G3" s="100"/>
-      <c r="H3" s="325" t="s">
+      <c r="H3" s="322" t="s">
         <v>250</v>
       </c>
-      <c r="I3" s="325"/>
-      <c r="J3" s="325"/>
+      <c r="I3" s="322"/>
+      <c r="J3" s="322"/>
     </row>
     <row r="4" spans="1:12" s="55" customFormat="1" ht="14.25" customHeight="1">
       <c r="A4" s="57"/>
       <c r="B4" s="54"/>
       <c r="C4" s="54"/>
       <c r="G4" s="100"/>
-      <c r="H4" s="325"/>
-      <c r="I4" s="325"/>
-      <c r="J4" s="325"/>
+      <c r="H4" s="322"/>
+      <c r="I4" s="322"/>
+      <c r="J4" s="322"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1">
-      <c r="A5" s="324" t="s">
+      <c r="A5" s="321" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="324"/>
-      <c r="C5" s="324"/>
-      <c r="D5" s="324"/>
-      <c r="E5" s="324"/>
-      <c r="F5" s="324"/>
-      <c r="G5" s="324"/>
-      <c r="H5" s="324"/>
-      <c r="I5" s="324"/>
-      <c r="J5" s="324"/>
+      <c r="B5" s="321"/>
+      <c r="C5" s="321"/>
+      <c r="D5" s="321"/>
+      <c r="E5" s="321"/>
+      <c r="F5" s="321"/>
+      <c r="G5" s="321"/>
+      <c r="H5" s="321"/>
+      <c r="I5" s="321"/>
+      <c r="J5" s="321"/>
       <c r="L5" s="144" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="23" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A6" s="326" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="326"/>
-      <c r="C6" s="326"/>
-      <c r="D6" s="326"/>
-      <c r="E6" s="326"/>
-      <c r="F6" s="326"/>
-      <c r="G6" s="326"/>
-      <c r="H6" s="326"/>
-      <c r="I6" s="326"/>
-      <c r="J6" s="326"/>
+      <c r="A6" s="324" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="324"/>
+      <c r="C6" s="324"/>
+      <c r="D6" s="324"/>
+      <c r="E6" s="324"/>
+      <c r="F6" s="324"/>
+      <c r="G6" s="324"/>
+      <c r="H6" s="324"/>
+      <c r="I6" s="324"/>
+      <c r="J6" s="324"/>
     </row>
     <row r="7" spans="1:12" s="23" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A7" s="326" t="s">
+      <c r="A7" s="324" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="326"/>
-      <c r="C7" s="326"/>
-      <c r="D7" s="326"/>
-      <c r="E7" s="326"/>
-      <c r="F7" s="326"/>
-      <c r="G7" s="326"/>
-      <c r="H7" s="326"/>
-      <c r="I7" s="326"/>
-      <c r="J7" s="326"/>
+      <c r="B7" s="324"/>
+      <c r="C7" s="324"/>
+      <c r="D7" s="324"/>
+      <c r="E7" s="324"/>
+      <c r="F7" s="324"/>
+      <c r="G7" s="324"/>
+      <c r="H7" s="324"/>
+      <c r="I7" s="324"/>
+      <c r="J7" s="324"/>
     </row>
     <row r="8" spans="1:12" s="23" customFormat="1" ht="14.25" customHeight="1">
       <c r="D8" s="219" t="s">
         <v>324</v>
       </c>
-      <c r="E8" s="328" t="s">
+      <c r="E8" s="325" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="328"/>
-      <c r="G8" s="328"/>
-      <c r="H8" s="328"/>
+      <c r="F8" s="325"/>
+      <c r="G8" s="325"/>
+      <c r="H8" s="325"/>
     </row>
     <row r="9" spans="1:12" s="23" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A9" s="326" t="s">
+      <c r="A9" s="324" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="326"/>
-      <c r="C9" s="326"/>
-      <c r="D9" s="326"/>
-      <c r="E9" s="326"/>
-      <c r="F9" s="326"/>
-      <c r="G9" s="326"/>
-      <c r="H9" s="326"/>
-      <c r="I9" s="326"/>
-      <c r="J9" s="326"/>
+      <c r="B9" s="324"/>
+      <c r="C9" s="324"/>
+      <c r="D9" s="324"/>
+      <c r="E9" s="324"/>
+      <c r="F9" s="324"/>
+      <c r="G9" s="324"/>
+      <c r="H9" s="324"/>
+      <c r="I9" s="324"/>
+      <c r="J9" s="324"/>
     </row>
     <row r="10" spans="1:12" s="23" customFormat="1" ht="6" customHeight="1">
       <c r="B10" s="24"/>
@@ -46965,42 +47585,42 @@
       <c r="J10" s="327"/>
     </row>
     <row r="11" spans="1:12" s="23" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A11" s="298" t="s">
+      <c r="A11" s="289" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="291" t="s">
+      <c r="B11" s="292" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="293"/>
-      <c r="D11" s="298" t="s">
+      <c r="D11" s="289" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="298" t="s">
+      <c r="E11" s="289" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="298" t="s">
+      <c r="F11" s="289" t="s">
         <v>125</v>
       </c>
-      <c r="G11" s="291" t="s">
+      <c r="G11" s="292" t="s">
         <v>6</v>
       </c>
       <c r="H11" s="293"/>
-      <c r="I11" s="291" t="s">
+      <c r="I11" s="292" t="s">
         <v>7</v>
       </c>
       <c r="J11" s="293"/>
     </row>
     <row r="12" spans="1:12" s="23" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A12" s="299"/>
+      <c r="A12" s="290"/>
       <c r="B12" s="218" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="299"/>
-      <c r="E12" s="299"/>
-      <c r="F12" s="299"/>
+      <c r="D12" s="290"/>
+      <c r="E12" s="290"/>
+      <c r="F12" s="290"/>
       <c r="G12" s="218" t="s">
         <v>10</v>
       </c>
@@ -55153,59 +55773,57 @@
     <row r="226" spans="1:10" s="23" customFormat="1" ht="14.25" customHeight="1">
       <c r="B226" s="24"/>
       <c r="C226" s="24"/>
-      <c r="E226" s="326" t="s">
+      <c r="E226" s="324" t="s">
         <v>128</v>
       </c>
-      <c r="F226" s="326"/>
-      <c r="G226" s="326"/>
-      <c r="H226" s="326"/>
-      <c r="I226" s="326"/>
-      <c r="J226" s="326"/>
+      <c r="F226" s="324"/>
+      <c r="G226" s="324"/>
+      <c r="H226" s="324"/>
+      <c r="I226" s="324"/>
+      <c r="J226" s="324"/>
     </row>
     <row r="227" spans="1:10" s="23" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A227" s="326" t="s">
+      <c r="A227" s="324" t="s">
         <v>21</v>
       </c>
-      <c r="B227" s="326"/>
-      <c r="C227" s="326"/>
-      <c r="D227" s="326"/>
-      <c r="E227" s="326" t="s">
+      <c r="B227" s="324"/>
+      <c r="C227" s="324"/>
+      <c r="D227" s="324"/>
+      <c r="E227" s="324" t="s">
         <v>22</v>
       </c>
-      <c r="F227" s="326"/>
-      <c r="G227" s="326"/>
-      <c r="H227" s="326"/>
-      <c r="I227" s="326"/>
-      <c r="J227" s="326"/>
+      <c r="F227" s="324"/>
+      <c r="G227" s="324"/>
+      <c r="H227" s="324"/>
+      <c r="I227" s="324"/>
+      <c r="J227" s="324"/>
     </row>
     <row r="228" spans="1:10" s="23" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A228" s="326" t="s">
+      <c r="A228" s="324" t="s">
         <v>23</v>
       </c>
-      <c r="B228" s="326"/>
-      <c r="C228" s="326"/>
-      <c r="D228" s="326"/>
-      <c r="E228" s="326" t="s">
+      <c r="B228" s="324"/>
+      <c r="C228" s="324"/>
+      <c r="D228" s="324"/>
+      <c r="E228" s="324" t="s">
         <v>23</v>
       </c>
-      <c r="F228" s="326"/>
-      <c r="G228" s="326"/>
-      <c r="H228" s="326"/>
-      <c r="I228" s="326"/>
-      <c r="J228" s="326"/>
+      <c r="F228" s="324"/>
+      <c r="G228" s="324"/>
+      <c r="H228" s="324"/>
+      <c r="I228" s="324"/>
+      <c r="J228" s="324"/>
     </row>
     <row r="229" spans="1:10" ht="15" customHeight="1"/>
     <row r="231" spans="1:10" ht="15" customHeight="1"/>
     <row r="233" spans="1:10" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J4"/>
-    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="E226:J226"/>
+    <mergeCell ref="A227:D227"/>
+    <mergeCell ref="E227:J227"/>
+    <mergeCell ref="A228:D228"/>
+    <mergeCell ref="E228:J228"/>
     <mergeCell ref="C10:J10"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="A11:A12"/>
@@ -55214,11 +55832,13 @@
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E226:J226"/>
-    <mergeCell ref="A227:D227"/>
-    <mergeCell ref="E227:J227"/>
-    <mergeCell ref="A228:D228"/>
-    <mergeCell ref="E228:J228"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J4"/>
+    <mergeCell ref="A7:J7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="2">
